--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1250000/Output_23_4.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1250000/Output_23_4.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-2203140.893824869</v>
+        <v>-2206062.138809122</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603248.4937673433</v>
+        <v>603248.4937673432</v>
       </c>
     </row>
     <row r="9">
@@ -896,7 +896,7 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>18.20424464057489</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
@@ -908,7 +908,7 @@
         <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
-        <v>13.79223673232704</v>
+        <v>34.88448735196263</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -920,7 +920,7 @@
         <v>0</v>
       </c>
       <c r="K5" t="n">
-        <v>27.9484870938667</v>
+        <v>0</v>
       </c>
       <c r="L5" t="n">
         <v>0</v>
@@ -935,10 +935,10 @@
         <v>0</v>
       </c>
       <c r="P5" t="n">
-        <v>14.02109506149981</v>
+        <v>0</v>
       </c>
       <c r="Q5" t="n">
-        <v>32.21140045680978</v>
+        <v>0</v>
       </c>
       <c r="R5" t="n">
         <v>0</v>
@@ -956,7 +956,7 @@
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>34.88448735196263</v>
       </c>
       <c r="X5" t="n">
         <v>0</v>
@@ -975,10 +975,10 @@
         <v>0</v>
       </c>
       <c r="C6" t="n">
-        <v>23.38964480609745</v>
+        <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>34.88448735196346</v>
+        <v>34.88448735196263</v>
       </c>
       <c r="E6" t="n">
         <v>0</v>
@@ -990,16 +990,16 @@
         <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>34.88448735196346</v>
+        <v>0</v>
       </c>
       <c r="I6" t="n">
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>34.88448735196263</v>
       </c>
       <c r="K6" t="n">
-        <v>7.336611653511966</v>
+        <v>0</v>
       </c>
       <c r="L6" t="n">
         <v>0</v>
@@ -1017,7 +1017,7 @@
         <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>34.88448735196346</v>
+        <v>0</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -1026,7 +1026,7 @@
         <v>0</v>
       </c>
       <c r="T6" t="n">
-        <v>0</v>
+        <v>34.88448735196263</v>
       </c>
       <c r="U6" t="n">
         <v>0</v>
@@ -1038,7 +1038,7 @@
         <v>0</v>
       </c>
       <c r="X6" t="n">
-        <v>0</v>
+        <v>30.72625645960867</v>
       </c>
       <c r="Y6" t="n">
         <v>0</v>
@@ -1130,10 +1130,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>92.66494928910228</v>
       </c>
       <c r="C8" t="n">
-        <v>26.17438373432626</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
@@ -1145,58 +1145,58 @@
         <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
+        <v>74.74324159212981</v>
+      </c>
+      <c r="H8" t="n">
         <v>92.66494928910228</v>
       </c>
-      <c r="H8" t="n">
-        <v>0</v>
-      </c>
       <c r="I8" t="n">
+        <v>0</v>
+      </c>
+      <c r="J8" t="n">
+        <v>0</v>
+      </c>
+      <c r="K8" t="n">
+        <v>0</v>
+      </c>
+      <c r="L8" t="n">
+        <v>0</v>
+      </c>
+      <c r="M8" t="n">
+        <v>0</v>
+      </c>
+      <c r="N8" t="n">
+        <v>0</v>
+      </c>
+      <c r="O8" t="n">
+        <v>0</v>
+      </c>
+      <c r="P8" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q8" t="n">
+        <v>0</v>
+      </c>
+      <c r="R8" t="n">
+        <v>0</v>
+      </c>
+      <c r="S8" t="n">
+        <v>0</v>
+      </c>
+      <c r="T8" t="n">
+        <v>0</v>
+      </c>
+      <c r="U8" t="n">
+        <v>0</v>
+      </c>
+      <c r="V8" t="n">
+        <v>0</v>
+      </c>
+      <c r="W8" t="n">
+        <v>0</v>
+      </c>
+      <c r="X8" t="n">
         <v>92.66494928910228</v>
-      </c>
-      <c r="J8" t="n">
-        <v>24.91528667358034</v>
-      </c>
-      <c r="K8" t="n">
-        <v>0</v>
-      </c>
-      <c r="L8" t="n">
-        <v>0</v>
-      </c>
-      <c r="M8" t="n">
-        <v>0</v>
-      </c>
-      <c r="N8" t="n">
-        <v>0</v>
-      </c>
-      <c r="O8" t="n">
-        <v>0</v>
-      </c>
-      <c r="P8" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q8" t="n">
-        <v>23.65357118422321</v>
-      </c>
-      <c r="R8" t="n">
-        <v>92.66494928910228</v>
-      </c>
-      <c r="S8" t="n">
-        <v>0</v>
-      </c>
-      <c r="T8" t="n">
-        <v>0</v>
-      </c>
-      <c r="U8" t="n">
-        <v>0</v>
-      </c>
-      <c r="V8" t="n">
-        <v>0</v>
-      </c>
-      <c r="W8" t="n">
-        <v>0</v>
-      </c>
-      <c r="X8" t="n">
-        <v>0</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -1212,7 +1212,7 @@
         <v>0</v>
       </c>
       <c r="C9" t="n">
-        <v>75.37201941954116</v>
+        <v>0</v>
       </c>
       <c r="D9" t="n">
         <v>92.66494928910228</v>
@@ -1233,7 +1233,7 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>33.84730027516771</v>
       </c>
       <c r="K9" t="n">
         <v>0</v>
@@ -1257,16 +1257,16 @@
         <v>14.34273879062268</v>
       </c>
       <c r="R9" t="n">
-        <v>84.5694784127797</v>
+        <v>0</v>
       </c>
       <c r="S9" t="n">
-        <v>0</v>
+        <v>33.42924826805087</v>
       </c>
       <c r="T9" t="n">
-        <v>0</v>
+        <v>92.66494928910228</v>
       </c>
       <c r="U9" t="n">
-        <v>0</v>
+        <v>92.66494928910228</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -1278,7 +1278,7 @@
         <v>0</v>
       </c>
       <c r="Y9" t="n">
-        <v>92.66494928910228</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10">
@@ -1367,22 +1367,22 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>382.7338416634804</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C11" t="n">
-        <v>365.2728917710074</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D11" t="n">
-        <v>354.6830416206828</v>
+        <v>0.6767922104160061</v>
       </c>
       <c r="E11" t="n">
-        <v>381.9303700722616</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F11" t="n">
-        <v>406.8760457417113</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
-        <v>410.9217256534533</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -1418,25 +1418,25 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W11" t="n">
-        <v>168.1158122680985</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>369.7311006784689</v>
+        <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>386.2379386560534</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="12">
@@ -1525,16 +1525,16 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
@@ -1543,10 +1543,10 @@
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I13" t="n">
-        <v>74.75769145493589</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,25 +1573,25 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>189.7690253314419</v>
+        <v>38.26221019674286</v>
       </c>
       <c r="T13" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
         <v>286.2118382056129</v>
       </c>
       <c r="V13" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>286.522998336579</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>225.709655389037</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
         <v>218.5846533520948</v>
@@ -1616,7 +1616,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F14" t="n">
-        <v>406.8760457417114</v>
+        <v>321.6839351231287</v>
       </c>
       <c r="G14" t="n">
         <v>410.1644063769637</v>
@@ -1625,7 +1625,7 @@
         <v>286.8518683469699</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>12.38037836605503</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1655,22 +1655,22 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>91.93034877516574</v>
       </c>
       <c r="T14" t="n">
         <v>200.6028050067863</v>
       </c>
       <c r="U14" t="n">
-        <v>228.0743607310862</v>
+        <v>250.9345864167828</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W14" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X14" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y14" t="n">
         <v>386.2379386560536</v>
@@ -1762,7 +1762,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
         <v>167.2468210986278</v>
@@ -1771,10 +1771,10 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
         <v>165.6861009032421</v>
@@ -1783,7 +1783,7 @@
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>86.13649374674408</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1813,10 +1813,10 @@
         <v>73.65767465442975</v>
       </c>
       <c r="S16" t="n">
-        <v>15.77817583394189</v>
+        <v>183.8488525946973</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>218.097472392356</v>
       </c>
       <c r="U16" t="n">
         <v>286.1933087134791</v>
@@ -1828,7 +1828,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>171.6553354450705</v>
       </c>
       <c r="Y16" t="n">
         <v>218.5846533520948</v>
@@ -1841,25 +1841,25 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>351.1236393112666</v>
+        <v>351.1236393112667</v>
       </c>
       <c r="C17" t="n">
-        <v>333.6626894187935</v>
+        <v>333.6626894187937</v>
       </c>
       <c r="D17" t="n">
-        <v>323.072839268469</v>
+        <v>323.0728392684691</v>
       </c>
       <c r="E17" t="n">
-        <v>350.3201677200478</v>
+        <v>350.3201677200479</v>
       </c>
       <c r="F17" t="n">
-        <v>375.2658433894974</v>
+        <v>375.2658433894975</v>
       </c>
       <c r="G17" t="n">
-        <v>378.5542040247497</v>
+        <v>378.5542040247498</v>
       </c>
       <c r="H17" t="n">
-        <v>255.2416659947559</v>
+        <v>255.241665994756</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -1892,25 +1892,25 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>60.32014642294995</v>
+        <v>60.32014642295181</v>
       </c>
       <c r="T17" t="n">
-        <v>168.9926026545723</v>
+        <v>168.9926026545699</v>
       </c>
       <c r="U17" t="n">
-        <v>219.3243840645688</v>
+        <v>219.3243840645689</v>
       </c>
       <c r="V17" t="n">
-        <v>296.1420561179209</v>
+        <v>296.142056117921</v>
       </c>
       <c r="W17" t="n">
-        <v>317.630766365199</v>
+        <v>317.6307663651991</v>
       </c>
       <c r="X17" t="n">
-        <v>338.120898326255</v>
+        <v>338.1208983262551</v>
       </c>
       <c r="Y17" t="n">
-        <v>354.6277363038396</v>
+        <v>354.6277363038397</v>
       </c>
     </row>
     <row r="18">
@@ -1938,10 +1938,10 @@
         <v>134.5942676301787</v>
       </c>
       <c r="H18" t="n">
-        <v>85.68348164116146</v>
+        <v>85.68348164116145</v>
       </c>
       <c r="I18" t="n">
-        <v>4.866200902189036</v>
+        <v>4.866200902189007</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -1999,28 +1999,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>148.2217778297233</v>
+        <v>148.2217778297234</v>
       </c>
       <c r="C19" t="n">
-        <v>135.6366187464138</v>
+        <v>135.6366187464128</v>
       </c>
       <c r="D19" t="n">
         <v>117.0052706659984</v>
       </c>
       <c r="E19" t="n">
-        <v>114.8237602943552</v>
+        <v>114.8237602943553</v>
       </c>
       <c r="F19" t="n">
-        <v>113.8108456707172</v>
+        <v>113.8108456707173</v>
       </c>
       <c r="G19" t="n">
-        <v>134.0758985510281</v>
+        <v>134.0758985510282</v>
       </c>
       <c r="H19" t="n">
         <v>110.1245053442997</v>
       </c>
       <c r="I19" t="n">
-        <v>54.52629139453009</v>
+        <v>54.52629139453015</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2047,28 +2047,28 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>42.04747230221577</v>
+        <v>42.04747230221581</v>
       </c>
       <c r="S19" t="n">
         <v>152.2386502424833</v>
       </c>
       <c r="T19" t="n">
-        <v>186.487270040142</v>
+        <v>186.4872700401421</v>
       </c>
       <c r="U19" t="n">
-        <v>254.5831063612651</v>
+        <v>254.5831063612652</v>
       </c>
       <c r="V19" t="n">
-        <v>220.527440971614</v>
+        <v>220.5274409716141</v>
       </c>
       <c r="W19" t="n">
-        <v>254.912795984377</v>
+        <v>254.9127959843771</v>
       </c>
       <c r="X19" t="n">
-        <v>194.0994530368231</v>
+        <v>194.0994530368232</v>
       </c>
       <c r="Y19" t="n">
-        <v>186.9744509998808</v>
+        <v>186.9744509998809</v>
       </c>
     </row>
     <row r="20">
@@ -2078,25 +2078,25 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>351.1236393112665</v>
+        <v>351.1236393112667</v>
       </c>
       <c r="C20" t="n">
-        <v>333.6626894187934</v>
+        <v>333.6626894187937</v>
       </c>
       <c r="D20" t="n">
-        <v>323.0728392684688</v>
+        <v>323.0728392684691</v>
       </c>
       <c r="E20" t="n">
-        <v>350.3201677200477</v>
+        <v>350.3201677200479</v>
       </c>
       <c r="F20" t="n">
-        <v>375.2658433894973</v>
+        <v>375.2658433894975</v>
       </c>
       <c r="G20" t="n">
-        <v>378.5542040247496</v>
+        <v>378.5542040247477</v>
       </c>
       <c r="H20" t="n">
-        <v>255.2416659947557</v>
+        <v>255.241665994756</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -2129,25 +2129,25 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>60.32014642295356</v>
+        <v>60.32014642295182</v>
       </c>
       <c r="T20" t="n">
-        <v>168.9926026545722</v>
+        <v>168.9926026545724</v>
       </c>
       <c r="U20" t="n">
-        <v>219.3243840645687</v>
+        <v>219.3243840645689</v>
       </c>
       <c r="V20" t="n">
-        <v>296.1420561179208</v>
+        <v>296.142056117921</v>
       </c>
       <c r="W20" t="n">
-        <v>317.6307663651989</v>
+        <v>317.6307663651991</v>
       </c>
       <c r="X20" t="n">
-        <v>338.1208983262549</v>
+        <v>338.1208983262551</v>
       </c>
       <c r="Y20" t="n">
-        <v>354.6277363038395</v>
+        <v>354.6277363038397</v>
       </c>
     </row>
     <row r="21">
@@ -2236,28 +2236,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>148.2217778297232</v>
+        <v>148.2217778297234</v>
       </c>
       <c r="C22" t="n">
-        <v>135.6366187464137</v>
+        <v>135.6366187464139</v>
       </c>
       <c r="D22" t="n">
-        <v>117.0052706659982</v>
+        <v>117.0052706659984</v>
       </c>
       <c r="E22" t="n">
-        <v>114.8237602943551</v>
+        <v>114.8237602943553</v>
       </c>
       <c r="F22" t="n">
-        <v>113.8108456707171</v>
+        <v>113.8108456707173</v>
       </c>
       <c r="G22" t="n">
-        <v>134.075898551028</v>
+        <v>134.0758985510282</v>
       </c>
       <c r="H22" t="n">
-        <v>110.1245053442995</v>
+        <v>110.1245053442997</v>
       </c>
       <c r="I22" t="n">
-        <v>54.52629139452996</v>
+        <v>54.52629139453016</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2284,28 +2284,28 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>42.04747230221564</v>
+        <v>42.04747230221584</v>
       </c>
       <c r="S22" t="n">
-        <v>152.2386502424832</v>
+        <v>152.2386502424833</v>
       </c>
       <c r="T22" t="n">
-        <v>186.4872700401419</v>
+        <v>186.4872700401421</v>
       </c>
       <c r="U22" t="n">
-        <v>254.583106361265</v>
+        <v>254.5831063612652</v>
       </c>
       <c r="V22" t="n">
-        <v>220.5274409716139</v>
+        <v>220.5274409716141</v>
       </c>
       <c r="W22" t="n">
-        <v>254.9127959843769</v>
+        <v>254.9127959843771</v>
       </c>
       <c r="X22" t="n">
-        <v>194.099453036823</v>
+        <v>194.0994530368232</v>
       </c>
       <c r="Y22" t="n">
-        <v>186.9744509998807</v>
+        <v>186.9744509998809</v>
       </c>
     </row>
     <row r="23">
@@ -2315,25 +2315,25 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>351.1236393112665</v>
+        <v>351.1236393112667</v>
       </c>
       <c r="C23" t="n">
-        <v>333.6626894187934</v>
+        <v>333.6626894187937</v>
       </c>
       <c r="D23" t="n">
-        <v>323.0728392684688</v>
+        <v>323.0728392684691</v>
       </c>
       <c r="E23" t="n">
-        <v>350.3201677200477</v>
+        <v>350.3201677200479</v>
       </c>
       <c r="F23" t="n">
-        <v>375.2658433894973</v>
+        <v>375.2658433894975</v>
       </c>
       <c r="G23" t="n">
-        <v>378.5542040247496</v>
+        <v>378.5542040247498</v>
       </c>
       <c r="H23" t="n">
-        <v>255.2416659947557</v>
+        <v>255.241665994756</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -2366,25 +2366,25 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>60.32014642295162</v>
+        <v>60.32014642295181</v>
       </c>
       <c r="T23" t="n">
-        <v>168.9926026545722</v>
+        <v>168.9926026545724</v>
       </c>
       <c r="U23" t="n">
-        <v>219.3243840645687</v>
+        <v>219.3243840645689</v>
       </c>
       <c r="V23" t="n">
-        <v>296.1420561179208</v>
+        <v>296.142056117921</v>
       </c>
       <c r="W23" t="n">
-        <v>317.6307663651989</v>
+        <v>317.6307663651991</v>
       </c>
       <c r="X23" t="n">
-        <v>338.1208983262549</v>
+        <v>338.1208983262528</v>
       </c>
       <c r="Y23" t="n">
-        <v>354.6277363038395</v>
+        <v>354.6277363038397</v>
       </c>
     </row>
     <row r="24">
@@ -2412,10 +2412,10 @@
         <v>134.5942676301787</v>
       </c>
       <c r="H24" t="n">
-        <v>85.68348164116146</v>
+        <v>85.68348164116145</v>
       </c>
       <c r="I24" t="n">
-        <v>4.866200902189021</v>
+        <v>4.866200902189007</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2473,28 +2473,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>148.2217778297232</v>
+        <v>148.2217778297234</v>
       </c>
       <c r="C25" t="n">
-        <v>135.6366187464137</v>
+        <v>135.6366187464139</v>
       </c>
       <c r="D25" t="n">
-        <v>117.0052706659982</v>
+        <v>117.0052706659984</v>
       </c>
       <c r="E25" t="n">
-        <v>114.8237602943551</v>
+        <v>114.8237602943553</v>
       </c>
       <c r="F25" t="n">
-        <v>113.8108456707171</v>
+        <v>113.8108456707173</v>
       </c>
       <c r="G25" t="n">
-        <v>134.075898551028</v>
+        <v>134.0758985510282</v>
       </c>
       <c r="H25" t="n">
-        <v>110.1245053442995</v>
+        <v>110.1245053442997</v>
       </c>
       <c r="I25" t="n">
-        <v>54.52629139452996</v>
+        <v>54.52629139453015</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2521,28 +2521,28 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>42.04747230221564</v>
+        <v>42.04747230221582</v>
       </c>
       <c r="S25" t="n">
-        <v>152.2386502424832</v>
+        <v>152.2386502424833</v>
       </c>
       <c r="T25" t="n">
-        <v>186.4872700401419</v>
+        <v>186.4872700401421</v>
       </c>
       <c r="U25" t="n">
-        <v>254.583106361265</v>
+        <v>254.5831063612652</v>
       </c>
       <c r="V25" t="n">
-        <v>220.5274409716139</v>
+        <v>220.5274409716141</v>
       </c>
       <c r="W25" t="n">
-        <v>254.9127959843769</v>
+        <v>254.9127959843771</v>
       </c>
       <c r="X25" t="n">
-        <v>194.099453036823</v>
+        <v>194.0994530368232</v>
       </c>
       <c r="Y25" t="n">
-        <v>186.9744509998807</v>
+        <v>186.9744509998809</v>
       </c>
     </row>
     <row r="26">
@@ -2555,7 +2555,7 @@
         <v>351.1236393112666</v>
       </c>
       <c r="C26" t="n">
-        <v>333.6626894187936</v>
+        <v>333.6626894187935</v>
       </c>
       <c r="D26" t="n">
         <v>323.072839268469</v>
@@ -2564,10 +2564,10 @@
         <v>350.3201677200478</v>
       </c>
       <c r="F26" t="n">
-        <v>375.2658433894975</v>
+        <v>375.2658433894974</v>
       </c>
       <c r="G26" t="n">
-        <v>378.5542040247498</v>
+        <v>378.5542040247497</v>
       </c>
       <c r="H26" t="n">
         <v>255.2416659947559</v>
@@ -2603,22 +2603,22 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>60.32014642295181</v>
+        <v>60.32014642295172</v>
       </c>
       <c r="T26" t="n">
-        <v>168.9926026545724</v>
+        <v>168.9926026545723</v>
       </c>
       <c r="U26" t="n">
-        <v>219.3243840645689</v>
+        <v>219.3243840645688</v>
       </c>
       <c r="V26" t="n">
-        <v>296.142056117921</v>
+        <v>296.1420561179209</v>
       </c>
       <c r="W26" t="n">
-        <v>317.6307663651991</v>
+        <v>317.630766365199</v>
       </c>
       <c r="X26" t="n">
-        <v>338.1208983262551</v>
+        <v>338.120898326255</v>
       </c>
       <c r="Y26" t="n">
         <v>354.6277363038396</v>
@@ -2710,10 +2710,10 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>148.2217778297234</v>
+        <v>148.2217778297233</v>
       </c>
       <c r="C28" t="n">
-        <v>135.6366187464139</v>
+        <v>135.6366187464138</v>
       </c>
       <c r="D28" t="n">
         <v>117.0052706659984</v>
@@ -2722,16 +2722,16 @@
         <v>114.8237602943552</v>
       </c>
       <c r="F28" t="n">
-        <v>113.8108456707173</v>
+        <v>113.8108456707172</v>
       </c>
       <c r="G28" t="n">
-        <v>134.0758985510282</v>
+        <v>134.0758985510281</v>
       </c>
       <c r="H28" t="n">
-        <v>110.1245053442997</v>
+        <v>110.1245053442996</v>
       </c>
       <c r="I28" t="n">
-        <v>54.52629139453013</v>
+        <v>54.52629139453006</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,28 +2758,28 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>42.04747230221581</v>
+        <v>42.04747230221572</v>
       </c>
       <c r="S28" t="n">
-        <v>152.2386502424833</v>
+        <v>152.2386502424852</v>
       </c>
       <c r="T28" t="n">
-        <v>186.4872700401421</v>
+        <v>186.487270040142</v>
       </c>
       <c r="U28" t="n">
-        <v>254.5831063612652</v>
+        <v>254.5831063612651</v>
       </c>
       <c r="V28" t="n">
-        <v>220.5274409716141</v>
+        <v>220.527440971614</v>
       </c>
       <c r="W28" t="n">
-        <v>254.9127959843771</v>
+        <v>254.912795984377</v>
       </c>
       <c r="X28" t="n">
-        <v>194.0994530368232</v>
+        <v>194.0994530368231</v>
       </c>
       <c r="Y28" t="n">
-        <v>186.9744509998809</v>
+        <v>186.9744509998808</v>
       </c>
     </row>
     <row r="29">
@@ -2789,25 +2789,25 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>351.1236393112665</v>
+        <v>351.1236393112666</v>
       </c>
       <c r="C29" t="n">
-        <v>333.6626894187934</v>
+        <v>333.6626894187936</v>
       </c>
       <c r="D29" t="n">
-        <v>323.0728392684688</v>
+        <v>323.072839268469</v>
       </c>
       <c r="E29" t="n">
-        <v>350.3201677200477</v>
+        <v>350.3201677200478</v>
       </c>
       <c r="F29" t="n">
-        <v>375.2658433894973</v>
+        <v>375.2658433894975</v>
       </c>
       <c r="G29" t="n">
-        <v>378.5542040247496</v>
+        <v>378.5542040247498</v>
       </c>
       <c r="H29" t="n">
-        <v>255.2416659947557</v>
+        <v>255.2416659947559</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -2840,25 +2840,25 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>60.32014642295159</v>
+        <v>60.32014642295179</v>
       </c>
       <c r="T29" t="n">
-        <v>168.9926026545722</v>
+        <v>168.9926026545724</v>
       </c>
       <c r="U29" t="n">
-        <v>219.3243840645686</v>
+        <v>219.3243840645689</v>
       </c>
       <c r="V29" t="n">
-        <v>296.1420561179208</v>
+        <v>296.142056117921</v>
       </c>
       <c r="W29" t="n">
-        <v>317.6307663651989</v>
+        <v>317.6307663651991</v>
       </c>
       <c r="X29" t="n">
-        <v>338.1208983262549</v>
+        <v>338.1208983262551</v>
       </c>
       <c r="Y29" t="n">
-        <v>354.6277363038395</v>
+        <v>354.6277363038396</v>
       </c>
     </row>
     <row r="30">
@@ -2886,10 +2886,10 @@
         <v>134.5942676301787</v>
       </c>
       <c r="H30" t="n">
-        <v>85.68348164116146</v>
+        <v>85.68348164116145</v>
       </c>
       <c r="I30" t="n">
-        <v>4.866200902189021</v>
+        <v>4.866200902189007</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -2947,28 +2947,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>148.2217778297232</v>
+        <v>148.2217778297234</v>
       </c>
       <c r="C31" t="n">
-        <v>135.6366187464137</v>
+        <v>135.6366187464139</v>
       </c>
       <c r="D31" t="n">
-        <v>117.0052706659982</v>
+        <v>117.0052706659984</v>
       </c>
       <c r="E31" t="n">
-        <v>114.823760294355</v>
+        <v>114.8237602943552</v>
       </c>
       <c r="F31" t="n">
-        <v>113.8108456707171</v>
+        <v>113.8108456707173</v>
       </c>
       <c r="G31" t="n">
-        <v>134.075898551028</v>
+        <v>134.0758985510282</v>
       </c>
       <c r="H31" t="n">
-        <v>110.1245053442995</v>
+        <v>110.1245053442997</v>
       </c>
       <c r="I31" t="n">
-        <v>54.52629139452995</v>
+        <v>54.52629139453013</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,28 +2995,28 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>42.04747230222008</v>
+        <v>42.04747230221579</v>
       </c>
       <c r="S31" t="n">
-        <v>152.2386502424831</v>
+        <v>152.2386502424833</v>
       </c>
       <c r="T31" t="n">
-        <v>186.4872700401418</v>
+        <v>186.4872700401421</v>
       </c>
       <c r="U31" t="n">
-        <v>254.5831063612649</v>
+        <v>254.5831063612652</v>
       </c>
       <c r="V31" t="n">
-        <v>220.5274409716139</v>
+        <v>220.5274409716141</v>
       </c>
       <c r="W31" t="n">
-        <v>254.9127959843769</v>
+        <v>254.9127959843771</v>
       </c>
       <c r="X31" t="n">
-        <v>194.099453036823</v>
+        <v>194.0994530368232</v>
       </c>
       <c r="Y31" t="n">
-        <v>186.9744509998806</v>
+        <v>186.9744509998809</v>
       </c>
     </row>
     <row r="32">
@@ -3029,7 +3029,7 @@
         <v>351.1236393112666</v>
       </c>
       <c r="C32" t="n">
-        <v>333.6626894187936</v>
+        <v>333.6626894187935</v>
       </c>
       <c r="D32" t="n">
         <v>323.072839268469</v>
@@ -3038,10 +3038,10 @@
         <v>350.3201677200478</v>
       </c>
       <c r="F32" t="n">
-        <v>375.2658433894975</v>
+        <v>375.2658433894974</v>
       </c>
       <c r="G32" t="n">
-        <v>378.5542040247498</v>
+        <v>378.5542040247497</v>
       </c>
       <c r="H32" t="n">
         <v>255.2416659947559</v>
@@ -3077,22 +3077,22 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>60.32014642295179</v>
+        <v>60.32014642295175</v>
       </c>
       <c r="T32" t="n">
-        <v>168.9926026545724</v>
+        <v>168.9926026545723</v>
       </c>
       <c r="U32" t="n">
         <v>219.3243840645688</v>
       </c>
       <c r="V32" t="n">
-        <v>296.142056117921</v>
+        <v>296.1420561179209</v>
       </c>
       <c r="W32" t="n">
-        <v>317.6307663651991</v>
+        <v>317.630766365199</v>
       </c>
       <c r="X32" t="n">
-        <v>338.1208983262551</v>
+        <v>338.120898326255</v>
       </c>
       <c r="Y32" t="n">
         <v>354.6277363038396</v>
@@ -3184,10 +3184,10 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>148.2217778297234</v>
+        <v>148.2217778297233</v>
       </c>
       <c r="C34" t="n">
-        <v>135.6366187464139</v>
+        <v>135.6366187464138</v>
       </c>
       <c r="D34" t="n">
         <v>117.0052706659984</v>
@@ -3205,7 +3205,7 @@
         <v>110.1245053442997</v>
       </c>
       <c r="I34" t="n">
-        <v>54.52629139453013</v>
+        <v>54.52629139453009</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,7 +3232,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>42.04747230221581</v>
+        <v>42.04747230221577</v>
       </c>
       <c r="S34" t="n">
         <v>152.2386502424833</v>
@@ -3241,16 +3241,16 @@
         <v>186.487270040142</v>
       </c>
       <c r="U34" t="n">
-        <v>254.5831063612652</v>
+        <v>254.5831063612651</v>
       </c>
       <c r="V34" t="n">
-        <v>220.5274409716141</v>
+        <v>220.527440971614</v>
       </c>
       <c r="W34" t="n">
-        <v>254.9127959843771</v>
+        <v>254.912795984377</v>
       </c>
       <c r="X34" t="n">
-        <v>194.0994530368232</v>
+        <v>194.0994530368231</v>
       </c>
       <c r="Y34" t="n">
         <v>186.9744509998808</v>
@@ -3314,13 +3314,13 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>60.32014642295175</v>
+        <v>60.32014642295177</v>
       </c>
       <c r="T35" t="n">
         <v>168.9926026545723</v>
       </c>
       <c r="U35" t="n">
-        <v>219.3243840645688</v>
+        <v>219.3243840645681</v>
       </c>
       <c r="V35" t="n">
         <v>296.1420561179209</v>
@@ -3424,7 +3424,7 @@
         <v>148.2217778297233</v>
       </c>
       <c r="C37" t="n">
-        <v>135.6366187464139</v>
+        <v>135.6366187464138</v>
       </c>
       <c r="D37" t="n">
         <v>117.0052706659984</v>
@@ -3487,7 +3487,7 @@
         <v>254.912795984377</v>
       </c>
       <c r="X37" t="n">
-        <v>194.0994530368232</v>
+        <v>194.0994530368231</v>
       </c>
       <c r="Y37" t="n">
         <v>186.9744509998808</v>
@@ -3515,10 +3515,10 @@
         <v>375.2658433894974</v>
       </c>
       <c r="G38" t="n">
-        <v>378.5542040247492</v>
+        <v>378.5542040247497</v>
       </c>
       <c r="H38" t="n">
-        <v>255.2416659947559</v>
+        <v>255.2416659947536</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -3706,7 +3706,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>42.04747230221577</v>
+        <v>42.04747230221575</v>
       </c>
       <c r="S40" t="n">
         <v>152.2386502424833</v>
@@ -3974,16 +3974,16 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>351.1236393112666</v>
+        <v>351.1236393112665</v>
       </c>
       <c r="C44" t="n">
         <v>333.6626894187935</v>
       </c>
       <c r="D44" t="n">
-        <v>323.072839268469</v>
+        <v>323.0728392684689</v>
       </c>
       <c r="E44" t="n">
-        <v>350.3201677200478</v>
+        <v>350.3201677200477</v>
       </c>
       <c r="F44" t="n">
         <v>375.2658433894974</v>
@@ -3992,7 +3992,7 @@
         <v>378.5542040247497</v>
       </c>
       <c r="H44" t="n">
-        <v>255.2416659947559</v>
+        <v>255.2416659947558</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -4025,16 +4025,16 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>60.32014642295177</v>
+        <v>60.32014642295168</v>
       </c>
       <c r="T44" t="n">
-        <v>168.9926026545723</v>
+        <v>168.9926026545722</v>
       </c>
       <c r="U44" t="n">
-        <v>219.3243840645688</v>
+        <v>219.3243840645687</v>
       </c>
       <c r="V44" t="n">
-        <v>296.1420561179209</v>
+        <v>296.1420561179208</v>
       </c>
       <c r="W44" t="n">
         <v>317.630766365199</v>
@@ -4043,7 +4043,7 @@
         <v>338.120898326255</v>
       </c>
       <c r="Y44" t="n">
-        <v>354.6277363038396</v>
+        <v>354.6277363038395</v>
       </c>
     </row>
     <row r="45">
@@ -4132,28 +4132,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>148.2217778297233</v>
+        <v>148.2217778297232</v>
       </c>
       <c r="C46" t="n">
-        <v>135.6366187464139</v>
+        <v>135.6366187464138</v>
       </c>
       <c r="D46" t="n">
-        <v>117.0052706659984</v>
+        <v>117.0052706659983</v>
       </c>
       <c r="E46" t="n">
-        <v>114.8237602943552</v>
+        <v>114.8237602943551</v>
       </c>
       <c r="F46" t="n">
-        <v>113.8108456707173</v>
+        <v>113.8108456707172</v>
       </c>
       <c r="G46" t="n">
-        <v>134.0758985510282</v>
+        <v>134.0758985510281</v>
       </c>
       <c r="H46" t="n">
-        <v>110.1245053442997</v>
+        <v>110.1245053442996</v>
       </c>
       <c r="I46" t="n">
-        <v>54.5262913945301</v>
+        <v>54.52629139453002</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,28 +4180,28 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>42.04747230221577</v>
+        <v>42.0474723022157</v>
       </c>
       <c r="S46" t="n">
-        <v>152.2386502424833</v>
+        <v>152.2386502424832</v>
       </c>
       <c r="T46" t="n">
-        <v>186.487270040142</v>
+        <v>186.4872700401419</v>
       </c>
       <c r="U46" t="n">
-        <v>254.5831063612651</v>
+        <v>254.583106361265</v>
       </c>
       <c r="V46" t="n">
-        <v>220.527440971614</v>
+        <v>220.5274409716139</v>
       </c>
       <c r="W46" t="n">
-        <v>254.912795984377</v>
+        <v>254.9127959843769</v>
       </c>
       <c r="X46" t="n">
-        <v>194.0994530368232</v>
+        <v>194.0994530368231</v>
       </c>
       <c r="Y46" t="n">
-        <v>186.9744509998808</v>
+        <v>186.9744509998807</v>
       </c>
     </row>
   </sheetData>
@@ -4541,76 +4541,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>51.89860703654615</v>
+        <v>63.36124154800444</v>
       </c>
       <c r="C5" t="n">
-        <v>51.89860703654615</v>
+        <v>44.97311564843385</v>
       </c>
       <c r="D5" t="n">
-        <v>51.89860703654615</v>
+        <v>44.97311564843385</v>
       </c>
       <c r="E5" t="n">
-        <v>51.89860703654615</v>
+        <v>44.97311564843385</v>
       </c>
       <c r="F5" t="n">
-        <v>44.95310628734268</v>
+        <v>38.02761489923037</v>
       </c>
       <c r="G5" t="n">
-        <v>31.02155403246688</v>
+        <v>2.79075898815701</v>
       </c>
       <c r="H5" t="n">
-        <v>31.02155403246688</v>
+        <v>2.79075898815701</v>
       </c>
       <c r="I5" t="n">
-        <v>31.02155403246688</v>
+        <v>2.79075898815701</v>
       </c>
       <c r="J5" t="n">
-        <v>31.02155403246688</v>
+        <v>2.79075898815701</v>
       </c>
       <c r="K5" t="n">
-        <v>2.790758988157077</v>
+        <v>2.79075898815701</v>
       </c>
       <c r="L5" t="n">
-        <v>5.366676928014339</v>
+        <v>5.366676928013511</v>
       </c>
       <c r="M5" t="n">
-        <v>39.90231940645819</v>
+        <v>39.90231940645652</v>
       </c>
       <c r="N5" t="n">
-        <v>74.43796188490202</v>
+        <v>74.43796188489952</v>
       </c>
       <c r="O5" t="n">
-        <v>98.5980974590811</v>
+        <v>98.59809745907781</v>
       </c>
       <c r="P5" t="n">
-        <v>84.43537517473786</v>
+        <v>98.59809745907781</v>
       </c>
       <c r="Q5" t="n">
-        <v>51.89860703654615</v>
+        <v>98.59809745907781</v>
       </c>
       <c r="R5" t="n">
-        <v>51.89860703654615</v>
+        <v>98.59809745907781</v>
       </c>
       <c r="S5" t="n">
-        <v>51.89860703654615</v>
+        <v>98.59809745907781</v>
       </c>
       <c r="T5" t="n">
-        <v>51.89860703654615</v>
+        <v>98.59809745907781</v>
       </c>
       <c r="U5" t="n">
-        <v>51.89860703654615</v>
+        <v>98.59809745907781</v>
       </c>
       <c r="V5" t="n">
-        <v>51.89860703654615</v>
+        <v>98.59809745907781</v>
       </c>
       <c r="W5" t="n">
-        <v>51.89860703654615</v>
+        <v>63.36124154800444</v>
       </c>
       <c r="X5" t="n">
-        <v>51.89860703654615</v>
+        <v>63.36124154800444</v>
       </c>
       <c r="Y5" t="n">
-        <v>51.89860703654615</v>
+        <v>63.36124154800444</v>
       </c>
     </row>
     <row r="6">
@@ -4620,76 +4620,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>104.3010934967797</v>
+        <v>73.26447081030373</v>
       </c>
       <c r="C6" t="n">
-        <v>80.67518965223678</v>
+        <v>73.26447081030373</v>
       </c>
       <c r="D6" t="n">
-        <v>45.43833374116257</v>
+        <v>38.02761489923037</v>
       </c>
       <c r="E6" t="n">
-        <v>45.43833374116257</v>
+        <v>38.02761489923037</v>
       </c>
       <c r="F6" t="n">
-        <v>45.43833374116257</v>
+        <v>38.02761489923037</v>
       </c>
       <c r="G6" t="n">
-        <v>45.43833374116257</v>
+        <v>38.02761489923037</v>
       </c>
       <c r="H6" t="n">
-        <v>10.20147783008836</v>
+        <v>38.02761489923037</v>
       </c>
       <c r="I6" t="n">
-        <v>10.20147783008836</v>
+        <v>38.02761489923037</v>
       </c>
       <c r="J6" t="n">
-        <v>10.20147783008836</v>
+        <v>2.79075898815701</v>
       </c>
       <c r="K6" t="n">
-        <v>2.790758988157077</v>
+        <v>2.79075898815701</v>
       </c>
       <c r="L6" t="n">
-        <v>37.32640146660091</v>
+        <v>37.32640146660001</v>
       </c>
       <c r="M6" t="n">
-        <v>71.86204394504475</v>
+        <v>50.31593027978253</v>
       </c>
       <c r="N6" t="n">
-        <v>106.3976864234886</v>
+        <v>84.85157275822553</v>
       </c>
       <c r="O6" t="n">
-        <v>119.3872152366714</v>
+        <v>119.3872152366685</v>
       </c>
       <c r="P6" t="n">
-        <v>139.5379494078539</v>
+        <v>139.5379494078505</v>
       </c>
       <c r="Q6" t="n">
-        <v>104.3010934967797</v>
+        <v>139.5379494078505</v>
       </c>
       <c r="R6" t="n">
-        <v>104.3010934967797</v>
+        <v>139.5379494078505</v>
       </c>
       <c r="S6" t="n">
-        <v>104.3010934967797</v>
+        <v>139.5379494078505</v>
       </c>
       <c r="T6" t="n">
-        <v>104.3010934967797</v>
+        <v>104.3010934967771</v>
       </c>
       <c r="U6" t="n">
-        <v>104.3010934967797</v>
+        <v>104.3010934967771</v>
       </c>
       <c r="V6" t="n">
-        <v>104.3010934967797</v>
+        <v>104.3010934967771</v>
       </c>
       <c r="W6" t="n">
-        <v>104.3010934967797</v>
+        <v>104.3010934967771</v>
       </c>
       <c r="X6" t="n">
-        <v>104.3010934967797</v>
+        <v>73.26447081030373</v>
       </c>
       <c r="Y6" t="n">
-        <v>104.3010934967797</v>
+        <v>73.26447081030373</v>
       </c>
     </row>
     <row r="7">
@@ -4699,76 +4699,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2.790758988157077</v>
+        <v>2.79075898815701</v>
       </c>
       <c r="C7" t="n">
-        <v>2.790758988157077</v>
+        <v>2.79075898815701</v>
       </c>
       <c r="D7" t="n">
-        <v>2.790758988157077</v>
+        <v>2.79075898815701</v>
       </c>
       <c r="E7" t="n">
-        <v>2.790758988157077</v>
+        <v>2.79075898815701</v>
       </c>
       <c r="F7" t="n">
-        <v>2.790758988157077</v>
+        <v>2.79075898815701</v>
       </c>
       <c r="G7" t="n">
-        <v>2.790758988157077</v>
+        <v>2.79075898815701</v>
       </c>
       <c r="H7" t="n">
-        <v>2.790758988157077</v>
+        <v>2.79075898815701</v>
       </c>
       <c r="I7" t="n">
-        <v>2.790758988157077</v>
+        <v>2.79075898815701</v>
       </c>
       <c r="J7" t="n">
-        <v>2.790758988157077</v>
+        <v>2.79075898815701</v>
       </c>
       <c r="K7" t="n">
-        <v>2.790758988157077</v>
+        <v>2.79075898815701</v>
       </c>
       <c r="L7" t="n">
-        <v>2.790758988157077</v>
+        <v>2.79075898815701</v>
       </c>
       <c r="M7" t="n">
-        <v>2.790758988157077</v>
+        <v>2.79075898815701</v>
       </c>
       <c r="N7" t="n">
-        <v>2.790758988157077</v>
+        <v>2.79075898815701</v>
       </c>
       <c r="O7" t="n">
-        <v>2.790758988157077</v>
+        <v>2.79075898815701</v>
       </c>
       <c r="P7" t="n">
-        <v>2.790758988157077</v>
+        <v>2.79075898815701</v>
       </c>
       <c r="Q7" t="n">
-        <v>2.790758988157077</v>
+        <v>2.79075898815701</v>
       </c>
       <c r="R7" t="n">
-        <v>2.790758988157077</v>
+        <v>2.79075898815701</v>
       </c>
       <c r="S7" t="n">
-        <v>2.790758988157077</v>
+        <v>2.79075898815701</v>
       </c>
       <c r="T7" t="n">
-        <v>2.790758988157077</v>
+        <v>2.79075898815701</v>
       </c>
       <c r="U7" t="n">
-        <v>2.790758988157077</v>
+        <v>2.79075898815701</v>
       </c>
       <c r="V7" t="n">
-        <v>2.790758988157077</v>
+        <v>2.79075898815701</v>
       </c>
       <c r="W7" t="n">
-        <v>2.790758988157077</v>
+        <v>2.79075898815701</v>
       </c>
       <c r="X7" t="n">
-        <v>2.790758988157077</v>
+        <v>2.79075898815701</v>
       </c>
       <c r="Y7" t="n">
-        <v>2.790758988157077</v>
+        <v>2.79075898815701</v>
       </c>
     </row>
     <row r="8">
@@ -4778,28 +4778,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>253.166342132848</v>
+        <v>183.4578794006469</v>
       </c>
       <c r="C8" t="n">
-        <v>226.7275706840336</v>
+        <v>183.4578794006469</v>
       </c>
       <c r="D8" t="n">
-        <v>226.7275706840336</v>
+        <v>183.4578794006469</v>
       </c>
       <c r="E8" t="n">
-        <v>226.7275706840336</v>
+        <v>183.4578794006469</v>
       </c>
       <c r="F8" t="n">
-        <v>219.7820699348301</v>
+        <v>176.5123786514434</v>
       </c>
       <c r="G8" t="n">
-        <v>126.181111056949</v>
+        <v>101.0141548210093</v>
       </c>
       <c r="H8" t="n">
-        <v>126.181111056949</v>
+        <v>7.413195943128183</v>
       </c>
       <c r="I8" t="n">
-        <v>32.58015217906792</v>
+        <v>7.413195943128183</v>
       </c>
       <c r="J8" t="n">
         <v>7.413195943128183</v>
@@ -4808,7 +4808,7 @@
         <v>21.18357364821455</v>
       </c>
       <c r="L8" t="n">
-        <v>75.16870670940376</v>
+        <v>75.16870670940378</v>
       </c>
       <c r="M8" t="n">
         <v>166.907006505615</v>
@@ -4823,31 +4823,31 @@
         <v>370.6597971564091</v>
       </c>
       <c r="Q8" t="n">
-        <v>346.7673010107291</v>
+        <v>370.6597971564091</v>
       </c>
       <c r="R8" t="n">
-        <v>253.166342132848</v>
+        <v>370.6597971564091</v>
       </c>
       <c r="S8" t="n">
-        <v>253.166342132848</v>
+        <v>370.6597971564091</v>
       </c>
       <c r="T8" t="n">
-        <v>253.166342132848</v>
+        <v>370.6597971564091</v>
       </c>
       <c r="U8" t="n">
-        <v>253.166342132848</v>
+        <v>370.6597971564091</v>
       </c>
       <c r="V8" t="n">
-        <v>253.166342132848</v>
+        <v>370.6597971564091</v>
       </c>
       <c r="W8" t="n">
-        <v>253.166342132848</v>
+        <v>370.6597971564091</v>
       </c>
       <c r="X8" t="n">
-        <v>253.166342132848</v>
+        <v>277.058838278528</v>
       </c>
       <c r="Y8" t="n">
-        <v>253.166342132848</v>
+        <v>277.058838278528</v>
       </c>
     </row>
     <row r="9">
@@ -4857,46 +4857,46 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>177.1475077700408</v>
+        <v>135.2033470181484</v>
       </c>
       <c r="C9" t="n">
-        <v>101.0141548210093</v>
+        <v>135.2033470181484</v>
       </c>
       <c r="D9" t="n">
-        <v>7.413195943128183</v>
+        <v>41.60238814026729</v>
       </c>
       <c r="E9" t="n">
-        <v>7.413195943128183</v>
+        <v>41.60238814026729</v>
       </c>
       <c r="F9" t="n">
-        <v>7.413195943128183</v>
+        <v>41.60238814026729</v>
       </c>
       <c r="G9" t="n">
-        <v>7.413195943128183</v>
+        <v>41.60238814026729</v>
       </c>
       <c r="H9" t="n">
-        <v>7.413195943128183</v>
+        <v>41.60238814026729</v>
       </c>
       <c r="I9" t="n">
-        <v>7.413195943128183</v>
+        <v>41.60238814026729</v>
       </c>
       <c r="J9" t="n">
         <v>7.413195943128183</v>
       </c>
       <c r="K9" t="n">
-        <v>28.29609765201167</v>
+        <v>7.413195943128183</v>
       </c>
       <c r="L9" t="n">
-        <v>102.6982772648968</v>
+        <v>81.81537555601331</v>
       </c>
       <c r="M9" t="n">
-        <v>134.8197310560415</v>
+        <v>173.5536753522246</v>
       </c>
       <c r="N9" t="n">
-        <v>226.5580308522527</v>
+        <v>265.2919751484358</v>
       </c>
       <c r="O9" t="n">
-        <v>317.2247932514008</v>
+        <v>355.9587375475839</v>
       </c>
       <c r="P9" t="n">
         <v>370.6597971564091</v>
@@ -4905,28 +4905,28 @@
         <v>356.1721822163862</v>
       </c>
       <c r="R9" t="n">
-        <v>270.7484666479219</v>
+        <v>356.1721822163862</v>
       </c>
       <c r="S9" t="n">
-        <v>270.7484666479219</v>
+        <v>322.4052647739106</v>
       </c>
       <c r="T9" t="n">
-        <v>270.7484666479219</v>
+        <v>228.8043058960295</v>
       </c>
       <c r="U9" t="n">
-        <v>270.7484666479219</v>
+        <v>135.2033470181484</v>
       </c>
       <c r="V9" t="n">
-        <v>270.7484666479219</v>
+        <v>135.2033470181484</v>
       </c>
       <c r="W9" t="n">
-        <v>270.7484666479219</v>
+        <v>135.2033470181484</v>
       </c>
       <c r="X9" t="n">
-        <v>270.7484666479219</v>
+        <v>135.2033470181484</v>
       </c>
       <c r="Y9" t="n">
-        <v>177.1475077700408</v>
+        <v>135.2033470181484</v>
       </c>
     </row>
     <row r="10">
@@ -5015,43 +5015,43 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2005.5869395222</v>
+        <v>1648.00486941082</v>
       </c>
       <c r="C11" t="n">
-        <v>1636.624422581789</v>
+        <v>1279.042352470409</v>
       </c>
       <c r="D11" t="n">
-        <v>1278.358723975038</v>
+        <v>1278.358723975039</v>
       </c>
       <c r="E11" t="n">
-        <v>892.5704713767942</v>
+        <v>892.5704713767946</v>
       </c>
       <c r="F11" t="n">
-        <v>481.5845665871868</v>
+        <v>481.5845665871869</v>
       </c>
       <c r="G11" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H11" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I11" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J11" t="n">
-        <v>255.3912473912092</v>
+        <v>255.3912473912087</v>
       </c>
       <c r="K11" t="n">
-        <v>589.2106210810559</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L11" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M11" t="n">
         <v>1573.776739001389</v>
       </c>
       <c r="N11" t="n">
-        <v>2120.555556060172</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O11" t="n">
         <v>2623.528026939508</v>
@@ -5060,31 +5060,31 @@
         <v>3018.302393296686</v>
       </c>
       <c r="Q11" t="n">
-        <v>3266.588755052369</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R11" t="n">
         <v>3325.605821609171</v>
       </c>
       <c r="S11" t="n">
-        <v>3325.605821609171</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="T11" t="n">
-        <v>3325.605821609171</v>
+        <v>3009.337405520488</v>
       </c>
       <c r="U11" t="n">
-        <v>3325.605821609171</v>
+        <v>2755.806928794324</v>
       </c>
       <c r="V11" t="n">
-        <v>3325.605821609171</v>
+        <v>2424.744041450754</v>
       </c>
       <c r="W11" t="n">
-        <v>3155.791869823213</v>
+        <v>2424.744041450754</v>
       </c>
       <c r="X11" t="n">
-        <v>2782.326111562134</v>
+        <v>2424.744041450754</v>
       </c>
       <c r="Y11" t="n">
-        <v>2392.186779586322</v>
+        <v>2034.604709474942</v>
       </c>
     </row>
     <row r="12">
@@ -5094,76 +5094,76 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>941.5438544811082</v>
+        <v>941.5438544811091</v>
       </c>
       <c r="C12" t="n">
-        <v>767.0908251999812</v>
+        <v>767.0908251999821</v>
       </c>
       <c r="D12" t="n">
-        <v>618.15641553873</v>
+        <v>618.1564155387309</v>
       </c>
       <c r="E12" t="n">
-        <v>458.9189605332745</v>
+        <v>458.9189605332754</v>
       </c>
       <c r="F12" t="n">
-        <v>312.3844025601595</v>
+        <v>312.3844025601604</v>
       </c>
       <c r="G12" t="n">
-        <v>176.0213023927781</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H12" t="n">
-        <v>85.51940803064576</v>
+        <v>85.51940803064547</v>
       </c>
       <c r="I12" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J12" t="n">
-        <v>160.1893859228006</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K12" t="n">
-        <v>398.4535849031475</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L12" t="n">
-        <v>765.1517452158131</v>
+        <v>765.1517452158133</v>
       </c>
       <c r="M12" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N12" t="n">
-        <v>1685.951113992583</v>
+        <v>1685.951113992584</v>
       </c>
       <c r="O12" t="n">
-        <v>2096.912393410638</v>
+        <v>2096.912393410639</v>
       </c>
       <c r="P12" t="n">
-        <v>2407.411984886741</v>
+        <v>2407.411984886742</v>
       </c>
       <c r="Q12" t="n">
-        <v>2565.053542533341</v>
+        <v>2565.053542533342</v>
       </c>
       <c r="R12" t="n">
-        <v>2564.909189125856</v>
+        <v>2564.909189125857</v>
       </c>
       <c r="S12" t="n">
-        <v>2435.471302619336</v>
+        <v>2435.471302619337</v>
       </c>
       <c r="T12" t="n">
-        <v>2242.828302297192</v>
+        <v>2242.828302297193</v>
       </c>
       <c r="U12" t="n">
-        <v>2014.760455431607</v>
+        <v>2014.760455431608</v>
       </c>
       <c r="V12" t="n">
-        <v>1779.608347199865</v>
+        <v>1779.608347199866</v>
       </c>
       <c r="W12" t="n">
-        <v>1525.370990471663</v>
+        <v>1525.370990471664</v>
       </c>
       <c r="X12" t="n">
-        <v>1317.51949026613</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y12" t="n">
-        <v>1109.759191501176</v>
+        <v>1109.759191501177</v>
       </c>
     </row>
     <row r="13">
@@ -5173,28 +5173,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>142.0249360836338</v>
+        <v>679.6952191369613</v>
       </c>
       <c r="C13" t="n">
-        <v>142.0249360836338</v>
+        <v>510.7590362090544</v>
       </c>
       <c r="D13" t="n">
-        <v>142.0249360836338</v>
+        <v>360.6423967967187</v>
       </c>
       <c r="E13" t="n">
-        <v>142.0249360836338</v>
+        <v>212.7293032143256</v>
       </c>
       <c r="F13" t="n">
-        <v>142.0249360836338</v>
+        <v>212.7293032143256</v>
       </c>
       <c r="G13" t="n">
-        <v>142.0249360836338</v>
+        <v>212.7293032143256</v>
       </c>
       <c r="H13" t="n">
-        <v>142.0249360836338</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I13" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J13" t="n">
         <v>111.634748879119</v>
@@ -5221,28 +5221,28 @@
         <v>1927.294548088493</v>
       </c>
       <c r="R13" t="n">
-        <v>1837.464090846021</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="S13" t="n">
-        <v>1645.778206672847</v>
+        <v>1888.645850920066</v>
       </c>
       <c r="T13" t="n">
-        <v>1424.011591242373</v>
+        <v>1888.645850920066</v>
       </c>
       <c r="U13" t="n">
-        <v>1134.908724368016</v>
+        <v>1599.542984045709</v>
       </c>
       <c r="V13" t="n">
-        <v>880.2242361621296</v>
+        <v>1599.542984045709</v>
       </c>
       <c r="W13" t="n">
-        <v>590.8070661251811</v>
+        <v>1310.125814008748</v>
       </c>
       <c r="X13" t="n">
-        <v>362.8175152271639</v>
+        <v>1082.136263110731</v>
       </c>
       <c r="Y13" t="n">
-        <v>142.0249360836338</v>
+        <v>861.3436839672011</v>
       </c>
     </row>
     <row r="14">
@@ -5252,25 +5252,25 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2313.039625065619</v>
+        <v>2239.492420770136</v>
       </c>
       <c r="C14" t="n">
-        <v>1944.077108125207</v>
+        <v>1870.529903829724</v>
       </c>
       <c r="D14" t="n">
-        <v>1585.811409518456</v>
+        <v>1512.264205222974</v>
       </c>
       <c r="E14" t="n">
-        <v>1200.023156920212</v>
+        <v>1126.47595262473</v>
       </c>
       <c r="F14" t="n">
-        <v>789.0372521306047</v>
+        <v>801.5426848235895</v>
       </c>
       <c r="G14" t="n">
-        <v>374.7297709417524</v>
+        <v>387.2352036347373</v>
       </c>
       <c r="H14" t="n">
-        <v>84.98040897511619</v>
+        <v>97.48584166810107</v>
       </c>
       <c r="I14" t="n">
         <v>84.98040897511619</v>
@@ -5279,22 +5279,22 @@
         <v>337.493301607683</v>
       </c>
       <c r="K14" t="n">
-        <v>766.6831886951441</v>
+        <v>766.6831886951443</v>
       </c>
       <c r="L14" t="n">
         <v>1336.032957050962</v>
       </c>
       <c r="M14" t="n">
-        <v>2001.213713746737</v>
+        <v>2001.213713746738</v>
       </c>
       <c r="N14" t="n">
-        <v>2681.771598889753</v>
+        <v>2681.771598889754</v>
       </c>
       <c r="O14" t="n">
         <v>3311.067850233286</v>
       </c>
       <c r="P14" t="n">
-        <v>3813.656640612701</v>
+        <v>3813.656640612702</v>
       </c>
       <c r="Q14" t="n">
         <v>4142.907144767226</v>
@@ -5303,25 +5303,25 @@
         <v>4249.020448755809</v>
       </c>
       <c r="S14" t="n">
-        <v>4249.020448755809</v>
+        <v>4156.161510599077</v>
       </c>
       <c r="T14" t="n">
-        <v>4046.391352789359</v>
+        <v>3953.532414632626</v>
       </c>
       <c r="U14" t="n">
-        <v>3816.013210636746</v>
+        <v>3700.063135423755</v>
       </c>
       <c r="V14" t="n">
-        <v>3816.013210636746</v>
+        <v>3369.000248080184</v>
       </c>
       <c r="W14" t="n">
-        <v>3463.244555366632</v>
+        <v>3016.23159281007</v>
       </c>
       <c r="X14" t="n">
-        <v>3089.778797105552</v>
+        <v>3016.23159281007</v>
       </c>
       <c r="Y14" t="n">
-        <v>2699.639465129741</v>
+        <v>2626.092260834258</v>
       </c>
     </row>
     <row r="15">
@@ -5358,25 +5358,25 @@
         <v>216.5575109835859</v>
       </c>
       <c r="K15" t="n">
-        <v>216.5575109835859</v>
+        <v>519.5985603334502</v>
       </c>
       <c r="L15" t="n">
-        <v>670.3561405779132</v>
+        <v>973.3971899277775</v>
       </c>
       <c r="M15" t="n">
-        <v>1219.274605188202</v>
+        <v>973.3971899277775</v>
       </c>
       <c r="N15" t="n">
-        <v>1797.129953114604</v>
+        <v>1551.25253785418</v>
       </c>
       <c r="O15" t="n">
-        <v>1959.694692760353</v>
+        <v>2057.657492802429</v>
       </c>
       <c r="P15" t="n">
-        <v>2346.796248312508</v>
+        <v>2322.031270281989</v>
       </c>
       <c r="Q15" t="n">
-        <v>2555.644190323788</v>
+        <v>2530.879212293269</v>
       </c>
       <c r="R15" t="n">
         <v>2555.644190323788</v>
@@ -5410,25 +5410,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>953.2025296178706</v>
+        <v>571.3929291974216</v>
       </c>
       <c r="C16" t="n">
-        <v>784.2663466899637</v>
+        <v>402.4567462695147</v>
       </c>
       <c r="D16" t="n">
-        <v>634.149707277628</v>
+        <v>252.340106857179</v>
       </c>
       <c r="E16" t="n">
-        <v>486.2366136952348</v>
+        <v>252.340106857179</v>
       </c>
       <c r="F16" t="n">
-        <v>339.3466661973245</v>
+        <v>252.340106857179</v>
       </c>
       <c r="G16" t="n">
-        <v>171.9869683152617</v>
+        <v>84.98040897511619</v>
       </c>
       <c r="H16" t="n">
-        <v>171.9869683152617</v>
+        <v>84.98040897511619</v>
       </c>
       <c r="I16" t="n">
         <v>84.98040897511619</v>
@@ -5461,25 +5461,25 @@
         <v>2204.76693339754</v>
       </c>
       <c r="S16" t="n">
-        <v>2188.829382050124</v>
+        <v>2019.061021685724</v>
       </c>
       <c r="T16" t="n">
-        <v>2188.829382050124</v>
+        <v>1798.760544521728</v>
       </c>
       <c r="U16" t="n">
-        <v>1899.745231834488</v>
+        <v>1509.676394306093</v>
       </c>
       <c r="V16" t="n">
-        <v>1645.060743628601</v>
+        <v>1254.991906100206</v>
       </c>
       <c r="W16" t="n">
-        <v>1355.64357359164</v>
+        <v>965.5747360632452</v>
       </c>
       <c r="X16" t="n">
-        <v>1355.64357359164</v>
+        <v>792.1855083409517</v>
       </c>
       <c r="Y16" t="n">
-        <v>1134.85099444811</v>
+        <v>571.3929291974216</v>
       </c>
     </row>
     <row r="17">
@@ -5501,10 +5501,10 @@
         <v>1104.234664943806</v>
       </c>
       <c r="F17" t="n">
-        <v>725.1782574796673</v>
+        <v>725.1782574796675</v>
       </c>
       <c r="G17" t="n">
-        <v>342.8002736162837</v>
+        <v>342.8002736162838</v>
       </c>
       <c r="H17" t="n">
         <v>84.98040897511619</v>
@@ -5513,25 +5513,25 @@
         <v>84.98040897511619</v>
       </c>
       <c r="J17" t="n">
-        <v>337.4933016076839</v>
+        <v>337.4933016076837</v>
       </c>
       <c r="K17" t="n">
-        <v>766.6831886951454</v>
+        <v>766.683188695145</v>
       </c>
       <c r="L17" t="n">
-        <v>1336.032957050963</v>
+        <v>1336.032957050961</v>
       </c>
       <c r="M17" t="n">
-        <v>2001.213713746738</v>
+        <v>2001.213713746736</v>
       </c>
       <c r="N17" t="n">
-        <v>2681.771598889754</v>
+        <v>2681.771598889753</v>
       </c>
       <c r="O17" t="n">
         <v>3311.067850233286</v>
       </c>
       <c r="P17" t="n">
-        <v>3813.656640612702</v>
+        <v>3813.656640612701</v>
       </c>
       <c r="Q17" t="n">
         <v>4142.907144767226</v>
@@ -5540,7 +5540,7 @@
         <v>4249.020448755809</v>
       </c>
       <c r="S17" t="n">
-        <v>4188.091007924547</v>
+        <v>4188.091007924545</v>
       </c>
       <c r="T17" t="n">
         <v>4017.391409283565</v>
@@ -5586,28 +5586,28 @@
         <v>176.4447347764803</v>
       </c>
       <c r="H18" t="n">
-        <v>89.89576342177179</v>
+        <v>89.89576342177176</v>
       </c>
       <c r="I18" t="n">
         <v>84.98040897511619</v>
       </c>
       <c r="J18" t="n">
-        <v>216.5575109835858</v>
+        <v>216.5575109835859</v>
       </c>
       <c r="K18" t="n">
-        <v>519.59856033345</v>
+        <v>519.5985603334502</v>
       </c>
       <c r="L18" t="n">
-        <v>973.3971899277772</v>
+        <v>973.3971899277776</v>
       </c>
       <c r="M18" t="n">
-        <v>1522.315654538066</v>
+        <v>1522.315654538067</v>
       </c>
       <c r="N18" t="n">
-        <v>1840.391293364259</v>
+        <v>2100.171002464469</v>
       </c>
       <c r="O18" t="n">
-        <v>2346.796248312508</v>
+        <v>2100.171002464469</v>
       </c>
       <c r="P18" t="n">
         <v>2346.796248312508</v>
@@ -5647,25 +5647,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>872.8624197502095</v>
+        <v>872.862419750209</v>
       </c>
       <c r="C19" t="n">
-        <v>735.8557341477713</v>
+        <v>735.8557341477718</v>
       </c>
       <c r="D19" t="n">
-        <v>617.6685920609042</v>
+        <v>617.6685920609048</v>
       </c>
       <c r="E19" t="n">
-        <v>501.6849958039798</v>
+        <v>501.6849958039803</v>
       </c>
       <c r="F19" t="n">
-        <v>386.7245456315381</v>
+        <v>386.7245456315385</v>
       </c>
       <c r="G19" t="n">
-        <v>251.2943450749441</v>
+        <v>251.2943450749444</v>
       </c>
       <c r="H19" t="n">
-        <v>140.057470989793</v>
+        <v>140.0574709897931</v>
       </c>
       <c r="I19" t="n">
         <v>84.98040897511619</v>
@@ -5677,13 +5677,13 @@
         <v>459.5287020443611</v>
       </c>
       <c r="L19" t="n">
-        <v>857.3827676902785</v>
+        <v>857.3827676902786</v>
       </c>
       <c r="M19" t="n">
         <v>1285.552079040893</v>
       </c>
       <c r="N19" t="n">
-        <v>1709.719201354972</v>
+        <v>1709.719201354973</v>
       </c>
       <c r="O19" t="n">
         <v>2087.878830313935</v>
@@ -5701,16 +5701,16 @@
         <v>2333.272818966195</v>
       </c>
       <c r="T19" t="n">
-        <v>2144.901839127668</v>
+        <v>2144.901839127667</v>
       </c>
       <c r="U19" t="n">
         <v>1887.747186237501</v>
       </c>
       <c r="V19" t="n">
-        <v>1664.992195357083</v>
+        <v>1664.992195357082</v>
       </c>
       <c r="W19" t="n">
-        <v>1407.504522645591</v>
+        <v>1407.50452264559</v>
       </c>
       <c r="X19" t="n">
         <v>1211.444469073042</v>
@@ -5726,34 +5726,34 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2121.462641112806</v>
+        <v>2121.462641112805</v>
       </c>
       <c r="C20" t="n">
-        <v>1784.429621497863</v>
+        <v>1784.429621497862</v>
       </c>
       <c r="D20" t="n">
-        <v>1458.093420216581</v>
+        <v>1458.09342021658</v>
       </c>
       <c r="E20" t="n">
-        <v>1104.234664943806</v>
+        <v>1104.234664943804</v>
       </c>
       <c r="F20" t="n">
-        <v>725.1782574796671</v>
+        <v>725.1782574796654</v>
       </c>
       <c r="G20" t="n">
-        <v>342.8002736162837</v>
+        <v>342.8002736162838</v>
       </c>
       <c r="H20" t="n">
-        <v>84.98040897511621</v>
+        <v>84.98040897511619</v>
       </c>
       <c r="I20" t="n">
-        <v>84.98040897511621</v>
+        <v>84.98040897511619</v>
       </c>
       <c r="J20" t="n">
-        <v>337.4933016076839</v>
+        <v>337.493301607683</v>
       </c>
       <c r="K20" t="n">
-        <v>766.6831886951452</v>
+        <v>766.6831886951445</v>
       </c>
       <c r="L20" t="n">
         <v>1336.032957050963</v>
@@ -5765,19 +5765,19 @@
         <v>2681.771598889754</v>
       </c>
       <c r="O20" t="n">
-        <v>3311.067850233287</v>
+        <v>3311.067850233286</v>
       </c>
       <c r="P20" t="n">
         <v>3813.656640612702</v>
       </c>
       <c r="Q20" t="n">
-        <v>4142.907144767227</v>
+        <v>4142.907144767226</v>
       </c>
       <c r="R20" t="n">
-        <v>4249.02044875581</v>
+        <v>4249.020448755809</v>
       </c>
       <c r="S20" t="n">
-        <v>4188.091007924544</v>
+        <v>4188.091007924545</v>
       </c>
       <c r="T20" t="n">
         <v>4017.391409283563</v>
@@ -5789,13 +5789,13 @@
         <v>3496.718237382058</v>
       </c>
       <c r="W20" t="n">
-        <v>3175.879079437413</v>
+        <v>3175.879079437412</v>
       </c>
       <c r="X20" t="n">
-        <v>2834.342818501802</v>
+        <v>2834.342818501801</v>
       </c>
       <c r="Y20" t="n">
-        <v>2476.132983851459</v>
+        <v>2476.132983851458</v>
       </c>
     </row>
     <row r="21">
@@ -5823,28 +5823,28 @@
         <v>176.4447347764803</v>
       </c>
       <c r="H21" t="n">
-        <v>89.89576342177179</v>
+        <v>89.89576342177176</v>
       </c>
       <c r="I21" t="n">
-        <v>84.98040897511621</v>
+        <v>84.98040897511619</v>
       </c>
       <c r="J21" t="n">
         <v>216.5575109835859</v>
       </c>
       <c r="K21" t="n">
-        <v>519.5985603334502</v>
+        <v>216.5575109835859</v>
       </c>
       <c r="L21" t="n">
-        <v>973.3971899277775</v>
+        <v>670.3561405779132</v>
       </c>
       <c r="M21" t="n">
-        <v>1471.383887449136</v>
+        <v>1084.28233189698</v>
       </c>
       <c r="N21" t="n">
-        <v>2049.239235375539</v>
+        <v>1662.137679823383</v>
       </c>
       <c r="O21" t="n">
-        <v>2555.644190323788</v>
+        <v>2168.542634771632</v>
       </c>
       <c r="P21" t="n">
         <v>2555.644190323788</v>
@@ -5884,76 +5884,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>872.8624197502089</v>
+        <v>872.8624197502103</v>
       </c>
       <c r="C22" t="n">
-        <v>735.8557341477708</v>
+        <v>735.855734147772</v>
       </c>
       <c r="D22" t="n">
-        <v>617.6685920609038</v>
+        <v>617.6685920609049</v>
       </c>
       <c r="E22" t="n">
-        <v>501.6849958039795</v>
+        <v>501.6849958039804</v>
       </c>
       <c r="F22" t="n">
-        <v>386.724545631538</v>
+        <v>386.7245456315386</v>
       </c>
       <c r="G22" t="n">
-        <v>251.294345074944</v>
+        <v>251.2943450749444</v>
       </c>
       <c r="H22" t="n">
-        <v>140.0574709897929</v>
+        <v>140.0574709897931</v>
       </c>
       <c r="I22" t="n">
-        <v>84.98040897511621</v>
+        <v>84.98040897511619</v>
       </c>
       <c r="J22" t="n">
-        <v>185.1742787042738</v>
+        <v>185.1742787042784</v>
       </c>
       <c r="K22" t="n">
-        <v>459.5287020443566</v>
+        <v>459.528702044361</v>
       </c>
       <c r="L22" t="n">
-        <v>857.3827676902742</v>
+        <v>857.3827676902783</v>
       </c>
       <c r="M22" t="n">
-        <v>1285.552079040889</v>
+        <v>1285.552079040895</v>
       </c>
       <c r="N22" t="n">
-        <v>1709.719201354969</v>
+        <v>1709.719201354974</v>
       </c>
       <c r="O22" t="n">
-        <v>2087.878830313932</v>
+        <v>2087.878830313937</v>
       </c>
       <c r="P22" t="n">
-        <v>2392.455631028685</v>
+        <v>2392.455631028689</v>
       </c>
       <c r="Q22" t="n">
-        <v>2529.521427597202</v>
+        <v>2529.521427597206</v>
       </c>
       <c r="R22" t="n">
-        <v>2487.049233352539</v>
+        <v>2487.049233352543</v>
       </c>
       <c r="S22" t="n">
-        <v>2333.272818966193</v>
+        <v>2333.272818966196</v>
       </c>
       <c r="T22" t="n">
-        <v>2144.901839127666</v>
+        <v>2144.901839127669</v>
       </c>
       <c r="U22" t="n">
-        <v>1887.747186237499</v>
+        <v>1887.747186237502</v>
       </c>
       <c r="V22" t="n">
-        <v>1664.992195357081</v>
+        <v>1664.992195357084</v>
       </c>
       <c r="W22" t="n">
-        <v>1407.50452264559</v>
+        <v>1407.504522645592</v>
       </c>
       <c r="X22" t="n">
-        <v>1211.444469073041</v>
+        <v>1211.444469073043</v>
       </c>
       <c r="Y22" t="n">
-        <v>1022.58138725498</v>
+        <v>1022.581387254981</v>
       </c>
     </row>
     <row r="23">
@@ -5963,64 +5963,64 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2121.462641112806</v>
+        <v>2121.462641112807</v>
       </c>
       <c r="C23" t="n">
-        <v>1784.429621497863</v>
+        <v>1784.429621497864</v>
       </c>
       <c r="D23" t="n">
-        <v>1458.093420216581</v>
+        <v>1458.093420216582</v>
       </c>
       <c r="E23" t="n">
-        <v>1104.234664943805</v>
+        <v>1104.234664943806</v>
       </c>
       <c r="F23" t="n">
-        <v>725.1782574796671</v>
+        <v>725.1782574796675</v>
       </c>
       <c r="G23" t="n">
-        <v>342.8002736162836</v>
+        <v>342.8002736162838</v>
       </c>
       <c r="H23" t="n">
-        <v>84.98040897511618</v>
+        <v>84.98040897511619</v>
       </c>
       <c r="I23" t="n">
-        <v>84.98040897511618</v>
+        <v>84.98040897511619</v>
       </c>
       <c r="J23" t="n">
-        <v>337.4933016076832</v>
+        <v>337.4933016076837</v>
       </c>
       <c r="K23" t="n">
-        <v>766.6831886951445</v>
+        <v>766.683188695145</v>
       </c>
       <c r="L23" t="n">
         <v>1336.032957050962</v>
       </c>
       <c r="M23" t="n">
-        <v>2001.213713746737</v>
+        <v>2001.213713746738</v>
       </c>
       <c r="N23" t="n">
-        <v>2681.771598889753</v>
+        <v>2681.771598889754</v>
       </c>
       <c r="O23" t="n">
-        <v>3311.067850233285</v>
+        <v>3311.067850233286</v>
       </c>
       <c r="P23" t="n">
-        <v>3813.656640612701</v>
+        <v>3813.656640612702</v>
       </c>
       <c r="Q23" t="n">
-        <v>4142.907144767225</v>
+        <v>4142.907144767226</v>
       </c>
       <c r="R23" t="n">
         <v>4249.020448755809</v>
       </c>
       <c r="S23" t="n">
-        <v>4188.091007924544</v>
+        <v>4188.091007924545</v>
       </c>
       <c r="T23" t="n">
-        <v>4017.391409283562</v>
+        <v>4017.391409283563</v>
       </c>
       <c r="U23" t="n">
-        <v>3795.851627400159</v>
+        <v>3795.85162740016</v>
       </c>
       <c r="V23" t="n">
         <v>3496.718237382058</v>
@@ -6029,10 +6029,10 @@
         <v>3175.879079437412</v>
       </c>
       <c r="X23" t="n">
-        <v>2834.342818501802</v>
+        <v>2834.342818501803</v>
       </c>
       <c r="Y23" t="n">
-        <v>2476.132983851458</v>
+        <v>2476.13298385146</v>
       </c>
     </row>
     <row r="24">
@@ -6063,31 +6063,31 @@
         <v>89.89576342177176</v>
       </c>
       <c r="I24" t="n">
-        <v>84.98040897511618</v>
+        <v>84.98040897511619</v>
       </c>
       <c r="J24" t="n">
-        <v>84.98040897511618</v>
+        <v>216.5575109835859</v>
       </c>
       <c r="K24" t="n">
-        <v>388.0214583249805</v>
+        <v>519.5985603334502</v>
       </c>
       <c r="L24" t="n">
-        <v>841.8200879193078</v>
+        <v>850.6694118551806</v>
       </c>
       <c r="M24" t="n">
-        <v>1390.738552529597</v>
+        <v>850.6694118551806</v>
       </c>
       <c r="N24" t="n">
-        <v>1968.593900455999</v>
+        <v>1428.524759781583</v>
       </c>
       <c r="O24" t="n">
-        <v>2474.998855404249</v>
+        <v>1934.929714729833</v>
       </c>
       <c r="P24" t="n">
-        <v>2555.644190323788</v>
+        <v>2322.031270281989</v>
       </c>
       <c r="Q24" t="n">
-        <v>2555.644190323788</v>
+        <v>2530.879212293269</v>
       </c>
       <c r="R24" t="n">
         <v>2555.644190323788</v>
@@ -6121,76 +6121,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>872.8624197502087</v>
+        <v>872.8624197502104</v>
       </c>
       <c r="C25" t="n">
-        <v>735.8557341477706</v>
+        <v>735.8557341477722</v>
       </c>
       <c r="D25" t="n">
-        <v>617.6685920609037</v>
+        <v>617.6685920609051</v>
       </c>
       <c r="E25" t="n">
-        <v>501.6849958039795</v>
+        <v>501.6849958039805</v>
       </c>
       <c r="F25" t="n">
-        <v>386.7245456315379</v>
+        <v>386.7245456315387</v>
       </c>
       <c r="G25" t="n">
-        <v>251.294345074944</v>
+        <v>251.2943450749444</v>
       </c>
       <c r="H25" t="n">
-        <v>140.0574709897929</v>
+        <v>140.0574709897931</v>
       </c>
       <c r="I25" t="n">
-        <v>84.98040897511618</v>
+        <v>84.98040897511619</v>
       </c>
       <c r="J25" t="n">
-        <v>185.1742787042738</v>
+        <v>185.1742787042781</v>
       </c>
       <c r="K25" t="n">
-        <v>459.5287020443566</v>
+        <v>459.5287020443608</v>
       </c>
       <c r="L25" t="n">
-        <v>857.3827676902742</v>
+        <v>857.3827676902783</v>
       </c>
       <c r="M25" t="n">
-        <v>1285.552079040889</v>
+        <v>1285.552079040893</v>
       </c>
       <c r="N25" t="n">
-        <v>1709.719201354969</v>
+        <v>1709.719201354973</v>
       </c>
       <c r="O25" t="n">
-        <v>2087.878830313932</v>
+        <v>2087.878830313935</v>
       </c>
       <c r="P25" t="n">
-        <v>2392.455631028685</v>
+        <v>2392.455631028688</v>
       </c>
       <c r="Q25" t="n">
-        <v>2529.521427597202</v>
+        <v>2529.521427597205</v>
       </c>
       <c r="R25" t="n">
-        <v>2487.049233352539</v>
+        <v>2487.049233352542</v>
       </c>
       <c r="S25" t="n">
-        <v>2333.272818966193</v>
+        <v>2333.272818966195</v>
       </c>
       <c r="T25" t="n">
-        <v>2144.901839127666</v>
+        <v>2144.901839127668</v>
       </c>
       <c r="U25" t="n">
-        <v>1887.747186237499</v>
+        <v>1887.747186237502</v>
       </c>
       <c r="V25" t="n">
-        <v>1664.992195357081</v>
+        <v>1664.992195357084</v>
       </c>
       <c r="W25" t="n">
-        <v>1407.504522645589</v>
+        <v>1407.504522645592</v>
       </c>
       <c r="X25" t="n">
-        <v>1211.444469073041</v>
+        <v>1211.444469073043</v>
       </c>
       <c r="Y25" t="n">
-        <v>1022.58138725498</v>
+        <v>1022.581387254981</v>
       </c>
     </row>
     <row r="26">
@@ -6209,37 +6209,37 @@
         <v>1458.093420216582</v>
       </c>
       <c r="E26" t="n">
-        <v>1104.234664943806</v>
+        <v>1104.234664943807</v>
       </c>
       <c r="F26" t="n">
-        <v>725.1782574796675</v>
+        <v>725.1782574796678</v>
       </c>
       <c r="G26" t="n">
-        <v>342.8002736162839</v>
+        <v>342.8002736162838</v>
       </c>
       <c r="H26" t="n">
         <v>84.98040897511622</v>
       </c>
       <c r="I26" t="n">
-        <v>84.98040897511683</v>
+        <v>84.98040897511622</v>
       </c>
       <c r="J26" t="n">
-        <v>337.4933016076842</v>
+        <v>337.493301607683</v>
       </c>
       <c r="K26" t="n">
-        <v>766.6831886951454</v>
+        <v>766.6831886951441</v>
       </c>
       <c r="L26" t="n">
-        <v>1336.032957050963</v>
+        <v>1336.032957050962</v>
       </c>
       <c r="M26" t="n">
-        <v>2001.213713746739</v>
+        <v>2001.213713746737</v>
       </c>
       <c r="N26" t="n">
-        <v>2681.771598889755</v>
+        <v>2681.771598889753</v>
       </c>
       <c r="O26" t="n">
-        <v>3311.067850233288</v>
+        <v>3311.067850233287</v>
       </c>
       <c r="P26" t="n">
         <v>3813.656640612704</v>
@@ -6254,22 +6254,22 @@
         <v>4188.091007924547</v>
       </c>
       <c r="T26" t="n">
-        <v>4017.391409283565</v>
+        <v>4017.391409283564</v>
       </c>
       <c r="U26" t="n">
         <v>3795.851627400162</v>
       </c>
       <c r="V26" t="n">
-        <v>3496.718237382061</v>
+        <v>3496.71823738206</v>
       </c>
       <c r="W26" t="n">
-        <v>3175.879079437415</v>
+        <v>3175.879079437414</v>
       </c>
       <c r="X26" t="n">
-        <v>2834.342818501804</v>
+        <v>2834.342818501803</v>
       </c>
       <c r="Y26" t="n">
-        <v>2476.132983851461</v>
+        <v>2476.13298385146</v>
       </c>
     </row>
     <row r="27">
@@ -6303,28 +6303,28 @@
         <v>84.98040897511622</v>
       </c>
       <c r="J27" t="n">
-        <v>84.98040897511622</v>
+        <v>216.5575109835859</v>
       </c>
       <c r="K27" t="n">
-        <v>84.98040897511622</v>
+        <v>519.5985603334502</v>
       </c>
       <c r="L27" t="n">
-        <v>538.7790385694436</v>
+        <v>973.3971899277776</v>
       </c>
       <c r="M27" t="n">
-        <v>1084.28233189698</v>
+        <v>1446.618909418616</v>
       </c>
       <c r="N27" t="n">
-        <v>1662.137679823382</v>
+        <v>2024.474257345018</v>
       </c>
       <c r="O27" t="n">
-        <v>2168.542634771632</v>
+        <v>2530.879212293269</v>
       </c>
       <c r="P27" t="n">
-        <v>2555.644190323788</v>
+        <v>2530.879212293269</v>
       </c>
       <c r="Q27" t="n">
-        <v>2555.644190323788</v>
+        <v>2530.879212293269</v>
       </c>
       <c r="R27" t="n">
         <v>2555.644190323788</v>
@@ -6358,76 +6358,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>872.8624197502102</v>
+        <v>872.8624197502095</v>
       </c>
       <c r="C28" t="n">
-        <v>735.8557341477718</v>
+        <v>735.8557341477713</v>
       </c>
       <c r="D28" t="n">
-        <v>617.6685920609048</v>
+        <v>617.6685920609043</v>
       </c>
       <c r="E28" t="n">
-        <v>501.6849958039803</v>
+        <v>501.6849958039799</v>
       </c>
       <c r="F28" t="n">
-        <v>386.7245456315385</v>
+        <v>386.7245456315383</v>
       </c>
       <c r="G28" t="n">
-        <v>251.2943450749444</v>
+        <v>251.2943450749442</v>
       </c>
       <c r="H28" t="n">
-        <v>140.0574709897931</v>
+        <v>140.057470989793</v>
       </c>
       <c r="I28" t="n">
         <v>84.98040897511622</v>
       </c>
       <c r="J28" t="n">
-        <v>185.1742787042784</v>
+        <v>185.1742787042785</v>
       </c>
       <c r="K28" t="n">
-        <v>459.5287020443611</v>
+        <v>459.5287020443614</v>
       </c>
       <c r="L28" t="n">
-        <v>857.3827676902786</v>
+        <v>857.3827676902789</v>
       </c>
       <c r="M28" t="n">
-        <v>1285.552079040893</v>
+        <v>1285.552079040894</v>
       </c>
       <c r="N28" t="n">
-        <v>1709.719201354973</v>
+        <v>1709.719201354974</v>
       </c>
       <c r="O28" t="n">
-        <v>2087.878830313935</v>
+        <v>2087.878830313936</v>
       </c>
       <c r="P28" t="n">
-        <v>2392.455631028688</v>
+        <v>2392.455631028689</v>
       </c>
       <c r="Q28" t="n">
-        <v>2529.521427597205</v>
+        <v>2529.521427597206</v>
       </c>
       <c r="R28" t="n">
-        <v>2487.049233352542</v>
+        <v>2487.049233352544</v>
       </c>
       <c r="S28" t="n">
-        <v>2333.272818966196</v>
+        <v>2333.272818966195</v>
       </c>
       <c r="T28" t="n">
         <v>2144.901839127668</v>
       </c>
       <c r="U28" t="n">
-        <v>1887.747186237502</v>
+        <v>1887.747186237501</v>
       </c>
       <c r="V28" t="n">
-        <v>1664.992195357083</v>
+        <v>1664.992195357082</v>
       </c>
       <c r="W28" t="n">
-        <v>1407.504522645591</v>
+        <v>1407.50452264559</v>
       </c>
       <c r="X28" t="n">
         <v>1211.444469073042</v>
       </c>
       <c r="Y28" t="n">
-        <v>1022.581387254981</v>
+        <v>1022.58138725498</v>
       </c>
     </row>
     <row r="29">
@@ -6437,76 +6437,76 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2121.462641112806</v>
+        <v>2121.462641112807</v>
       </c>
       <c r="C29" t="n">
-        <v>1784.429621497863</v>
+        <v>1784.429621497864</v>
       </c>
       <c r="D29" t="n">
-        <v>1458.093420216581</v>
+        <v>1458.093420216582</v>
       </c>
       <c r="E29" t="n">
-        <v>1104.234664943805</v>
+        <v>1104.234664943806</v>
       </c>
       <c r="F29" t="n">
-        <v>725.1782574796667</v>
+        <v>725.1782574796676</v>
       </c>
       <c r="G29" t="n">
-        <v>342.8002736162833</v>
+        <v>342.8002736162839</v>
       </c>
       <c r="H29" t="n">
-        <v>84.98040897511584</v>
+        <v>84.98040897511622</v>
       </c>
       <c r="I29" t="n">
-        <v>84.98040897511618</v>
+        <v>84.98040897511622</v>
       </c>
       <c r="J29" t="n">
-        <v>337.4933016076836</v>
+        <v>337.4933016076839</v>
       </c>
       <c r="K29" t="n">
-        <v>766.6831886951447</v>
+        <v>766.6831886951459</v>
       </c>
       <c r="L29" t="n">
-        <v>1336.032957050962</v>
+        <v>1336.032957050964</v>
       </c>
       <c r="M29" t="n">
-        <v>2001.213713746737</v>
+        <v>2001.213713746739</v>
       </c>
       <c r="N29" t="n">
-        <v>2681.771598889753</v>
+        <v>2681.771598889755</v>
       </c>
       <c r="O29" t="n">
-        <v>3311.067850233285</v>
+        <v>3311.067850233288</v>
       </c>
       <c r="P29" t="n">
-        <v>3813.656640612701</v>
+        <v>3813.656640612704</v>
       </c>
       <c r="Q29" t="n">
-        <v>4142.907144767225</v>
+        <v>4142.907144767228</v>
       </c>
       <c r="R29" t="n">
-        <v>4249.020448755809</v>
+        <v>4249.020448755811</v>
       </c>
       <c r="S29" t="n">
-        <v>4188.091007924544</v>
+        <v>4188.091007924547</v>
       </c>
       <c r="T29" t="n">
-        <v>4017.391409283562</v>
+        <v>4017.391409283565</v>
       </c>
       <c r="U29" t="n">
-        <v>3795.851627400159</v>
+        <v>3795.851627400162</v>
       </c>
       <c r="V29" t="n">
-        <v>3496.718237382058</v>
+        <v>3496.71823738206</v>
       </c>
       <c r="W29" t="n">
-        <v>3175.879079437413</v>
+        <v>3175.879079437414</v>
       </c>
       <c r="X29" t="n">
-        <v>2834.342818501802</v>
+        <v>2834.342818501803</v>
       </c>
       <c r="Y29" t="n">
-        <v>2476.132983851458</v>
+        <v>2476.13298385146</v>
       </c>
     </row>
     <row r="30">
@@ -6534,31 +6534,31 @@
         <v>176.4447347764803</v>
       </c>
       <c r="H30" t="n">
-        <v>89.89576342177176</v>
+        <v>89.89576342177179</v>
       </c>
       <c r="I30" t="n">
-        <v>84.98040897511618</v>
+        <v>84.98040897511622</v>
       </c>
       <c r="J30" t="n">
-        <v>84.98040897511618</v>
+        <v>216.5575109835859</v>
       </c>
       <c r="K30" t="n">
-        <v>84.98040897511618</v>
+        <v>519.5985603334502</v>
       </c>
       <c r="L30" t="n">
-        <v>538.7790385694434</v>
+        <v>973.3971899277776</v>
       </c>
       <c r="M30" t="n">
-        <v>1087.697503179732</v>
+        <v>1522.315654538067</v>
       </c>
       <c r="N30" t="n">
-        <v>1428.524759781583</v>
+        <v>2100.171002464469</v>
       </c>
       <c r="O30" t="n">
-        <v>1934.929714729833</v>
+        <v>2530.879212293269</v>
       </c>
       <c r="P30" t="n">
-        <v>2322.031270281989</v>
+        <v>2530.879212293269</v>
       </c>
       <c r="Q30" t="n">
         <v>2530.879212293269</v>
@@ -6595,76 +6595,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>872.8624197502087</v>
+        <v>872.8624197502098</v>
       </c>
       <c r="C31" t="n">
-        <v>735.8557341477706</v>
+        <v>735.8557341477715</v>
       </c>
       <c r="D31" t="n">
-        <v>617.6685920609037</v>
+        <v>617.6685920609044</v>
       </c>
       <c r="E31" t="n">
-        <v>501.6849958039795</v>
+        <v>501.68499580398</v>
       </c>
       <c r="F31" t="n">
-        <v>386.7245456315379</v>
+        <v>386.7245456315383</v>
       </c>
       <c r="G31" t="n">
-        <v>251.2943450749439</v>
+        <v>251.2943450749441</v>
       </c>
       <c r="H31" t="n">
-        <v>140.0574709897929</v>
+        <v>140.0574709897931</v>
       </c>
       <c r="I31" t="n">
-        <v>84.98040897511618</v>
+        <v>84.98040897511622</v>
       </c>
       <c r="J31" t="n">
-        <v>185.1742787042786</v>
+        <v>185.1742787042784</v>
       </c>
       <c r="K31" t="n">
-        <v>459.5287020443615</v>
+        <v>459.5287020443611</v>
       </c>
       <c r="L31" t="n">
-        <v>857.382767690279</v>
+        <v>857.3827676902783</v>
       </c>
       <c r="M31" t="n">
-        <v>1285.552079040894</v>
+        <v>1285.552079040893</v>
       </c>
       <c r="N31" t="n">
-        <v>1709.719201354974</v>
+        <v>1709.719201354973</v>
       </c>
       <c r="O31" t="n">
-        <v>2087.878830313936</v>
+        <v>2087.878830313935</v>
       </c>
       <c r="P31" t="n">
-        <v>2392.455631028689</v>
+        <v>2392.455631028688</v>
       </c>
       <c r="Q31" t="n">
-        <v>2529.521427597206</v>
+        <v>2529.521427597205</v>
       </c>
       <c r="R31" t="n">
-        <v>2487.049233352539</v>
+        <v>2487.049233352543</v>
       </c>
       <c r="S31" t="n">
-        <v>2333.272818966193</v>
+        <v>2333.272818966196</v>
       </c>
       <c r="T31" t="n">
-        <v>2144.901839127666</v>
+        <v>2144.901839127668</v>
       </c>
       <c r="U31" t="n">
-        <v>1887.747186237499</v>
+        <v>1887.747186237501</v>
       </c>
       <c r="V31" t="n">
-        <v>1664.992195357081</v>
+        <v>1664.992195357083</v>
       </c>
       <c r="W31" t="n">
-        <v>1407.504522645589</v>
+        <v>1407.504522645591</v>
       </c>
       <c r="X31" t="n">
-        <v>1211.444469073041</v>
+        <v>1211.444469073042</v>
       </c>
       <c r="Y31" t="n">
-        <v>1022.58138725498</v>
+        <v>1022.581387254981</v>
       </c>
     </row>
     <row r="32">
@@ -6674,40 +6674,40 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2121.462641112806</v>
+        <v>2121.462641112807</v>
       </c>
       <c r="C32" t="n">
         <v>1784.429621497863</v>
       </c>
       <c r="D32" t="n">
-        <v>1458.093420216581</v>
+        <v>1458.093420216582</v>
       </c>
       <c r="E32" t="n">
-        <v>1104.234664943805</v>
+        <v>1104.234664943806</v>
       </c>
       <c r="F32" t="n">
-        <v>725.1782574796664</v>
+        <v>725.1782574796671</v>
       </c>
       <c r="G32" t="n">
-        <v>342.8002736162828</v>
+        <v>342.8002736162838</v>
       </c>
       <c r="H32" t="n">
-        <v>84.98040897511515</v>
+        <v>84.98040897511621</v>
       </c>
       <c r="I32" t="n">
         <v>84.98040897511621</v>
       </c>
       <c r="J32" t="n">
-        <v>337.4933016076839</v>
+        <v>337.4933016076835</v>
       </c>
       <c r="K32" t="n">
-        <v>766.6831886951454</v>
+        <v>766.6831886951446</v>
       </c>
       <c r="L32" t="n">
-        <v>1336.032957050964</v>
+        <v>1336.032957050963</v>
       </c>
       <c r="M32" t="n">
-        <v>2001.213713746739</v>
+        <v>2001.213713746738</v>
       </c>
       <c r="N32" t="n">
         <v>2681.771598889755</v>
@@ -6737,7 +6737,7 @@
         <v>3496.718237382059</v>
       </c>
       <c r="W32" t="n">
-        <v>3175.879079437413</v>
+        <v>3175.879079437414</v>
       </c>
       <c r="X32" t="n">
         <v>2834.342818501802</v>
@@ -6792,10 +6792,10 @@
         <v>2100.171002464469</v>
       </c>
       <c r="O33" t="n">
-        <v>2555.644190323788</v>
+        <v>2100.171002464469</v>
       </c>
       <c r="P33" t="n">
-        <v>2555.644190323788</v>
+        <v>2346.796248312508</v>
       </c>
       <c r="Q33" t="n">
         <v>2555.644190323788</v>
@@ -6835,19 +6835,19 @@
         <v>872.8624197502099</v>
       </c>
       <c r="C34" t="n">
-        <v>735.8557341477716</v>
+        <v>735.8557341477717</v>
       </c>
       <c r="D34" t="n">
-        <v>617.6685920609045</v>
+        <v>617.6685920609046</v>
       </c>
       <c r="E34" t="n">
-        <v>501.6849958039801</v>
+        <v>501.6849958039802</v>
       </c>
       <c r="F34" t="n">
-        <v>386.7245456315384</v>
+        <v>386.7245456315385</v>
       </c>
       <c r="G34" t="n">
-        <v>251.2943450749442</v>
+        <v>251.2943450749444</v>
       </c>
       <c r="H34" t="n">
         <v>140.0574709897931</v>
@@ -6856,13 +6856,13 @@
         <v>84.98040897511621</v>
       </c>
       <c r="J34" t="n">
-        <v>185.1742787042784</v>
+        <v>185.1742787042783</v>
       </c>
       <c r="K34" t="n">
-        <v>459.5287020443614</v>
+        <v>459.528702044361</v>
       </c>
       <c r="L34" t="n">
-        <v>857.3827676902788</v>
+        <v>857.3827676902786</v>
       </c>
       <c r="M34" t="n">
         <v>1285.552079040893</v>
@@ -6880,16 +6880,16 @@
         <v>2529.521427597205</v>
       </c>
       <c r="R34" t="n">
-        <v>2487.049233352542</v>
+        <v>2487.049233352543</v>
       </c>
       <c r="S34" t="n">
-        <v>2333.272818966195</v>
+        <v>2333.272818966196</v>
       </c>
       <c r="T34" t="n">
         <v>2144.901839127668</v>
       </c>
       <c r="U34" t="n">
-        <v>1887.747186237502</v>
+        <v>1887.747186237501</v>
       </c>
       <c r="V34" t="n">
         <v>1664.992195357083</v>
@@ -6911,19 +6911,19 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2121.462641112806</v>
+        <v>2121.462641112807</v>
       </c>
       <c r="C35" t="n">
-        <v>1784.429621497862</v>
+        <v>1784.429621497864</v>
       </c>
       <c r="D35" t="n">
-        <v>1458.093420216581</v>
+        <v>1458.093420216582</v>
       </c>
       <c r="E35" t="n">
-        <v>1104.234664943805</v>
+        <v>1104.234664943806</v>
       </c>
       <c r="F35" t="n">
-        <v>725.1782574796662</v>
+        <v>725.1782574796673</v>
       </c>
       <c r="G35" t="n">
         <v>342.8002736162838</v>
@@ -6941,13 +6941,13 @@
         <v>766.6831886951454</v>
       </c>
       <c r="L35" t="n">
-        <v>1336.032957050963</v>
+        <v>1336.032957050964</v>
       </c>
       <c r="M35" t="n">
-        <v>2001.213713746738</v>
+        <v>2001.213713746739</v>
       </c>
       <c r="N35" t="n">
-        <v>2681.771598889754</v>
+        <v>2681.771598889755</v>
       </c>
       <c r="O35" t="n">
         <v>3311.067850233287</v>
@@ -6962,25 +6962,25 @@
         <v>4249.02044875581</v>
       </c>
       <c r="S35" t="n">
-        <v>4188.091007924545</v>
+        <v>4188.091007924546</v>
       </c>
       <c r="T35" t="n">
-        <v>4017.391409283563</v>
+        <v>4017.391409283564</v>
       </c>
       <c r="U35" t="n">
-        <v>3795.851627400161</v>
+        <v>3795.851627400162</v>
       </c>
       <c r="V35" t="n">
-        <v>3496.718237382059</v>
+        <v>3496.71823738206</v>
       </c>
       <c r="W35" t="n">
-        <v>3175.879079437413</v>
+        <v>3175.879079437414</v>
       </c>
       <c r="X35" t="n">
-        <v>2834.342818501802</v>
+        <v>2834.342818501803</v>
       </c>
       <c r="Y35" t="n">
-        <v>2476.132983851459</v>
+        <v>2476.13298385146</v>
       </c>
     </row>
     <row r="36">
@@ -7093,22 +7093,22 @@
         <v>84.98040897511621</v>
       </c>
       <c r="J37" t="n">
-        <v>185.1742787042784</v>
+        <v>185.1742787042781</v>
       </c>
       <c r="K37" t="n">
-        <v>459.5287020443615</v>
+        <v>459.5287020443609</v>
       </c>
       <c r="L37" t="n">
-        <v>857.3827676902789</v>
+        <v>857.3827676902783</v>
       </c>
       <c r="M37" t="n">
-        <v>1285.552079040894</v>
+        <v>1285.552079040893</v>
       </c>
       <c r="N37" t="n">
         <v>1709.719201354973</v>
       </c>
       <c r="O37" t="n">
-        <v>2087.878830313936</v>
+        <v>2087.878830313935</v>
       </c>
       <c r="P37" t="n">
         <v>2392.455631028688</v>
@@ -7148,34 +7148,34 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2121.462641112806</v>
+        <v>2121.462641112804</v>
       </c>
       <c r="C38" t="n">
-        <v>1784.429621497863</v>
+        <v>1784.429621497861</v>
       </c>
       <c r="D38" t="n">
-        <v>1458.093420216581</v>
+        <v>1458.093420216579</v>
       </c>
       <c r="E38" t="n">
-        <v>1104.234664943806</v>
+        <v>1104.234664943804</v>
       </c>
       <c r="F38" t="n">
-        <v>725.1782574796669</v>
+        <v>725.178257479665</v>
       </c>
       <c r="G38" t="n">
-        <v>342.8002736162838</v>
+        <v>342.8002736162815</v>
       </c>
       <c r="H38" t="n">
-        <v>84.98040897511621</v>
+        <v>84.98040897511618</v>
       </c>
       <c r="I38" t="n">
-        <v>84.98040897511621</v>
+        <v>84.98040897511618</v>
       </c>
       <c r="J38" t="n">
-        <v>337.4933016076834</v>
+        <v>337.4933016076836</v>
       </c>
       <c r="K38" t="n">
-        <v>766.6831886951445</v>
+        <v>766.6831886951447</v>
       </c>
       <c r="L38" t="n">
         <v>1336.032957050962</v>
@@ -7187,37 +7187,37 @@
         <v>2681.771598889753</v>
       </c>
       <c r="O38" t="n">
-        <v>3311.067850233286</v>
+        <v>3311.067850233285</v>
       </c>
       <c r="P38" t="n">
-        <v>3813.656640612702</v>
+        <v>3813.656640612701</v>
       </c>
       <c r="Q38" t="n">
-        <v>4142.907144767227</v>
+        <v>4142.907144767225</v>
       </c>
       <c r="R38" t="n">
-        <v>4249.02044875581</v>
+        <v>4249.020448755809</v>
       </c>
       <c r="S38" t="n">
-        <v>4188.091007924546</v>
+        <v>4188.091007924544</v>
       </c>
       <c r="T38" t="n">
-        <v>4017.391409283564</v>
+        <v>4017.391409283562</v>
       </c>
       <c r="U38" t="n">
-        <v>3795.851627400161</v>
+        <v>3795.851627400159</v>
       </c>
       <c r="V38" t="n">
-        <v>3496.718237382059</v>
+        <v>3496.718237382057</v>
       </c>
       <c r="W38" t="n">
-        <v>3175.879079437414</v>
+        <v>3175.879079437412</v>
       </c>
       <c r="X38" t="n">
-        <v>2834.342818501802</v>
+        <v>2834.342818501801</v>
       </c>
       <c r="Y38" t="n">
-        <v>2476.132983851459</v>
+        <v>2476.132983851458</v>
       </c>
     </row>
     <row r="39">
@@ -7245,31 +7245,31 @@
         <v>176.4447347764803</v>
       </c>
       <c r="H39" t="n">
-        <v>89.89576342177179</v>
+        <v>89.89576342177176</v>
       </c>
       <c r="I39" t="n">
-        <v>84.98040897511621</v>
+        <v>84.98040897511618</v>
       </c>
       <c r="J39" t="n">
-        <v>84.98040897511621</v>
+        <v>216.5575109835858</v>
       </c>
       <c r="K39" t="n">
-        <v>84.98040897511621</v>
+        <v>519.5985603334501</v>
       </c>
       <c r="L39" t="n">
-        <v>301.7509472448922</v>
+        <v>973.3971899277774</v>
       </c>
       <c r="M39" t="n">
-        <v>850.6694118551811</v>
+        <v>1522.315654538066</v>
       </c>
       <c r="N39" t="n">
-        <v>1428.524759781583</v>
+        <v>2100.171002464468</v>
       </c>
       <c r="O39" t="n">
-        <v>1934.929714729833</v>
+        <v>2143.777656741113</v>
       </c>
       <c r="P39" t="n">
-        <v>2322.031270281989</v>
+        <v>2530.879212293269</v>
       </c>
       <c r="Q39" t="n">
         <v>2530.879212293269</v>
@@ -7321,37 +7321,37 @@
         <v>386.7245456315384</v>
       </c>
       <c r="G40" t="n">
-        <v>251.2943450749442</v>
+        <v>251.2943450749443</v>
       </c>
       <c r="H40" t="n">
-        <v>140.0574709897931</v>
+        <v>140.057470989793</v>
       </c>
       <c r="I40" t="n">
-        <v>84.98040897511621</v>
+        <v>84.98040897511618</v>
       </c>
       <c r="J40" t="n">
-        <v>185.1742787042781</v>
+        <v>185.1742787042784</v>
       </c>
       <c r="K40" t="n">
-        <v>459.5287020443608</v>
+        <v>459.5287020443611</v>
       </c>
       <c r="L40" t="n">
-        <v>857.3827676902782</v>
+        <v>857.3827676902786</v>
       </c>
       <c r="M40" t="n">
-        <v>1285.552079040893</v>
+        <v>1285.552079040892</v>
       </c>
       <c r="N40" t="n">
-        <v>1709.719201354973</v>
+        <v>1709.719201354972</v>
       </c>
       <c r="O40" t="n">
-        <v>2087.878830313935</v>
+        <v>2087.878830313934</v>
       </c>
       <c r="P40" t="n">
         <v>2392.455631028688</v>
       </c>
       <c r="Q40" t="n">
-        <v>2529.521427597205</v>
+        <v>2529.521427597204</v>
       </c>
       <c r="R40" t="n">
         <v>2487.049233352542</v>
@@ -7397,7 +7397,7 @@
         <v>1104.234664943806</v>
       </c>
       <c r="F41" t="n">
-        <v>725.178257479667</v>
+        <v>725.1782574796669</v>
       </c>
       <c r="G41" t="n">
         <v>342.8002736162838</v>
@@ -7406,13 +7406,13 @@
         <v>84.98040897511621</v>
       </c>
       <c r="I41" t="n">
-        <v>84.98040897511746</v>
+        <v>84.98040897511621</v>
       </c>
       <c r="J41" t="n">
-        <v>337.4933016076848</v>
+        <v>337.4933016076839</v>
       </c>
       <c r="K41" t="n">
-        <v>766.6831886951459</v>
+        <v>766.6831886951454</v>
       </c>
       <c r="L41" t="n">
         <v>1336.032957050964</v>
@@ -7488,28 +7488,28 @@
         <v>84.98040897511621</v>
       </c>
       <c r="J42" t="n">
-        <v>84.98040897511621</v>
+        <v>216.5575109835859</v>
       </c>
       <c r="K42" t="n">
-        <v>84.98040897511621</v>
+        <v>519.5985603334502</v>
       </c>
       <c r="L42" t="n">
-        <v>301.7509472448922</v>
+        <v>973.3971899277775</v>
       </c>
       <c r="M42" t="n">
-        <v>850.6694118551811</v>
+        <v>1522.315654538066</v>
       </c>
       <c r="N42" t="n">
-        <v>1428.524759781583</v>
+        <v>2100.171002464469</v>
       </c>
       <c r="O42" t="n">
-        <v>1934.929714729833</v>
+        <v>2168.542634771632</v>
       </c>
       <c r="P42" t="n">
-        <v>2322.031270281989</v>
+        <v>2555.644190323788</v>
       </c>
       <c r="Q42" t="n">
-        <v>2530.879212293269</v>
+        <v>2555.644190323788</v>
       </c>
       <c r="R42" t="n">
         <v>2555.644190323788</v>
@@ -7631,40 +7631,40 @@
         <v>1458.093420216581</v>
       </c>
       <c r="E44" t="n">
-        <v>1104.234664943805</v>
+        <v>1104.234664943806</v>
       </c>
       <c r="F44" t="n">
-        <v>725.1782574796664</v>
+        <v>725.1782574796674</v>
       </c>
       <c r="G44" t="n">
-        <v>342.8002736162828</v>
+        <v>342.8002736162837</v>
       </c>
       <c r="H44" t="n">
-        <v>84.98040897511527</v>
+        <v>84.98040897511621</v>
       </c>
       <c r="I44" t="n">
-        <v>84.98040897511621</v>
+        <v>84.98040897511746</v>
       </c>
       <c r="J44" t="n">
-        <v>337.493301607683</v>
+        <v>337.4933016076848</v>
       </c>
       <c r="K44" t="n">
-        <v>766.6831886951441</v>
+        <v>766.6831886951459</v>
       </c>
       <c r="L44" t="n">
-        <v>1336.032957050962</v>
+        <v>1336.032957050964</v>
       </c>
       <c r="M44" t="n">
-        <v>2001.213713746737</v>
+        <v>2001.213713746739</v>
       </c>
       <c r="N44" t="n">
-        <v>2681.771598889753</v>
+        <v>2681.771598889755</v>
       </c>
       <c r="O44" t="n">
-        <v>3311.067850233286</v>
+        <v>3311.067850233287</v>
       </c>
       <c r="P44" t="n">
-        <v>3813.656640612702</v>
+        <v>3813.656640612703</v>
       </c>
       <c r="Q44" t="n">
         <v>4142.907144767227</v>
@@ -7691,7 +7691,7 @@
         <v>2834.342818501802</v>
       </c>
       <c r="Y44" t="n">
-        <v>2476.132983851459</v>
+        <v>2476.132983851458</v>
       </c>
     </row>
     <row r="45">
@@ -7725,22 +7725,22 @@
         <v>84.98040897511621</v>
       </c>
       <c r="J45" t="n">
-        <v>84.98040897511621</v>
+        <v>216.5575109835859</v>
       </c>
       <c r="K45" t="n">
-        <v>84.98040897511621</v>
+        <v>519.5985603334502</v>
       </c>
       <c r="L45" t="n">
-        <v>301.7509472448922</v>
+        <v>973.3971899277775</v>
       </c>
       <c r="M45" t="n">
-        <v>850.6694118551811</v>
+        <v>1522.315654538066</v>
       </c>
       <c r="N45" t="n">
-        <v>1428.524759781583</v>
+        <v>2100.171002464469</v>
       </c>
       <c r="O45" t="n">
-        <v>1934.929714729833</v>
+        <v>2100.171002464469</v>
       </c>
       <c r="P45" t="n">
         <v>2322.031270281989</v>
@@ -7780,76 +7780,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>872.8624197502101</v>
+        <v>872.8624197502093</v>
       </c>
       <c r="C46" t="n">
-        <v>735.8557341477718</v>
+        <v>735.855734147771</v>
       </c>
       <c r="D46" t="n">
-        <v>617.6685920609048</v>
+        <v>617.6685920609041</v>
       </c>
       <c r="E46" t="n">
-        <v>501.6849958039803</v>
+        <v>501.6849958039797</v>
       </c>
       <c r="F46" t="n">
-        <v>386.7245456315386</v>
+        <v>386.7245456315381</v>
       </c>
       <c r="G46" t="n">
-        <v>251.2943450749443</v>
+        <v>251.2943450749441</v>
       </c>
       <c r="H46" t="n">
-        <v>140.0574709897931</v>
+        <v>140.057470989793</v>
       </c>
       <c r="I46" t="n">
         <v>84.98040897511621</v>
       </c>
       <c r="J46" t="n">
-        <v>185.1742787042784</v>
+        <v>185.1742787042785</v>
       </c>
       <c r="K46" t="n">
-        <v>459.5287020443611</v>
+        <v>459.5287020443614</v>
       </c>
       <c r="L46" t="n">
-        <v>857.3827676902786</v>
+        <v>857.3827676902788</v>
       </c>
       <c r="M46" t="n">
-        <v>1285.552079040893</v>
+        <v>1285.552079040894</v>
       </c>
       <c r="N46" t="n">
-        <v>1709.719201354973</v>
+        <v>1709.719201354974</v>
       </c>
       <c r="O46" t="n">
-        <v>2087.878830313935</v>
+        <v>2087.878830313936</v>
       </c>
       <c r="P46" t="n">
-        <v>2392.455631028688</v>
+        <v>2392.455631028686</v>
       </c>
       <c r="Q46" t="n">
-        <v>2529.521427597205</v>
+        <v>2529.521427597203</v>
       </c>
       <c r="R46" t="n">
-        <v>2487.049233352543</v>
+        <v>2487.049233352541</v>
       </c>
       <c r="S46" t="n">
-        <v>2333.272818966196</v>
+        <v>2333.272818966194</v>
       </c>
       <c r="T46" t="n">
-        <v>2144.901839127669</v>
+        <v>2144.901839127667</v>
       </c>
       <c r="U46" t="n">
-        <v>1887.747186237502</v>
+        <v>1887.7471862375</v>
       </c>
       <c r="V46" t="n">
-        <v>1664.992195357083</v>
+        <v>1664.992195357082</v>
       </c>
       <c r="W46" t="n">
-        <v>1407.504522645591</v>
+        <v>1407.50452264559</v>
       </c>
       <c r="X46" t="n">
-        <v>1211.444469073043</v>
+        <v>1211.444469073042</v>
       </c>
       <c r="Y46" t="n">
-        <v>1022.581387254981</v>
+        <v>1022.58138725498</v>
       </c>
     </row>
   </sheetData>
@@ -9556,7 +9556,7 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>33.63624132271852</v>
+        <v>33.63624132272333</v>
       </c>
       <c r="K22" t="n">
         <v>106.7437663446525</v>
@@ -9565,7 +9565,7 @@
         <v>162.4747015415544</v>
       </c>
       <c r="M22" t="n">
-        <v>178.5096609094456</v>
+        <v>178.5096609094473</v>
       </c>
       <c r="N22" t="n">
         <v>171.8177168444618</v>
@@ -9793,7 +9793,7 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>33.63624132271855</v>
+        <v>33.63624132272333</v>
       </c>
       <c r="K25" t="n">
         <v>106.7437663446525</v>
@@ -10987,7 +10987,7 @@
         <v>162.4747015415544</v>
       </c>
       <c r="M40" t="n">
-        <v>178.5096609094456</v>
+        <v>178.5096609094446</v>
       </c>
       <c r="N40" t="n">
         <v>171.8177168444618</v>
@@ -11230,7 +11230,7 @@
         <v>171.8177168444618</v>
       </c>
       <c r="O43" t="n">
-        <v>163.0416663658824</v>
+        <v>163.0416663658825</v>
       </c>
       <c r="P43" t="n">
         <v>135.0065633140411</v>
@@ -11470,7 +11470,7 @@
         <v>163.0416663658825</v>
       </c>
       <c r="P46" t="n">
-        <v>135.0065633140411</v>
+        <v>135.0065633140381</v>
       </c>
       <c r="Q46" t="n">
         <v>65.34295837775146</v>
@@ -22556,13 +22556,13 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>6.876045741711437</v>
+        <v>379.2341370460829</v>
       </c>
       <c r="G2" t="n">
-        <v>13.99090544362083</v>
+        <v>13.99090544362082</v>
       </c>
       <c r="H2" t="n">
-        <v>114.9140741890538</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -22574,7 +22574,7 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>28.74947534450695</v>
+        <v>0</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -22583,16 +22583,16 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>9.069265482345145</v>
+        <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>42.5899040814347</v>
+        <v>0</v>
       </c>
       <c r="Q2" t="n">
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>133.1811664518765</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -22613,7 +22613,7 @@
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -22762,7 +22762,7 @@
         <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
         <v>0</v>
@@ -23261,7 +23261,7 @@
         <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>354.0062494102669</v>
       </c>
       <c r="E11" t="n">
         <v>0</v>
@@ -23273,10 +23273,10 @@
         <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>294.6077643873203</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I11" t="n">
-        <v>41.57692977292578</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23306,22 +23306,22 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>109.1877617881756</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>203.91797013962</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>250.9951719589018</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>327.7522584701347</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>181.1251564493143</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X11" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y11" t="n">
         <v>0</v>
@@ -23413,28 +23413,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>166.025808259028</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H13" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>21.59472895490219</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23461,19 +23461,19 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>151.506815134699</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
         <v>0</v>
@@ -23504,7 +23504,7 @@
         <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>85.19211061858272</v>
       </c>
       <c r="G14" t="n">
         <v>0</v>
@@ -23513,7 +23513,7 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>12.38037836605503</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23543,22 +23543,22 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>91.93034877516574</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
         <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>22.86022568569661</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
         <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y14" t="n">
         <v>0</v>
@@ -23650,7 +23650,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
@@ -23659,10 +23659,10 @@
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
@@ -23671,7 +23671,7 @@
         <v>141.7347076965137</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>86.13649374674408</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23701,10 +23701,10 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>168.0706767607554</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>218.097472392356</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
@@ -23716,7 +23716,7 @@
         <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>225.7096553890372</v>
+        <v>54.05431994396668</v>
       </c>
       <c r="Y16" t="n">
         <v>0</v>
@@ -23780,10 +23780,10 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>1.811883976188255e-12</v>
+        <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>0</v>
+        <v>2.472688720445149e-12</v>
       </c>
       <c r="U17" t="n">
         <v>0</v>
@@ -23890,7 +23890,7 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>1.108446667785756e-12</v>
       </c>
       <c r="D19" t="n">
         <v>0</v>
@@ -23981,7 +23981,7 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>0</v>
+        <v>2.103206497849897e-12</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -24017,7 +24017,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>-1.932676241267473e-12</v>
+        <v>0</v>
       </c>
       <c r="T20" t="n">
         <v>0</v>
@@ -24649,7 +24649,7 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>-1.835198672473959e-12</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
@@ -24883,7 +24883,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>-4.46931380793103e-12</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
@@ -26123,7 +26123,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>1275596.078118056</v>
+        <v>1275596.078118057</v>
       </c>
     </row>
     <row r="3">
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>1139319.137799323</v>
+        <v>1139319.137799322</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26155,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>1279154.961414945</v>
+        <v>1279154.961414946</v>
       </c>
     </row>
     <row r="7">
@@ -26311,49 +26311,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>77308.85321927609</v>
+        <v>77308.85321927616</v>
       </c>
       <c r="C2" t="n">
-        <v>82104.17698642833</v>
+        <v>82104.17698642831</v>
       </c>
       <c r="D2" t="n">
-        <v>82104.17698642833</v>
+        <v>82104.17698642834</v>
       </c>
       <c r="E2" t="n">
-        <v>68199.41979418414</v>
+        <v>68199.41979418411</v>
       </c>
       <c r="F2" t="n">
-        <v>76674.31819513105</v>
+        <v>76674.31819513101</v>
       </c>
       <c r="G2" t="n">
         <v>82104.17698642839</v>
       </c>
       <c r="H2" t="n">
-        <v>82104.17698642847</v>
+        <v>82104.17698642841</v>
       </c>
       <c r="I2" t="n">
+        <v>82104.1769864283</v>
+      </c>
+      <c r="J2" t="n">
+        <v>82104.1769864284</v>
+      </c>
+      <c r="K2" t="n">
+        <v>82104.17698642837</v>
+      </c>
+      <c r="L2" t="n">
+        <v>82104.17698642833</v>
+      </c>
+      <c r="M2" t="n">
+        <v>82104.1769864283</v>
+      </c>
+      <c r="N2" t="n">
+        <v>82104.17698642841</v>
+      </c>
+      <c r="O2" t="n">
+        <v>82104.17698642844</v>
+      </c>
+      <c r="P2" t="n">
         <v>82104.17698642849</v>
-      </c>
-      <c r="J2" t="n">
-        <v>82104.17698642828</v>
-      </c>
-      <c r="K2" t="n">
-        <v>82104.17698642841</v>
-      </c>
-      <c r="L2" t="n">
-        <v>82104.17698642831</v>
-      </c>
-      <c r="M2" t="n">
-        <v>82104.17698642834</v>
-      </c>
-      <c r="N2" t="n">
-        <v>82104.17698642833</v>
-      </c>
-      <c r="O2" t="n">
-        <v>82104.17698642843</v>
-      </c>
-      <c r="P2" t="n">
-        <v>82104.17698642831</v>
       </c>
     </row>
     <row r="3">
@@ -26363,46 +26363,46 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>314444.4864345988</v>
+        <v>314444.4864346</v>
       </c>
       <c r="C3" t="n">
-        <v>56271.05156264041</v>
+        <v>56271.05156263796</v>
       </c>
       <c r="D3" t="n">
-        <v>88049.46972945337</v>
+        <v>88049.46972945465</v>
       </c>
       <c r="E3" t="n">
-        <v>728470.1008399351</v>
+        <v>728470.1008399349</v>
       </c>
       <c r="F3" t="n">
-        <v>215052.1096963073</v>
+        <v>215052.1096963075</v>
       </c>
       <c r="G3" t="n">
-        <v>25288.1618817712</v>
+        <v>25288.16188177113</v>
       </c>
       <c r="H3" t="n">
-        <v>9.094947017729282e-11</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>1.985627022804692e-10</v>
       </c>
       <c r="K3" t="n">
-        <v>8978.150740800145</v>
+        <v>8978.150740800009</v>
       </c>
       <c r="L3" t="n">
-        <v>39911.87677390358</v>
+        <v>39911.87677390373</v>
       </c>
       <c r="M3" t="n">
-        <v>184096.0922694317</v>
+        <v>184096.0922694315</v>
       </c>
       <c r="N3" t="n">
-        <v>56542.29359578615</v>
+        <v>56542.29359578606</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>1.833318492572289e-10</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26415,49 +26415,49 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>330698.4677251941</v>
+        <v>330698.4677251943</v>
       </c>
       <c r="C4" t="n">
-        <v>340674.6247663262</v>
+        <v>340674.6247663265</v>
       </c>
       <c r="D4" t="n">
         <v>312487.2615518147</v>
       </c>
       <c r="E4" t="n">
-        <v>14649.95482219023</v>
+        <v>14649.95482218994</v>
       </c>
       <c r="F4" t="n">
         <v>14769.42975388845</v>
       </c>
       <c r="G4" t="n">
-        <v>45839.31483610855</v>
+        <v>45839.31483610846</v>
       </c>
       <c r="H4" t="n">
+        <v>45839.31483610849</v>
+      </c>
+      <c r="I4" t="n">
+        <v>45839.31483610858</v>
+      </c>
+      <c r="J4" t="n">
+        <v>45839.31483610856</v>
+      </c>
+      <c r="K4" t="n">
+        <v>45839.31483610847</v>
+      </c>
+      <c r="L4" t="n">
         <v>45839.31483610859</v>
       </c>
-      <c r="I4" t="n">
-        <v>45839.31483610859</v>
-      </c>
-      <c r="J4" t="n">
-        <v>45839.31483610848</v>
-      </c>
-      <c r="K4" t="n">
-        <v>45839.31483610868</v>
-      </c>
-      <c r="L4" t="n">
-        <v>45839.31483610855</v>
-      </c>
       <c r="M4" t="n">
-        <v>45839.31483610854</v>
+        <v>45839.31483610858</v>
       </c>
       <c r="N4" t="n">
-        <v>45839.31483610856</v>
+        <v>45839.31483610864</v>
       </c>
       <c r="O4" t="n">
-        <v>45839.31483610859</v>
+        <v>45839.31483610853</v>
       </c>
       <c r="P4" t="n">
-        <v>45839.31483610858</v>
+        <v>45839.31483610863</v>
       </c>
     </row>
     <row r="5">
@@ -26467,16 +26467,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>40741.33736580372</v>
+        <v>40741.33736580378</v>
       </c>
       <c r="C5" t="n">
-        <v>43939.64495097149</v>
+        <v>43939.64495097141</v>
       </c>
       <c r="D5" t="n">
         <v>49237.11966583622</v>
       </c>
       <c r="E5" t="n">
-        <v>74306.34056139331</v>
+        <v>74306.3405613933</v>
       </c>
       <c r="F5" t="n">
         <v>92448.99600060697</v>
@@ -26485,31 +26485,31 @@
         <v>95106.43410215525</v>
       </c>
       <c r="H5" t="n">
+        <v>95106.43410215524</v>
+      </c>
+      <c r="I5" t="n">
+        <v>95106.43410215525</v>
+      </c>
+      <c r="J5" t="n">
+        <v>95106.43410215528</v>
+      </c>
+      <c r="K5" t="n">
         <v>95106.43410215527</v>
       </c>
-      <c r="I5" t="n">
-        <v>95106.43410215524</v>
-      </c>
-      <c r="J5" t="n">
+      <c r="L5" t="n">
         <v>95106.43410215527</v>
-      </c>
-      <c r="K5" t="n">
-        <v>95106.43410215525</v>
-      </c>
-      <c r="L5" t="n">
-        <v>95106.43410215525</v>
       </c>
       <c r="M5" t="n">
         <v>95106.43410215527</v>
       </c>
       <c r="N5" t="n">
-        <v>95106.43410215527</v>
+        <v>95106.43410215524</v>
       </c>
       <c r="O5" t="n">
         <v>95106.43410215525</v>
       </c>
       <c r="P5" t="n">
-        <v>95106.43410215525</v>
+        <v>95106.43410215527</v>
       </c>
     </row>
     <row r="6">
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-608575.4383063205</v>
+        <v>-608695.3214005007</v>
       </c>
       <c r="C6" t="n">
-        <v>-358781.1442935097</v>
+        <v>-358781.1442935076</v>
       </c>
       <c r="D6" t="n">
-        <v>-367669.673960676</v>
+        <v>-367669.6739606772</v>
       </c>
       <c r="E6" t="n">
-        <v>-749226.9764293345</v>
+        <v>-749574.5953591401</v>
       </c>
       <c r="F6" t="n">
-        <v>-245596.2172556717</v>
+        <v>-245731.9637254543</v>
       </c>
       <c r="G6" t="n">
-        <v>-84129.73383360662</v>
+        <v>-84129.73383360646</v>
       </c>
       <c r="H6" t="n">
-        <v>-58841.57195183547</v>
+        <v>-58841.57195183531</v>
       </c>
       <c r="I6" t="n">
-        <v>-58841.57195183523</v>
+        <v>-58841.57195183553</v>
       </c>
       <c r="J6" t="n">
-        <v>-58841.57195183547</v>
+        <v>-58841.57195183565</v>
       </c>
       <c r="K6" t="n">
-        <v>-67819.72269263567</v>
+        <v>-67819.72269263538</v>
       </c>
       <c r="L6" t="n">
-        <v>-98753.44872573906</v>
+        <v>-98753.44872573926</v>
       </c>
       <c r="M6" t="n">
-        <v>-242937.6642212671</v>
+        <v>-242937.664221267</v>
       </c>
       <c r="N6" t="n">
-        <v>-115383.8655476217</v>
+        <v>-115383.8655476215</v>
       </c>
       <c r="O6" t="n">
-        <v>-58841.57195183542</v>
+        <v>-58841.57195183553</v>
       </c>
       <c r="P6" t="n">
-        <v>-58841.57195183552</v>
+        <v>-58841.57195183541</v>
       </c>
     </row>
   </sheetData>
@@ -26692,28 +26692,28 @@
         <v>400</v>
       </c>
       <c r="E2" t="n">
-        <v>1.84741111297626e-13</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>31.610202352214</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="H2" t="n">
-        <v>31.61020235221411</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="I2" t="n">
-        <v>31.61020235221411</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="J2" t="n">
+        <v>31.61020235221401</v>
+      </c>
+      <c r="K2" t="n">
         <v>31.61020235221393</v>
       </c>
-      <c r="K2" t="n">
-        <v>31.61020235221413</v>
-      </c>
       <c r="L2" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221399</v>
       </c>
       <c r="M2" t="n">
         <v>31.61020235221399</v>
@@ -26725,7 +26725,7 @@
         <v>31.61020235221398</v>
       </c>
       <c r="P2" t="n">
-        <v>31.61020235221398</v>
+        <v>31.61020235221406</v>
       </c>
     </row>
     <row r="3">
@@ -26735,10 +26735,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>326.3182277891633</v>
+        <v>326.3182277891643</v>
       </c>
       <c r="C3" t="n">
-        <v>375.7370697234914</v>
+        <v>375.7370697234902</v>
       </c>
       <c r="D3" t="n">
         <v>457.5913187641656</v>
@@ -26750,7 +26750,7 @@
         <v>1278.159870620123</v>
       </c>
       <c r="G3" t="n">
-        <v>1278.159870620122</v>
+        <v>1278.159870620123</v>
       </c>
       <c r="H3" t="n">
         <v>1278.159870620123</v>
@@ -26790,13 +26790,13 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>34.88448735196346</v>
+        <v>34.88448735196263</v>
       </c>
       <c r="D4" t="n">
         <v>92.66494928910228</v>
       </c>
       <c r="E4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022928</v>
       </c>
       <c r="F4" t="n">
         <v>1062.255112188952</v>
@@ -26805,7 +26805,7 @@
         <v>1062.255112188952</v>
       </c>
       <c r="H4" t="n">
-        <v>1062.255112188953</v>
+        <v>1062.255112188952</v>
       </c>
       <c r="I4" t="n">
         <v>1062.255112188952</v>
@@ -26814,7 +26814,7 @@
         <v>1062.255112188953</v>
       </c>
       <c r="K4" t="n">
-        <v>1062.255112188952</v>
+        <v>1062.255112188953</v>
       </c>
       <c r="L4" t="n">
         <v>1062.255112188953</v>
@@ -26823,7 +26823,7 @@
         <v>1062.255112188953</v>
       </c>
       <c r="N4" t="n">
-        <v>1062.255112188953</v>
+        <v>1062.255112188952</v>
       </c>
       <c r="O4" t="n">
         <v>1062.255112188953</v>
@@ -26914,37 +26914,37 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>1.84741111297626e-13</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>31.610202352214</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="H2" t="n">
-        <v>1.13686837721616e-13</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>9.947598300641403e-14</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>31.61020235221381</v>
+        <v>31.61020235221397</v>
       </c>
       <c r="M2" t="n">
-        <v>1.49213974509621e-13</v>
+        <v>0</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>0</v>
+        <v>9.237055564881302e-14</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -26957,13 +26957,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>326.3182277891633</v>
+        <v>326.3182277891643</v>
       </c>
       <c r="C3" t="n">
-        <v>49.4188419343281</v>
+        <v>49.41884193432594</v>
       </c>
       <c r="D3" t="n">
-        <v>81.85424904067418</v>
+        <v>81.85424904067537</v>
       </c>
       <c r="E3" t="n">
         <v>632.1853818291327</v>
@@ -27012,16 +27012,16 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>34.88448735196413</v>
+        <v>34.88448735196263</v>
       </c>
       <c r="D4" t="n">
-        <v>57.78046193713883</v>
+        <v>57.78046193713967</v>
       </c>
       <c r="E4" t="n">
-        <v>738.7365061131906</v>
+        <v>738.7365061131904</v>
       </c>
       <c r="F4" t="n">
-        <v>230.8536567866595</v>
+        <v>230.8536567866596</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -27033,22 +27033,22 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="K4" t="n">
-        <v>34.88448735196351</v>
+        <v>34.88448735196324</v>
       </c>
       <c r="L4" t="n">
-        <v>57.78046193713931</v>
+        <v>57.78046193713942</v>
       </c>
       <c r="M4" t="n">
-        <v>738.7365061131906</v>
+        <v>738.7365061131904</v>
       </c>
       <c r="N4" t="n">
-        <v>230.8536567866595</v>
+        <v>230.8536567866591</v>
       </c>
       <c r="O4" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -27151,22 +27151,22 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>1.84741111297626e-13</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>31.610202352214</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="M2" t="n">
-        <v>1.13686837721616e-13</v>
+        <v>0</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>0</v>
+        <v>9.947598300641403e-14</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -27258,16 +27258,16 @@
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>34.88448735196413</v>
+        <v>34.88448735196263</v>
       </c>
       <c r="L4" t="n">
-        <v>57.78046193713883</v>
+        <v>57.78046193713967</v>
       </c>
       <c r="M4" t="n">
-        <v>738.7365061131906</v>
+        <v>738.7365061131904</v>
       </c>
       <c r="N4" t="n">
-        <v>230.8536567866595</v>
+        <v>230.8536567866596</v>
       </c>
       <c r="O4" t="n">
         <v>0</v>
@@ -27388,25 +27388,25 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>400</v>
+        <v>27.6419086956285</v>
       </c>
       <c r="G2" t="n">
         <v>400</v>
       </c>
       <c r="H2" t="n">
-        <v>211.1259277243183</v>
+        <v>326.0400019133721</v>
       </c>
       <c r="I2" t="n">
-        <v>159.9014836333538</v>
+        <v>159.9014836333536</v>
       </c>
       <c r="J2" t="n">
-        <v>69.70579724700588</v>
+        <v>69.70579724700553</v>
       </c>
       <c r="K2" t="n">
-        <v>53.21989217810304</v>
+        <v>53.21989217810253</v>
       </c>
       <c r="L2" t="n">
-        <v>0</v>
+        <v>28.74947534450564</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -27415,19 +27415,19 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>0</v>
+        <v>9.069265482343781</v>
       </c>
       <c r="P2" t="n">
-        <v>0</v>
+        <v>42.58990408143413</v>
       </c>
       <c r="Q2" t="n">
-        <v>80.64258426171781</v>
+        <v>80.64258426171736</v>
       </c>
       <c r="R2" t="n">
-        <v>133.1811664518767</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>179.1266962566149</v>
+        <v>179.1266962566148</v>
       </c>
       <c r="T2" t="n">
         <v>217.3533046710778</v>
@@ -27445,7 +27445,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -27467,7 +27467,7 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F3" t="n">
-        <v>145.0692123933852</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G3" t="n">
         <v>136.6416251260792</v>
@@ -27476,13 +27476,13 @@
         <v>105.4566448252536</v>
       </c>
       <c r="I3" t="n">
-        <v>75.3563603005195</v>
+        <v>75.35636030051944</v>
       </c>
       <c r="J3" t="n">
-        <v>60.52422152698398</v>
+        <v>60.52422152698378</v>
       </c>
       <c r="K3" t="n">
-        <v>24.50126734687264</v>
+        <v>24.50126734687161</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
@@ -27500,10 +27500,10 @@
         <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>50.38587124096671</v>
+        <v>50.38587124096644</v>
       </c>
       <c r="R3" t="n">
-        <v>102.100628184876</v>
+        <v>102.1006281848752</v>
       </c>
       <c r="S3" t="n">
         <v>158.6458343615066</v>
@@ -27512,7 +27512,7 @@
         <v>197.3356112293665</v>
       </c>
       <c r="U3" t="n">
-        <v>225.8952049732695</v>
+        <v>225.8952049732688</v>
       </c>
       <c r="V3" t="n">
         <v>232.8005871494253</v>
@@ -27555,34 +27555,34 @@
         <v>156.9953819045248</v>
       </c>
       <c r="I4" t="n">
-        <v>137.7543979186263</v>
+        <v>137.7543979186262</v>
       </c>
       <c r="J4" t="n">
-        <v>85.39252213584984</v>
+        <v>85.39252213584972</v>
       </c>
       <c r="K4" t="n">
-        <v>60.64691470913365</v>
+        <v>60.64691470913344</v>
       </c>
       <c r="L4" t="n">
-        <v>47.39929435887801</v>
+        <v>47.39929435887774</v>
       </c>
       <c r="M4" t="n">
-        <v>46.68471506615356</v>
+        <v>46.68471506615327</v>
       </c>
       <c r="N4" t="n">
-        <v>37.637762032857</v>
+        <v>37.63776203285606</v>
       </c>
       <c r="O4" t="n">
-        <v>55.28283671961472</v>
+        <v>55.28283671961447</v>
       </c>
       <c r="P4" t="n">
-        <v>66.55853351624555</v>
+        <v>66.55853351624533</v>
       </c>
       <c r="Q4" t="n">
-        <v>102.2309492332822</v>
+        <v>102.230949233282</v>
       </c>
       <c r="R4" t="n">
-        <v>150.8348675305269</v>
+        <v>150.8348675305268</v>
       </c>
       <c r="S4" t="n">
         <v>213.761646517762</v>
@@ -27594,7 +27594,7 @@
         <v>286.2869324816264</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
         <v>286.522998336591</v>
@@ -27616,7 +27616,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>347.0686471304327</v>
       </c>
       <c r="D5" t="n">
         <v>354.683041620683</v>
@@ -27628,19 +27628,19 @@
         <v>400</v>
       </c>
       <c r="G5" t="n">
-        <v>400</v>
+        <v>378.9077493803645</v>
       </c>
       <c r="H5" t="n">
         <v>324.0053859738347</v>
       </c>
       <c r="I5" t="n">
-        <v>152.2423081412003</v>
+        <v>152.2423081412005</v>
       </c>
       <c r="J5" t="n">
-        <v>52.84403871183531</v>
+        <v>52.84403871183571</v>
       </c>
       <c r="K5" t="n">
-        <v>0</v>
+        <v>27.9484870938673</v>
       </c>
       <c r="L5" t="n">
         <v>0</v>
@@ -27655,16 +27655,16 @@
         <v>0</v>
       </c>
       <c r="P5" t="n">
-        <v>0</v>
+        <v>14.02109506150052</v>
       </c>
       <c r="Q5" t="n">
-        <v>26.9771980081817</v>
+        <v>59.188598464992</v>
       </c>
       <c r="R5" t="n">
-        <v>120.7015430160687</v>
+        <v>120.701543016069</v>
       </c>
       <c r="S5" t="n">
-        <v>174.5995329980079</v>
+        <v>174.599532998008</v>
       </c>
       <c r="T5" t="n">
         <v>216.4836323873893</v>
@@ -27676,7 +27676,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>314.3564813654504</v>
       </c>
       <c r="X5" t="n">
         <v>369.731100678469</v>
@@ -27695,10 +27695,10 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C6" t="n">
-        <v>149.3188541822183</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D6" t="n">
-        <v>112.5605782126753</v>
+        <v>112.5605782126761</v>
       </c>
       <c r="E6" t="n">
         <v>157.6450804554009</v>
@@ -27710,16 +27710,16 @@
         <v>136.5353279943714</v>
       </c>
       <c r="H6" t="n">
-        <v>69.545550964428</v>
+        <v>104.4300383163915</v>
       </c>
       <c r="I6" t="n">
-        <v>71.69656870443954</v>
+        <v>71.69656870443964</v>
       </c>
       <c r="J6" t="n">
-        <v>50.4814736580466</v>
+        <v>15.59698630608421</v>
       </c>
       <c r="K6" t="n">
-        <v>0</v>
+        <v>7.336611653512392</v>
       </c>
       <c r="L6" t="n">
         <v>0</v>
@@ -27737,16 +27737,16 @@
         <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>1.932648269600563</v>
+        <v>36.81713562156435</v>
       </c>
       <c r="R6" t="n">
-        <v>95.50088170919275</v>
+        <v>95.50088170919292</v>
       </c>
       <c r="S6" t="n">
-        <v>156.6714117615832</v>
+        <v>156.6714117615833</v>
       </c>
       <c r="T6" t="n">
-        <v>196.9071591941057</v>
+        <v>162.022671842143</v>
       </c>
       <c r="U6" t="n">
         <v>225.8882117409196</v>
@@ -27758,7 +27758,7 @@
         <v>251.6949831609196</v>
       </c>
       <c r="X6" t="n">
-        <v>205.7729852034775</v>
+        <v>175.0467287438688</v>
       </c>
       <c r="Y6" t="n">
         <v>205.6826957773044</v>
@@ -27792,34 +27792,34 @@
         <v>156.2030601436761</v>
       </c>
       <c r="I7" t="n">
-        <v>135.0744384248761</v>
+        <v>135.0744384248762</v>
       </c>
       <c r="J7" t="n">
-        <v>79.09202486169788</v>
+        <v>79.09202486169804</v>
       </c>
       <c r="K7" t="n">
-        <v>50.29326225141705</v>
+        <v>50.29326225141729</v>
       </c>
       <c r="L7" t="n">
-        <v>34.15018385077961</v>
+        <v>34.15018385077994</v>
       </c>
       <c r="M7" t="n">
-        <v>32.71538569773357</v>
+        <v>32.71538569773391</v>
       </c>
       <c r="N7" t="n">
-        <v>24.00059209383099</v>
+        <v>24.00059209383132</v>
       </c>
       <c r="O7" t="n">
-        <v>42.68670304100925</v>
+        <v>42.68670304100955</v>
       </c>
       <c r="P7" t="n">
-        <v>55.78036510486356</v>
+        <v>55.78036510486382</v>
       </c>
       <c r="Q7" t="n">
-        <v>94.76870410119864</v>
+        <v>94.76870410119882</v>
       </c>
       <c r="R7" t="n">
-        <v>146.8278906090976</v>
+        <v>146.8278906090977</v>
       </c>
       <c r="S7" t="n">
         <v>212.2085986491045</v>
@@ -27850,10 +27850,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>290.0688923743783</v>
       </c>
       <c r="C8" t="n">
-        <v>339.0985080366813</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
         <v>354.683041620683</v>
@@ -27865,16 +27865,16 @@
         <v>400</v>
       </c>
       <c r="G8" t="n">
-        <v>320.7982251355235</v>
+        <v>338.7199328324961</v>
       </c>
       <c r="H8" t="n">
-        <v>320.6353766150897</v>
+        <v>227.9704273259874</v>
       </c>
       <c r="I8" t="n">
-        <v>46.89118423444737</v>
+        <v>139.5561335235496</v>
       </c>
       <c r="J8" t="n">
-        <v>0</v>
+        <v>24.91528667358034</v>
       </c>
       <c r="K8" t="n">
         <v>0</v>
@@ -27895,10 +27895,10 @@
         <v>0</v>
       </c>
       <c r="Q8" t="n">
-        <v>0</v>
+        <v>23.65357118422321</v>
       </c>
       <c r="R8" t="n">
-        <v>7.366133540830774</v>
+        <v>100.0310828299331</v>
       </c>
       <c r="S8" t="n">
         <v>167.1010256612668</v>
@@ -27916,7 +27916,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>277.0661513893667</v>
       </c>
       <c r="Y8" t="n">
         <v>386.2379386560536</v>
@@ -27932,7 +27932,7 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C9" t="n">
-        <v>97.33647956877458</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D9" t="n">
         <v>54.78011627553647</v>
@@ -27953,7 +27953,7 @@
         <v>65.63472101604999</v>
       </c>
       <c r="J9" t="n">
-        <v>33.84730027516771</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
         <v>0</v>
@@ -27977,16 +27977,16 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>0</v>
+        <v>84.5694784127797</v>
       </c>
       <c r="S9" t="n">
-        <v>153.4011028494393</v>
+        <v>119.9718545813885</v>
       </c>
       <c r="T9" t="n">
-        <v>196.197498299121</v>
+        <v>103.5325490100187</v>
       </c>
       <c r="U9" t="n">
-        <v>225.8766285924705</v>
+        <v>133.2116793033682</v>
       </c>
       <c r="V9" t="n">
         <v>232.8005871494253</v>
@@ -27998,7 +27998,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y9" t="n">
-        <v>113.0177464882021</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="10">
@@ -28087,28 +28087,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1.84741111297626e-13</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>1.84741111297626e-13</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>1.84741111297626e-13</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>1.84741111297626e-13</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>1.84741111297626e-13</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>1.84741111297626e-13</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>1.84741111297626e-13</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1.84741111297626e-13</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -28138,25 +28138,25 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>1.84741111297626e-13</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>1.84741111297626e-13</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>1.84741111297626e-13</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>1.84741111297626e-13</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>1.84741111297626e-13</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>1.84741111297626e-13</v>
+        <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>1.84741111297626e-13</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -28260,7 +28260,7 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>1.84741111297626e-13</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -28308,10 +28308,10 @@
         <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>1.201740928991057e-11</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>1.84741111297626e-13</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
         <v>0</v>
@@ -28561,28 +28561,28 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>31.610202352214</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="C17" t="n">
-        <v>31.610202352214</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="D17" t="n">
-        <v>31.610202352214</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="E17" t="n">
-        <v>31.610202352214</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="F17" t="n">
-        <v>31.610202352214</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="G17" t="n">
-        <v>31.610202352214</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="H17" t="n">
-        <v>31.610202352214</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="I17" t="n">
-        <v>12.38037836605506</v>
+        <v>12.38037836605497</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -28612,25 +28612,25 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>31.610202352214</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="T17" t="n">
-        <v>31.610202352214</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="U17" t="n">
-        <v>31.610202352214</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="V17" t="n">
-        <v>31.610202352214</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="W17" t="n">
-        <v>31.610202352214</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="X17" t="n">
-        <v>31.610202352214</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="Y17" t="n">
-        <v>31.610202352214</v>
+        <v>31.61020235221391</v>
       </c>
     </row>
     <row r="18">
@@ -28719,76 +28719,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>31.610202352214</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="C19" t="n">
-        <v>31.610202352214</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="D19" t="n">
-        <v>31.610202352214</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="E19" t="n">
-        <v>31.610202352214</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="F19" t="n">
-        <v>31.610202352214</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="G19" t="n">
-        <v>31.610202352214</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="H19" t="n">
-        <v>31.610202352214</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="I19" t="n">
-        <v>31.610202352214</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="J19" t="n">
-        <v>31.610202352214</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="K19" t="n">
-        <v>31.610202352214</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="L19" t="n">
-        <v>31.610202352214</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="M19" t="n">
-        <v>31.610202352214</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="N19" t="n">
-        <v>31.610202352214</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="O19" t="n">
-        <v>31.610202352214</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="P19" t="n">
-        <v>31.610202352214</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="Q19" t="n">
-        <v>31.610202352214</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="R19" t="n">
-        <v>31.610202352214</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="S19" t="n">
-        <v>31.610202352214</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="T19" t="n">
-        <v>31.610202352214</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="U19" t="n">
-        <v>31.610202352214</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="V19" t="n">
-        <v>31.610202352214</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="W19" t="n">
-        <v>31.610202352214</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="X19" t="n">
-        <v>31.610202352214</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="Y19" t="n">
-        <v>31.610202352214</v>
+        <v>31.61020235221391</v>
       </c>
     </row>
     <row r="20">
@@ -28798,25 +28798,25 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>31.61020235221411</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="C20" t="n">
-        <v>31.61020235221411</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="D20" t="n">
-        <v>31.61020235221411</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="E20" t="n">
-        <v>31.61020235221411</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="F20" t="n">
-        <v>31.61020235221411</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="G20" t="n">
-        <v>31.61020235221411</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="H20" t="n">
-        <v>31.61020235221411</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="I20" t="n">
         <v>12.38037836605503</v>
@@ -28849,25 +28849,25 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>31.61020235221411</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="T20" t="n">
-        <v>31.61020235221411</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="U20" t="n">
-        <v>31.61020235221411</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="V20" t="n">
-        <v>31.61020235221411</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="W20" t="n">
-        <v>31.61020235221411</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="X20" t="n">
-        <v>31.61020235221411</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="Y20" t="n">
-        <v>31.61020235221411</v>
+        <v>31.61020235221391</v>
       </c>
     </row>
     <row r="21">
@@ -28956,76 +28956,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>31.61020235221411</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="C22" t="n">
-        <v>31.61020235221411</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="D22" t="n">
-        <v>31.61020235221411</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="E22" t="n">
-        <v>31.61020235221411</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="F22" t="n">
-        <v>31.61020235221411</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="G22" t="n">
-        <v>31.61020235221411</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="H22" t="n">
-        <v>31.61020235221411</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="I22" t="n">
-        <v>31.61020235221411</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="J22" t="n">
-        <v>31.61020235221411</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="K22" t="n">
-        <v>31.61020235221411</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="L22" t="n">
-        <v>31.61020235221411</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="M22" t="n">
-        <v>31.61020235221411</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="N22" t="n">
-        <v>31.61020235221411</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="O22" t="n">
-        <v>31.61020235221411</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="P22" t="n">
-        <v>31.61020235221411</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="Q22" t="n">
-        <v>31.61020235221411</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="R22" t="n">
-        <v>31.61020235221411</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="S22" t="n">
-        <v>31.61020235221411</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="T22" t="n">
-        <v>31.61020235221411</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="U22" t="n">
-        <v>31.61020235221411</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="V22" t="n">
-        <v>31.61020235221411</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="W22" t="n">
-        <v>31.61020235221411</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="X22" t="n">
-        <v>31.61020235221411</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="Y22" t="n">
-        <v>31.61020235221411</v>
+        <v>31.61020235221391</v>
       </c>
     </row>
     <row r="23">
@@ -29035,28 +29035,28 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>31.61020235221411</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="C23" t="n">
-        <v>31.61020235221411</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="D23" t="n">
-        <v>31.61020235221411</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="E23" t="n">
-        <v>31.61020235221411</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="F23" t="n">
-        <v>31.61020235221411</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="G23" t="n">
-        <v>31.61020235221411</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="H23" t="n">
-        <v>31.61020235221411</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="I23" t="n">
-        <v>12.38037836605503</v>
+        <v>12.38037836605497</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -29086,25 +29086,25 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>31.61020235221411</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="T23" t="n">
-        <v>31.61020235221411</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="U23" t="n">
-        <v>31.61020235221411</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="V23" t="n">
-        <v>31.61020235221411</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="W23" t="n">
-        <v>31.61020235221411</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="X23" t="n">
-        <v>31.61020235221411</v>
+        <v>31.61020235221628</v>
       </c>
       <c r="Y23" t="n">
-        <v>31.61020235221411</v>
+        <v>31.61020235221391</v>
       </c>
     </row>
     <row r="24">
@@ -29193,76 +29193,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>31.61020235221411</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="C25" t="n">
-        <v>31.61020235221411</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="D25" t="n">
-        <v>31.61020235221411</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="E25" t="n">
-        <v>31.61020235221411</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="F25" t="n">
-        <v>31.61020235221411</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="G25" t="n">
-        <v>31.61020235221411</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="H25" t="n">
-        <v>31.61020235221411</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="I25" t="n">
-        <v>31.61020235221411</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="J25" t="n">
-        <v>31.61020235221411</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="K25" t="n">
-        <v>31.61020235221411</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="L25" t="n">
-        <v>31.61020235221411</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="M25" t="n">
-        <v>31.61020235221411</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="N25" t="n">
-        <v>31.61020235221411</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="O25" t="n">
-        <v>31.61020235221411</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="P25" t="n">
-        <v>31.61020235221411</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="Q25" t="n">
-        <v>31.61020235221411</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="R25" t="n">
-        <v>31.61020235221411</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="S25" t="n">
-        <v>31.61020235221411</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="T25" t="n">
-        <v>31.61020235221411</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="U25" t="n">
-        <v>31.61020235221411</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="V25" t="n">
-        <v>31.61020235221411</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="W25" t="n">
-        <v>31.61020235221411</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="X25" t="n">
-        <v>31.61020235221411</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="Y25" t="n">
-        <v>31.61020235221411</v>
+        <v>31.61020235221391</v>
       </c>
     </row>
     <row r="26">
@@ -29272,25 +29272,25 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>31.61020235221393</v>
+        <v>31.61020235221401</v>
       </c>
       <c r="C26" t="n">
-        <v>31.61020235221393</v>
+        <v>31.61020235221401</v>
       </c>
       <c r="D26" t="n">
-        <v>31.61020235221393</v>
+        <v>31.61020235221401</v>
       </c>
       <c r="E26" t="n">
-        <v>31.61020235221393</v>
+        <v>31.61020235221401</v>
       </c>
       <c r="F26" t="n">
-        <v>31.61020235221393</v>
+        <v>31.61020235221401</v>
       </c>
       <c r="G26" t="n">
-        <v>31.61020235221393</v>
+        <v>31.61020235221401</v>
       </c>
       <c r="H26" t="n">
-        <v>31.61020235221393</v>
+        <v>31.61020235221401</v>
       </c>
       <c r="I26" t="n">
         <v>12.38037836605497</v>
@@ -29323,25 +29323,25 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>31.61020235221393</v>
+        <v>31.61020235221401</v>
       </c>
       <c r="T26" t="n">
-        <v>31.61020235221393</v>
+        <v>31.61020235221401</v>
       </c>
       <c r="U26" t="n">
-        <v>31.61020235221393</v>
+        <v>31.61020235221401</v>
       </c>
       <c r="V26" t="n">
-        <v>31.61020235221393</v>
+        <v>31.61020235221401</v>
       </c>
       <c r="W26" t="n">
-        <v>31.61020235221393</v>
+        <v>31.61020235221401</v>
       </c>
       <c r="X26" t="n">
-        <v>31.61020235221393</v>
+        <v>31.61020235221401</v>
       </c>
       <c r="Y26" t="n">
-        <v>31.61020235221393</v>
+        <v>31.61020235221401</v>
       </c>
     </row>
     <row r="27">
@@ -29430,76 +29430,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>31.61020235221393</v>
+        <v>31.61020235221401</v>
       </c>
       <c r="C28" t="n">
-        <v>31.61020235221393</v>
+        <v>31.61020235221401</v>
       </c>
       <c r="D28" t="n">
-        <v>31.61020235221393</v>
+        <v>31.61020235221401</v>
       </c>
       <c r="E28" t="n">
-        <v>31.61020235221393</v>
+        <v>31.61020235221401</v>
       </c>
       <c r="F28" t="n">
-        <v>31.61020235221393</v>
+        <v>31.61020235221401</v>
       </c>
       <c r="G28" t="n">
-        <v>31.61020235221393</v>
+        <v>31.61020235221401</v>
       </c>
       <c r="H28" t="n">
-        <v>31.61020235221393</v>
+        <v>31.61020235221401</v>
       </c>
       <c r="I28" t="n">
-        <v>31.61020235221393</v>
+        <v>31.61020235221401</v>
       </c>
       <c r="J28" t="n">
-        <v>31.61020235221393</v>
+        <v>31.61020235221401</v>
       </c>
       <c r="K28" t="n">
-        <v>31.61020235221393</v>
+        <v>31.61020235221401</v>
       </c>
       <c r="L28" t="n">
-        <v>31.61020235221393</v>
+        <v>31.61020235221401</v>
       </c>
       <c r="M28" t="n">
-        <v>31.61020235221393</v>
+        <v>31.61020235221401</v>
       </c>
       <c r="N28" t="n">
-        <v>31.61020235221393</v>
+        <v>31.61020235221401</v>
       </c>
       <c r="O28" t="n">
-        <v>31.61020235221393</v>
+        <v>31.61020235221401</v>
       </c>
       <c r="P28" t="n">
-        <v>31.61020235221393</v>
+        <v>31.61020235221401</v>
       </c>
       <c r="Q28" t="n">
-        <v>31.61020235221393</v>
+        <v>31.61020235221401</v>
       </c>
       <c r="R28" t="n">
-        <v>31.61020235221393</v>
+        <v>31.61020235221401</v>
       </c>
       <c r="S28" t="n">
-        <v>31.61020235221393</v>
+        <v>31.61020235221401</v>
       </c>
       <c r="T28" t="n">
-        <v>31.61020235221393</v>
+        <v>31.61020235221401</v>
       </c>
       <c r="U28" t="n">
-        <v>31.61020235221393</v>
+        <v>31.61020235221401</v>
       </c>
       <c r="V28" t="n">
-        <v>31.61020235221393</v>
+        <v>31.61020235221401</v>
       </c>
       <c r="W28" t="n">
-        <v>31.61020235221393</v>
+        <v>31.61020235221401</v>
       </c>
       <c r="X28" t="n">
-        <v>31.61020235221393</v>
+        <v>31.61020235221401</v>
       </c>
       <c r="Y28" t="n">
-        <v>31.61020235221393</v>
+        <v>31.61020235221401</v>
       </c>
     </row>
     <row r="29">
@@ -29509,28 +29509,28 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>31.61020235221413</v>
+        <v>31.61020235221393</v>
       </c>
       <c r="C29" t="n">
-        <v>31.61020235221413</v>
+        <v>31.61020235221393</v>
       </c>
       <c r="D29" t="n">
-        <v>31.61020235221413</v>
+        <v>31.61020235221393</v>
       </c>
       <c r="E29" t="n">
-        <v>31.61020235221413</v>
+        <v>31.61020235221393</v>
       </c>
       <c r="F29" t="n">
-        <v>31.61020235221413</v>
+        <v>31.61020235221393</v>
       </c>
       <c r="G29" t="n">
-        <v>31.61020235221413</v>
+        <v>31.61020235221393</v>
       </c>
       <c r="H29" t="n">
-        <v>31.61020235221413</v>
+        <v>31.61020235221393</v>
       </c>
       <c r="I29" t="n">
-        <v>12.38037836605503</v>
+        <v>12.38037836605497</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -29560,25 +29560,25 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>31.61020235221413</v>
+        <v>31.61020235221393</v>
       </c>
       <c r="T29" t="n">
-        <v>31.61020235221413</v>
+        <v>31.61020235221393</v>
       </c>
       <c r="U29" t="n">
-        <v>31.61020235221413</v>
+        <v>31.61020235221393</v>
       </c>
       <c r="V29" t="n">
-        <v>31.61020235221413</v>
+        <v>31.61020235221393</v>
       </c>
       <c r="W29" t="n">
-        <v>31.61020235221413</v>
+        <v>31.61020235221393</v>
       </c>
       <c r="X29" t="n">
-        <v>31.61020235221413</v>
+        <v>31.61020235221393</v>
       </c>
       <c r="Y29" t="n">
-        <v>31.61020235221413</v>
+        <v>31.61020235221393</v>
       </c>
     </row>
     <row r="30">
@@ -29667,76 +29667,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>31.61020235221413</v>
+        <v>31.61020235221393</v>
       </c>
       <c r="C31" t="n">
-        <v>31.61020235221413</v>
+        <v>31.61020235221393</v>
       </c>
       <c r="D31" t="n">
-        <v>31.61020235221413</v>
+        <v>31.61020235221393</v>
       </c>
       <c r="E31" t="n">
-        <v>31.61020235221413</v>
+        <v>31.61020235221393</v>
       </c>
       <c r="F31" t="n">
-        <v>31.61020235221413</v>
+        <v>31.61020235221393</v>
       </c>
       <c r="G31" t="n">
-        <v>31.61020235221413</v>
+        <v>31.61020235221393</v>
       </c>
       <c r="H31" t="n">
-        <v>31.61020235221413</v>
+        <v>31.61020235221393</v>
       </c>
       <c r="I31" t="n">
-        <v>31.61020235221413</v>
+        <v>31.61020235221393</v>
       </c>
       <c r="J31" t="n">
-        <v>31.61020235221413</v>
+        <v>31.61020235221393</v>
       </c>
       <c r="K31" t="n">
-        <v>31.61020235221413</v>
+        <v>31.61020235221393</v>
       </c>
       <c r="L31" t="n">
-        <v>31.61020235221413</v>
+        <v>31.61020235221393</v>
       </c>
       <c r="M31" t="n">
-        <v>31.61020235221413</v>
+        <v>31.61020235221393</v>
       </c>
       <c r="N31" t="n">
-        <v>31.61020235221413</v>
+        <v>31.61020235221393</v>
       </c>
       <c r="O31" t="n">
-        <v>31.61020235221413</v>
+        <v>31.61020235221393</v>
       </c>
       <c r="P31" t="n">
-        <v>31.61020235221413</v>
+        <v>31.61020235221393</v>
       </c>
       <c r="Q31" t="n">
-        <v>31.61020235221413</v>
+        <v>31.61020235221393</v>
       </c>
       <c r="R31" t="n">
-        <v>31.61020235221413</v>
+        <v>31.61020235221393</v>
       </c>
       <c r="S31" t="n">
-        <v>31.61020235221413</v>
+        <v>31.61020235221393</v>
       </c>
       <c r="T31" t="n">
-        <v>31.61020235221413</v>
+        <v>31.61020235221393</v>
       </c>
       <c r="U31" t="n">
-        <v>31.61020235221413</v>
+        <v>31.61020235221393</v>
       </c>
       <c r="V31" t="n">
-        <v>31.61020235221413</v>
+        <v>31.61020235221393</v>
       </c>
       <c r="W31" t="n">
-        <v>31.61020235221413</v>
+        <v>31.61020235221393</v>
       </c>
       <c r="X31" t="n">
-        <v>31.61020235221413</v>
+        <v>31.61020235221393</v>
       </c>
       <c r="Y31" t="n">
-        <v>31.61020235221413</v>
+        <v>31.61020235221393</v>
       </c>
     </row>
     <row r="32">
@@ -29746,28 +29746,28 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221399</v>
       </c>
       <c r="C32" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221399</v>
       </c>
       <c r="D32" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221399</v>
       </c>
       <c r="E32" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221399</v>
       </c>
       <c r="F32" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221399</v>
       </c>
       <c r="G32" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221399</v>
       </c>
       <c r="H32" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221399</v>
       </c>
       <c r="I32" t="n">
-        <v>12.38037836605609</v>
+        <v>12.38037836605503</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -29782,7 +29782,7 @@
         <v>0</v>
       </c>
       <c r="N32" t="n">
-        <v>0</v>
+        <v>1.13686837721616e-12</v>
       </c>
       <c r="O32" t="n">
         <v>0</v>
@@ -29797,25 +29797,25 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221399</v>
       </c>
       <c r="T32" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221399</v>
       </c>
       <c r="U32" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221399</v>
       </c>
       <c r="V32" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221399</v>
       </c>
       <c r="W32" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221399</v>
       </c>
       <c r="X32" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221399</v>
       </c>
       <c r="Y32" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221399</v>
       </c>
     </row>
     <row r="33">
@@ -29904,76 +29904,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221399</v>
       </c>
       <c r="C34" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221399</v>
       </c>
       <c r="D34" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221399</v>
       </c>
       <c r="E34" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221399</v>
       </c>
       <c r="F34" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221399</v>
       </c>
       <c r="G34" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221399</v>
       </c>
       <c r="H34" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221399</v>
       </c>
       <c r="I34" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221399</v>
       </c>
       <c r="J34" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221399</v>
       </c>
       <c r="K34" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221399</v>
       </c>
       <c r="L34" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221399</v>
       </c>
       <c r="M34" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221399</v>
       </c>
       <c r="N34" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221399</v>
       </c>
       <c r="O34" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221399</v>
       </c>
       <c r="P34" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221399</v>
       </c>
       <c r="Q34" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221399</v>
       </c>
       <c r="R34" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221399</v>
       </c>
       <c r="S34" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221399</v>
       </c>
       <c r="T34" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221399</v>
       </c>
       <c r="U34" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221399</v>
       </c>
       <c r="V34" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221399</v>
       </c>
       <c r="W34" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221399</v>
       </c>
       <c r="X34" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221399</v>
       </c>
       <c r="Y34" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221399</v>
       </c>
     </row>
     <row r="35">
@@ -30040,7 +30040,7 @@
         <v>31.61020235221399</v>
       </c>
       <c r="U35" t="n">
-        <v>31.61020235221399</v>
+        <v>31.61020235221469</v>
       </c>
       <c r="V35" t="n">
         <v>31.61020235221399</v>
@@ -30235,10 +30235,10 @@
         <v>31.61020235221399</v>
       </c>
       <c r="G38" t="n">
-        <v>31.61020235221451</v>
+        <v>31.61020235221399</v>
       </c>
       <c r="H38" t="n">
-        <v>31.61020235221399</v>
+        <v>31.61020235221625</v>
       </c>
       <c r="I38" t="n">
         <v>12.38037836605503</v>
@@ -30478,7 +30478,7 @@
         <v>31.61020235221398</v>
       </c>
       <c r="I41" t="n">
-        <v>12.38037836605626</v>
+        <v>12.38037836605503</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -30694,28 +30694,28 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>31.61020235221398</v>
+        <v>31.61020235221406</v>
       </c>
       <c r="C44" t="n">
-        <v>31.61020235221398</v>
+        <v>31.61020235221406</v>
       </c>
       <c r="D44" t="n">
-        <v>31.61020235221398</v>
+        <v>31.61020235221406</v>
       </c>
       <c r="E44" t="n">
-        <v>31.61020235221398</v>
+        <v>31.61020235221406</v>
       </c>
       <c r="F44" t="n">
-        <v>31.61020235221398</v>
+        <v>31.61020235221406</v>
       </c>
       <c r="G44" t="n">
-        <v>31.61020235221398</v>
+        <v>31.61020235221406</v>
       </c>
       <c r="H44" t="n">
-        <v>31.61020235221398</v>
+        <v>31.61020235221406</v>
       </c>
       <c r="I44" t="n">
-        <v>12.38037836605597</v>
+        <v>12.38037836605626</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -30745,25 +30745,25 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>31.61020235221398</v>
+        <v>31.61020235221406</v>
       </c>
       <c r="T44" t="n">
-        <v>31.61020235221398</v>
+        <v>31.61020235221406</v>
       </c>
       <c r="U44" t="n">
-        <v>31.61020235221398</v>
+        <v>31.61020235221406</v>
       </c>
       <c r="V44" t="n">
-        <v>31.61020235221398</v>
+        <v>31.61020235221406</v>
       </c>
       <c r="W44" t="n">
-        <v>31.61020235221398</v>
+        <v>31.61020235221406</v>
       </c>
       <c r="X44" t="n">
-        <v>31.61020235221398</v>
+        <v>31.61020235221406</v>
       </c>
       <c r="Y44" t="n">
-        <v>31.61020235221398</v>
+        <v>31.61020235221406</v>
       </c>
     </row>
     <row r="45">
@@ -30852,76 +30852,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>31.61020235221398</v>
+        <v>31.61020235221406</v>
       </c>
       <c r="C46" t="n">
-        <v>31.61020235221398</v>
+        <v>31.61020235221406</v>
       </c>
       <c r="D46" t="n">
-        <v>31.61020235221398</v>
+        <v>31.61020235221406</v>
       </c>
       <c r="E46" t="n">
-        <v>31.61020235221398</v>
+        <v>31.61020235221406</v>
       </c>
       <c r="F46" t="n">
-        <v>31.61020235221398</v>
+        <v>31.61020235221406</v>
       </c>
       <c r="G46" t="n">
-        <v>31.61020235221398</v>
+        <v>31.61020235221406</v>
       </c>
       <c r="H46" t="n">
-        <v>31.61020235221398</v>
+        <v>31.61020235221406</v>
       </c>
       <c r="I46" t="n">
-        <v>31.61020235221398</v>
+        <v>31.61020235221406</v>
       </c>
       <c r="J46" t="n">
-        <v>31.61020235221398</v>
+        <v>31.61020235221406</v>
       </c>
       <c r="K46" t="n">
-        <v>31.61020235221398</v>
+        <v>31.61020235221406</v>
       </c>
       <c r="L46" t="n">
-        <v>31.61020235221398</v>
+        <v>31.61020235221406</v>
       </c>
       <c r="M46" t="n">
-        <v>31.61020235221398</v>
+        <v>31.61020235221406</v>
       </c>
       <c r="N46" t="n">
-        <v>31.61020235221398</v>
+        <v>31.61020235221406</v>
       </c>
       <c r="O46" t="n">
-        <v>31.61020235221398</v>
+        <v>31.61020235221406</v>
       </c>
       <c r="P46" t="n">
-        <v>31.61020235221398</v>
+        <v>31.61020235221406</v>
       </c>
       <c r="Q46" t="n">
-        <v>31.61020235221398</v>
+        <v>31.61020235221406</v>
       </c>
       <c r="R46" t="n">
-        <v>31.61020235221398</v>
+        <v>31.61020235221406</v>
       </c>
       <c r="S46" t="n">
-        <v>31.61020235221398</v>
+        <v>31.61020235221406</v>
       </c>
       <c r="T46" t="n">
-        <v>31.61020235221398</v>
+        <v>31.61020235221406</v>
       </c>
       <c r="U46" t="n">
-        <v>31.61020235221398</v>
+        <v>31.61020235221406</v>
       </c>
       <c r="V46" t="n">
-        <v>31.61020235221398</v>
+        <v>31.61020235221406</v>
       </c>
       <c r="W46" t="n">
-        <v>31.61020235221398</v>
+        <v>31.61020235221406</v>
       </c>
       <c r="X46" t="n">
-        <v>31.61020235221398</v>
+        <v>31.61020235221406</v>
       </c>
       <c r="Y46" t="n">
-        <v>31.61020235221398</v>
+        <v>31.61020235221406</v>
       </c>
     </row>
   </sheetData>
@@ -31039,49 +31039,49 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>1.311832071514223</v>
+        <v>1.311832071514227</v>
       </c>
       <c r="H2" t="n">
-        <v>13.43480020239504</v>
+        <v>13.43480020239508</v>
       </c>
       <c r="I2" t="n">
-        <v>50.57440593705214</v>
+        <v>50.5744059370523</v>
       </c>
       <c r="J2" t="n">
-        <v>111.3401072796804</v>
+        <v>111.3401072796808</v>
       </c>
       <c r="K2" t="n">
-        <v>166.8699588668775</v>
+        <v>166.869958866878</v>
       </c>
       <c r="L2" t="n">
-        <v>207.016939625481</v>
+        <v>207.0169396254816</v>
       </c>
       <c r="M2" t="n">
-        <v>230.346233227272</v>
+        <v>230.3462332272727</v>
       </c>
       <c r="N2" t="n">
-        <v>229.4130635965902</v>
+        <v>229.4130635965909</v>
       </c>
       <c r="O2" t="n">
-        <v>221.0289459393423</v>
+        <v>221.0289459393429</v>
       </c>
       <c r="P2" t="n">
-        <v>188.6430916738348</v>
+        <v>188.6430916738354</v>
       </c>
       <c r="Q2" t="n">
-        <v>141.6631056127317</v>
+        <v>141.6631056127321</v>
       </c>
       <c r="R2" t="n">
-        <v>82.4043713622554</v>
+        <v>82.40437136225566</v>
       </c>
       <c r="S2" t="n">
-        <v>29.89337332963039</v>
+        <v>29.89337332963048</v>
       </c>
       <c r="T2" t="n">
-        <v>5.742544893053515</v>
+        <v>5.742544893053533</v>
       </c>
       <c r="U2" t="n">
-        <v>0.1049465657211378</v>
+        <v>0.1049465657211382</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -31118,49 +31118,49 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.7018920371314079</v>
+        <v>0.70189203713141</v>
       </c>
       <c r="H3" t="n">
-        <v>6.778799411242809</v>
+        <v>6.778799411242828</v>
       </c>
       <c r="I3" t="n">
-        <v>24.16601969948049</v>
+        <v>24.16601969948056</v>
       </c>
       <c r="J3" t="n">
-        <v>66.31340513968271</v>
+        <v>66.31340513968291</v>
       </c>
       <c r="K3" t="n">
-        <v>113.340171627487</v>
+        <v>113.3401716274874</v>
       </c>
       <c r="L3" t="n">
-        <v>138.5543797798735</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M3" t="n">
-        <v>142.1340339220176</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N3" t="n">
-        <v>131.3417120833319</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O3" t="n">
-        <v>142.5962444444438</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P3" t="n">
-        <v>133.9744074143296</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q3" t="n">
-        <v>89.59590284505481</v>
+        <v>89.59590284505508</v>
       </c>
       <c r="R3" t="n">
-        <v>43.57887577908865</v>
+        <v>43.57887577908879</v>
       </c>
       <c r="S3" t="n">
-        <v>13.03733674233119</v>
+        <v>13.03733674233122</v>
       </c>
       <c r="T3" t="n">
-        <v>2.829117465455103</v>
+        <v>2.829117465455112</v>
       </c>
       <c r="U3" t="n">
-        <v>0.04617710770601369</v>
+        <v>0.04617710770601383</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31197,49 +31197,49 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.5884427058493108</v>
+        <v>0.5884427058493126</v>
       </c>
       <c r="H4" t="n">
-        <v>5.231790602914785</v>
+        <v>5.231790602914802</v>
       </c>
       <c r="I4" t="n">
-        <v>17.69607700863201</v>
+        <v>17.69607700863206</v>
       </c>
       <c r="J4" t="n">
-        <v>41.60289930354627</v>
+        <v>41.60289930354639</v>
       </c>
       <c r="K4" t="n">
-        <v>68.36634346140173</v>
+        <v>68.36634346140194</v>
       </c>
       <c r="L4" t="n">
-        <v>87.48538192236028</v>
+        <v>87.48538192236055</v>
       </c>
       <c r="M4" t="n">
-        <v>92.2410688814515</v>
+        <v>92.24106888145178</v>
       </c>
       <c r="N4" t="n">
-        <v>90.04778243237688</v>
+        <v>90.04778243237713</v>
       </c>
       <c r="O4" t="n">
-        <v>83.17370173222807</v>
+        <v>83.17370173222832</v>
       </c>
       <c r="P4" t="n">
-        <v>71.16947053290207</v>
+        <v>71.16947053290228</v>
       </c>
       <c r="Q4" t="n">
-        <v>49.27405239616365</v>
+        <v>49.2740523961638</v>
       </c>
       <c r="R4" t="n">
-        <v>26.45852384664264</v>
+        <v>26.45852384664272</v>
       </c>
       <c r="S4" t="n">
-        <v>10.25495151921026</v>
+        <v>10.25495151921029</v>
       </c>
       <c r="T4" t="n">
-        <v>2.514255197719782</v>
+        <v>2.514255197719789</v>
       </c>
       <c r="U4" t="n">
-        <v>0.0320968748645079</v>
+        <v>0.032096874864508</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31276,49 +31276,49 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>1.510500782808005</v>
+        <v>1.510500782808</v>
       </c>
       <c r="H5" t="n">
-        <v>15.46941614193248</v>
+        <v>15.46941614193243</v>
       </c>
       <c r="I5" t="n">
-        <v>58.23358142920565</v>
+        <v>58.23358142920546</v>
       </c>
       <c r="J5" t="n">
-        <v>128.201865814851</v>
+        <v>128.2018658148506</v>
       </c>
       <c r="K5" t="n">
-        <v>192.1413639511138</v>
+        <v>192.1413639511132</v>
       </c>
       <c r="L5" t="n">
-        <v>238.3683522829744</v>
+        <v>238.3683522829736</v>
       </c>
       <c r="M5" t="n">
-        <v>265.2307205792362</v>
+        <v>265.2307205792354</v>
       </c>
       <c r="N5" t="n">
-        <v>264.2975509485544</v>
+        <v>264.2975509485535</v>
       </c>
       <c r="O5" t="n">
-        <v>254.5023887693424</v>
+        <v>254.5023887693416</v>
       </c>
       <c r="P5" t="n">
-        <v>217.2119006937697</v>
+        <v>217.211900693769</v>
       </c>
       <c r="Q5" t="n">
-        <v>163.117091409458</v>
+        <v>163.1170914094575</v>
       </c>
       <c r="R5" t="n">
-        <v>94.8839947980634</v>
+        <v>94.8839947980631</v>
       </c>
       <c r="S5" t="n">
-        <v>34.42053658823744</v>
+        <v>34.42053658823733</v>
       </c>
       <c r="T5" t="n">
-        <v>6.612217176742043</v>
+        <v>6.612217176742022</v>
       </c>
       <c r="U5" t="n">
-        <v>0.1208400626246403</v>
+        <v>0.1208400626246399</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -31355,49 +31355,49 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.808189168839208</v>
+        <v>0.8081891688392053</v>
       </c>
       <c r="H6" t="n">
-        <v>7.805405920104983</v>
+        <v>7.805405920104959</v>
       </c>
       <c r="I6" t="n">
-        <v>27.82581129556045</v>
+        <v>27.82581129556036</v>
       </c>
       <c r="J6" t="n">
-        <v>76.3561530086201</v>
+        <v>76.35615300861986</v>
       </c>
       <c r="K6" t="n">
-        <v>130.504827320847</v>
+        <v>130.5048273208466</v>
       </c>
       <c r="L6" t="n">
-        <v>173.4388671318376</v>
+        <v>173.4388671318368</v>
       </c>
       <c r="M6" t="n">
-        <v>177.0185212739818</v>
+        <v>155.2547700969502</v>
       </c>
       <c r="N6" t="n">
-        <v>166.2261994352968</v>
+        <v>166.2261994352959</v>
       </c>
       <c r="O6" t="n">
-        <v>155.7169806193766</v>
+        <v>177.4807317964071</v>
       </c>
       <c r="P6" t="n">
-        <v>154.3286843549186</v>
+        <v>154.3286843549181</v>
       </c>
       <c r="Q6" t="n">
-        <v>103.1646384644575</v>
+        <v>103.1646384644572</v>
       </c>
       <c r="R6" t="n">
-        <v>50.17862225477119</v>
+        <v>50.17862225477104</v>
       </c>
       <c r="S6" t="n">
-        <v>15.01175934225458</v>
+        <v>15.01175934225453</v>
       </c>
       <c r="T6" t="n">
-        <v>3.257569500715929</v>
+        <v>3.257569500715919</v>
       </c>
       <c r="U6" t="n">
-        <v>0.05317034005521107</v>
+        <v>0.0531703400552109</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31434,49 +31434,49 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.67755865032105</v>
+        <v>0.6775586503210478</v>
       </c>
       <c r="H7" t="n">
-        <v>6.024112363763521</v>
+        <v>6.024112363763503</v>
       </c>
       <c r="I7" t="n">
-        <v>20.37603650238213</v>
+        <v>20.37603650238206</v>
       </c>
       <c r="J7" t="n">
-        <v>47.90339657769823</v>
+        <v>47.90339657769808</v>
       </c>
       <c r="K7" t="n">
-        <v>78.71999591911833</v>
+        <v>78.71999591911809</v>
       </c>
       <c r="L7" t="n">
-        <v>100.7344924304587</v>
+        <v>100.7344924304583</v>
       </c>
       <c r="M7" t="n">
-        <v>106.2103982498715</v>
+        <v>106.2103982498711</v>
       </c>
       <c r="N7" t="n">
-        <v>103.6849523714022</v>
+        <v>103.6849523714019</v>
       </c>
       <c r="O7" t="n">
-        <v>95.76983541083354</v>
+        <v>95.76983541083324</v>
       </c>
       <c r="P7" t="n">
-        <v>81.94763894428405</v>
+        <v>81.9476389442838</v>
       </c>
       <c r="Q7" t="n">
-        <v>56.7362975282472</v>
+        <v>56.73629752824702</v>
       </c>
       <c r="R7" t="n">
-        <v>30.46550076807193</v>
+        <v>30.46550076807183</v>
       </c>
       <c r="S7" t="n">
-        <v>11.80799938786775</v>
+        <v>11.80799938786771</v>
       </c>
       <c r="T7" t="n">
-        <v>2.895023324099031</v>
+        <v>2.895023324099022</v>
       </c>
       <c r="U7" t="n">
-        <v>0.0369577445629664</v>
+        <v>0.03695774456296629</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31604,13 +31604,13 @@
         <v>92.99032639149898</v>
       </c>
       <c r="K9" t="n">
-        <v>158.9352790843423</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L9" t="n">
         <v>213.7080965605662</v>
       </c>
       <c r="M9" t="n">
-        <v>174.5799468423665</v>
+        <v>234.7989832111206</v>
       </c>
       <c r="N9" t="n">
         <v>224.0066613724356</v>
@@ -31619,7 +31619,7 @@
         <v>234.1788327264122</v>
       </c>
       <c r="P9" t="n">
-        <v>187.9491588335306</v>
+        <v>148.8239625747598</v>
       </c>
       <c r="Q9" t="n">
         <v>125.6390352953988</v>
@@ -32078,28 +32078,28 @@
         <v>259.7437903115855</v>
       </c>
       <c r="K15" t="n">
-        <v>137.841438974359</v>
+        <v>443.9435090247269</v>
       </c>
       <c r="L15" t="n">
         <v>596.9368339155583</v>
       </c>
       <c r="M15" t="n">
-        <v>696.5971294879668</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N15" t="n">
         <v>715.0339827160627</v>
       </c>
       <c r="O15" t="n">
-        <v>306.8030521674229</v>
+        <v>654.1164009578282</v>
       </c>
       <c r="P15" t="n">
-        <v>524.9860796892349</v>
+        <v>401.018627090653</v>
       </c>
       <c r="Q15" t="n">
         <v>350.9392912691326</v>
       </c>
       <c r="R15" t="n">
-        <v>145.679503963964</v>
+        <v>170.6946332877213</v>
       </c>
       <c r="S15" t="n">
         <v>51.06610426486996</v>
@@ -32224,49 +32224,49 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>5.138331138171342</v>
+        <v>5.138331138171344</v>
       </c>
       <c r="H17" t="n">
-        <v>52.62293376879727</v>
+        <v>52.62293376879729</v>
       </c>
       <c r="I17" t="n">
         <v>198.0955112043509</v>
       </c>
       <c r="J17" t="n">
-        <v>436.1094324383703</v>
+        <v>436.1094324383705</v>
       </c>
       <c r="K17" t="n">
-        <v>653.6149895171634</v>
+        <v>653.6149895171636</v>
       </c>
       <c r="L17" t="n">
-        <v>810.8671910869748</v>
+        <v>810.867191086975</v>
       </c>
       <c r="M17" t="n">
-        <v>902.2459874654294</v>
+        <v>902.2459874654296</v>
       </c>
       <c r="N17" t="n">
-        <v>916.8452708117587</v>
+        <v>916.8452708117591</v>
       </c>
       <c r="O17" t="n">
-        <v>865.7509905565674</v>
+        <v>865.7509905565677</v>
       </c>
       <c r="P17" t="n">
-        <v>738.8984405829623</v>
+        <v>738.8984405829625</v>
       </c>
       <c r="Q17" t="n">
-        <v>554.881956697201</v>
+        <v>554.8819566972011</v>
       </c>
       <c r="R17" t="n">
-        <v>322.7706933581559</v>
+        <v>322.770693358156</v>
       </c>
       <c r="S17" t="n">
         <v>117.0897208110796</v>
       </c>
       <c r="T17" t="n">
-        <v>22.49304455734506</v>
+        <v>22.49304455734507</v>
       </c>
       <c r="U17" t="n">
-        <v>0.4110664910537073</v>
+        <v>0.4110664910537074</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32306,40 +32306,40 @@
         <v>2.749249533031962</v>
       </c>
       <c r="H18" t="n">
-        <v>26.551962595335</v>
+        <v>26.55196259533501</v>
       </c>
       <c r="I18" t="n">
-        <v>94.65617909781096</v>
+        <v>94.65617909781099</v>
       </c>
       <c r="J18" t="n">
         <v>259.7437903115855</v>
       </c>
       <c r="K18" t="n">
-        <v>443.9435090247268</v>
+        <v>443.943509024727</v>
       </c>
       <c r="L18" t="n">
-        <v>596.9368339155582</v>
+        <v>596.9368339155584</v>
       </c>
       <c r="M18" t="n">
-        <v>696.5971294879665</v>
+        <v>696.5971294879669</v>
       </c>
       <c r="N18" t="n">
-        <v>452.6302361501949</v>
+        <v>715.0339827160628</v>
       </c>
       <c r="O18" t="n">
-        <v>654.1164009578281</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P18" t="n">
-        <v>133.9744074143302</v>
+        <v>383.0908173618448</v>
       </c>
       <c r="Q18" t="n">
-        <v>350.9392912691325</v>
+        <v>350.9392912691326</v>
       </c>
       <c r="R18" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S18" t="n">
-        <v>51.06610426486995</v>
+        <v>51.06610426486996</v>
       </c>
       <c r="T18" t="n">
         <v>11.08140491603672</v>
@@ -32382,49 +32382,49 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>2.304878455216614</v>
+        <v>2.304878455216615</v>
       </c>
       <c r="H19" t="n">
-        <v>20.49246481092591</v>
+        <v>20.49246481092592</v>
       </c>
       <c r="I19" t="n">
-        <v>69.31398118051419</v>
+        <v>69.31398118051422</v>
       </c>
       <c r="J19" t="n">
         <v>162.9549067838146</v>
       </c>
       <c r="K19" t="n">
-        <v>267.7849696151665</v>
+        <v>267.7849696151666</v>
       </c>
       <c r="L19" t="n">
-        <v>342.6725659692046</v>
+        <v>342.6725659692048</v>
       </c>
       <c r="M19" t="n">
-        <v>361.3001745754552</v>
+        <v>361.3001745754553</v>
       </c>
       <c r="N19" t="n">
-        <v>352.7092639696481</v>
+        <v>352.7092639696482</v>
       </c>
       <c r="O19" t="n">
-        <v>325.7840929246175</v>
+        <v>325.7840929246176</v>
       </c>
       <c r="P19" t="n">
-        <v>278.7645724381983</v>
+        <v>278.7645724381985</v>
       </c>
       <c r="Q19" t="n">
         <v>193.0021404636385</v>
       </c>
       <c r="R19" t="n">
-        <v>103.6357167227397</v>
+        <v>103.6357167227398</v>
       </c>
       <c r="S19" t="n">
-        <v>40.16774544227497</v>
+        <v>40.16774544227498</v>
       </c>
       <c r="T19" t="n">
-        <v>9.848117035925529</v>
+        <v>9.848117035925533</v>
       </c>
       <c r="U19" t="n">
-        <v>0.1257206430118154</v>
+        <v>0.1257206430118155</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32552,13 +32552,13 @@
         <v>259.7437903115855</v>
       </c>
       <c r="K21" t="n">
-        <v>443.9435090247269</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L21" t="n">
         <v>596.9368339155583</v>
       </c>
       <c r="M21" t="n">
-        <v>645.1509001052091</v>
+        <v>560.2412978806722</v>
       </c>
       <c r="N21" t="n">
         <v>715.0339827160627</v>
@@ -32567,7 +32567,7 @@
         <v>654.1164009578282</v>
       </c>
       <c r="P21" t="n">
-        <v>133.9744074143302</v>
+        <v>524.9860796892349</v>
       </c>
       <c r="Q21" t="n">
         <v>139.9817740860215</v>
@@ -32698,40 +32698,40 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>5.138331138171343</v>
+        <v>5.138331138171344</v>
       </c>
       <c r="H23" t="n">
-        <v>52.62293376879728</v>
+        <v>52.62293376879729</v>
       </c>
       <c r="I23" t="n">
         <v>198.0955112043509</v>
       </c>
       <c r="J23" t="n">
-        <v>436.1094324383704</v>
+        <v>436.1094324383705</v>
       </c>
       <c r="K23" t="n">
-        <v>653.6149895171635</v>
+        <v>653.6149895171636</v>
       </c>
       <c r="L23" t="n">
-        <v>810.8671910869749</v>
+        <v>810.867191086975</v>
       </c>
       <c r="M23" t="n">
-        <v>902.2459874654295</v>
+        <v>902.2459874654296</v>
       </c>
       <c r="N23" t="n">
-        <v>916.845270811759</v>
+        <v>916.8452708117591</v>
       </c>
       <c r="O23" t="n">
-        <v>865.7509905565676</v>
+        <v>865.7509905565677</v>
       </c>
       <c r="P23" t="n">
-        <v>738.8984405829624</v>
+        <v>738.8984405829625</v>
       </c>
       <c r="Q23" t="n">
-        <v>554.881956697201</v>
+        <v>554.8819566972011</v>
       </c>
       <c r="R23" t="n">
-        <v>322.7706933581559</v>
+        <v>322.770693358156</v>
       </c>
       <c r="S23" t="n">
         <v>117.0897208110796</v>
@@ -32780,37 +32780,37 @@
         <v>2.749249533031962</v>
       </c>
       <c r="H24" t="n">
-        <v>26.551962595335</v>
+        <v>26.55196259533501</v>
       </c>
       <c r="I24" t="n">
-        <v>94.65617909781098</v>
+        <v>94.65617909781099</v>
       </c>
       <c r="J24" t="n">
-        <v>126.8376266666667</v>
+        <v>259.7437903115855</v>
       </c>
       <c r="K24" t="n">
-        <v>443.9435090247269</v>
+        <v>443.943509024727</v>
       </c>
       <c r="L24" t="n">
-        <v>596.9368339155583</v>
+        <v>472.9693813169756</v>
       </c>
       <c r="M24" t="n">
-        <v>696.5971294879668</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N24" t="n">
-        <v>715.0339827160627</v>
+        <v>715.0339827160628</v>
       </c>
       <c r="O24" t="n">
-        <v>654.1164009578282</v>
+        <v>654.1164009578283</v>
       </c>
       <c r="P24" t="n">
-        <v>215.4343416764913</v>
+        <v>524.986079689235</v>
       </c>
       <c r="Q24" t="n">
-        <v>139.9817740860215</v>
+        <v>350.9392912691326</v>
       </c>
       <c r="R24" t="n">
-        <v>145.679503963964</v>
+        <v>170.6946332877214</v>
       </c>
       <c r="S24" t="n">
         <v>51.06610426486996</v>
@@ -32856,13 +32856,13 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>2.304878455216614</v>
+        <v>2.304878455216615</v>
       </c>
       <c r="H25" t="n">
-        <v>20.49246481092591</v>
+        <v>20.49246481092592</v>
       </c>
       <c r="I25" t="n">
-        <v>69.3139811805142</v>
+        <v>69.31398118051422</v>
       </c>
       <c r="J25" t="n">
         <v>162.9549067838146</v>
@@ -32871,31 +32871,31 @@
         <v>267.7849696151666</v>
       </c>
       <c r="L25" t="n">
-        <v>342.6725659692047</v>
+        <v>342.6725659692048</v>
       </c>
       <c r="M25" t="n">
-        <v>361.3001745754552</v>
+        <v>361.3001745754553</v>
       </c>
       <c r="N25" t="n">
-        <v>352.7092639696481</v>
+        <v>352.7092639696482</v>
       </c>
       <c r="O25" t="n">
-        <v>325.7840929246175</v>
+        <v>325.7840929246176</v>
       </c>
       <c r="P25" t="n">
-        <v>278.7645724381984</v>
+        <v>278.7645724381985</v>
       </c>
       <c r="Q25" t="n">
         <v>193.0021404636385</v>
       </c>
       <c r="R25" t="n">
-        <v>103.6357167227397</v>
+        <v>103.6357167227398</v>
       </c>
       <c r="S25" t="n">
         <v>40.16774544227498</v>
       </c>
       <c r="T25" t="n">
-        <v>9.848117035925531</v>
+        <v>9.848117035925533</v>
       </c>
       <c r="U25" t="n">
         <v>0.1257206430118155</v>
@@ -33023,16 +33023,16 @@
         <v>94.65617909781099</v>
       </c>
       <c r="J27" t="n">
-        <v>126.8376266666667</v>
+        <v>259.7437903115855</v>
       </c>
       <c r="K27" t="n">
-        <v>137.841438974359</v>
+        <v>443.943509024727</v>
       </c>
       <c r="L27" t="n">
         <v>596.9368339155584</v>
       </c>
       <c r="M27" t="n">
-        <v>693.1474615255904</v>
+        <v>620.1357707814511</v>
       </c>
       <c r="N27" t="n">
         <v>715.0339827160628</v>
@@ -33041,13 +33041,13 @@
         <v>654.1164009578283</v>
       </c>
       <c r="P27" t="n">
-        <v>524.986079689235</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q27" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R27" t="n">
-        <v>145.679503963964</v>
+        <v>170.6946332877214</v>
       </c>
       <c r="S27" t="n">
         <v>51.06610426486996</v>
@@ -33172,40 +33172,40 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>5.138331138171343</v>
+        <v>5.138331138171344</v>
       </c>
       <c r="H29" t="n">
-        <v>52.62293376879728</v>
+        <v>52.62293376879729</v>
       </c>
       <c r="I29" t="n">
         <v>198.0955112043509</v>
       </c>
       <c r="J29" t="n">
-        <v>436.1094324383704</v>
+        <v>436.1094324383705</v>
       </c>
       <c r="K29" t="n">
-        <v>653.6149895171635</v>
+        <v>653.6149895171636</v>
       </c>
       <c r="L29" t="n">
-        <v>810.8671910869749</v>
+        <v>810.867191086975</v>
       </c>
       <c r="M29" t="n">
-        <v>902.2459874654295</v>
+        <v>902.2459874654296</v>
       </c>
       <c r="N29" t="n">
-        <v>916.845270811759</v>
+        <v>916.8452708117591</v>
       </c>
       <c r="O29" t="n">
-        <v>865.7509905565676</v>
+        <v>865.7509905565677</v>
       </c>
       <c r="P29" t="n">
-        <v>738.8984405829624</v>
+        <v>738.8984405829625</v>
       </c>
       <c r="Q29" t="n">
-        <v>554.881956697201</v>
+        <v>554.8819566972011</v>
       </c>
       <c r="R29" t="n">
-        <v>322.7706933581559</v>
+        <v>322.770693358156</v>
       </c>
       <c r="S29" t="n">
         <v>117.0897208110796</v>
@@ -33254,37 +33254,37 @@
         <v>2.749249533031962</v>
       </c>
       <c r="H30" t="n">
-        <v>26.551962595335</v>
+        <v>26.55196259533501</v>
       </c>
       <c r="I30" t="n">
-        <v>94.65617909781098</v>
+        <v>94.65617909781099</v>
       </c>
       <c r="J30" t="n">
-        <v>126.8376266666667</v>
+        <v>259.7437903115855</v>
       </c>
       <c r="K30" t="n">
-        <v>137.841438974359</v>
+        <v>443.943509024727</v>
       </c>
       <c r="L30" t="n">
-        <v>596.9368339155583</v>
+        <v>596.9368339155584</v>
       </c>
       <c r="M30" t="n">
-        <v>696.5971294879668</v>
+        <v>696.5971294879669</v>
       </c>
       <c r="N30" t="n">
-        <v>475.611668246819</v>
+        <v>715.0339827160628</v>
       </c>
       <c r="O30" t="n">
-        <v>654.1164009578282</v>
+        <v>577.6550422513128</v>
       </c>
       <c r="P30" t="n">
-        <v>524.9860796892349</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q30" t="n">
-        <v>350.9392912691326</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R30" t="n">
-        <v>170.6946332877213</v>
+        <v>170.6946332877214</v>
       </c>
       <c r="S30" t="n">
         <v>51.06610426486996</v>
@@ -33330,13 +33330,13 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>2.304878455216614</v>
+        <v>2.304878455216615</v>
       </c>
       <c r="H31" t="n">
-        <v>20.49246481092591</v>
+        <v>20.49246481092592</v>
       </c>
       <c r="I31" t="n">
-        <v>69.3139811805142</v>
+        <v>69.31398118051422</v>
       </c>
       <c r="J31" t="n">
         <v>162.9549067838146</v>
@@ -33345,31 +33345,31 @@
         <v>267.7849696151666</v>
       </c>
       <c r="L31" t="n">
-        <v>342.6725659692047</v>
+        <v>342.6725659692048</v>
       </c>
       <c r="M31" t="n">
-        <v>361.3001745754552</v>
+        <v>361.3001745754553</v>
       </c>
       <c r="N31" t="n">
-        <v>352.7092639696481</v>
+        <v>352.7092639696482</v>
       </c>
       <c r="O31" t="n">
-        <v>325.7840929246175</v>
+        <v>325.7840929246176</v>
       </c>
       <c r="P31" t="n">
-        <v>278.7645724381984</v>
+        <v>278.7645724381985</v>
       </c>
       <c r="Q31" t="n">
         <v>193.0021404636385</v>
       </c>
       <c r="R31" t="n">
-        <v>103.6357167227397</v>
+        <v>103.6357167227398</v>
       </c>
       <c r="S31" t="n">
         <v>40.16774544227498</v>
       </c>
       <c r="T31" t="n">
-        <v>9.848117035925531</v>
+        <v>9.848117035925533</v>
       </c>
       <c r="U31" t="n">
         <v>0.1257206430118155</v>
@@ -33512,13 +33512,13 @@
         <v>715.0339827160627</v>
       </c>
       <c r="O33" t="n">
-        <v>602.6701715750705</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P33" t="n">
-        <v>133.9744074143302</v>
+        <v>383.0908173618453</v>
       </c>
       <c r="Q33" t="n">
-        <v>139.9817740860215</v>
+        <v>350.9392912691326</v>
       </c>
       <c r="R33" t="n">
         <v>145.679503963964</v>
@@ -33971,13 +33971,13 @@
         <v>94.65617909781098</v>
       </c>
       <c r="J39" t="n">
-        <v>126.8376266666667</v>
+        <v>259.7437903115855</v>
       </c>
       <c r="K39" t="n">
-        <v>137.841438974359</v>
+        <v>443.9435090247269</v>
       </c>
       <c r="L39" t="n">
-        <v>357.5145194463146</v>
+        <v>596.9368339155583</v>
       </c>
       <c r="M39" t="n">
         <v>696.5971294879668</v>
@@ -33986,13 +33986,13 @@
         <v>715.0339827160627</v>
       </c>
       <c r="O39" t="n">
-        <v>654.1164009578282</v>
+        <v>186.6433699764089</v>
       </c>
       <c r="P39" t="n">
         <v>524.9860796892349</v>
       </c>
       <c r="Q39" t="n">
-        <v>350.9392912691326</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R39" t="n">
         <v>170.6946332877213</v>
@@ -34208,13 +34208,13 @@
         <v>94.65617909781098</v>
       </c>
       <c r="J42" t="n">
-        <v>126.8376266666667</v>
+        <v>259.7437903115855</v>
       </c>
       <c r="K42" t="n">
-        <v>137.841438974359</v>
+        <v>443.9435090247269</v>
       </c>
       <c r="L42" t="n">
-        <v>357.5145194463146</v>
+        <v>596.9368339155583</v>
       </c>
       <c r="M42" t="n">
         <v>696.5971294879668</v>
@@ -34223,16 +34223,16 @@
         <v>715.0339827160627</v>
       </c>
       <c r="O42" t="n">
-        <v>654.1164009578282</v>
+        <v>211.6584993001656</v>
       </c>
       <c r="P42" t="n">
         <v>524.9860796892349</v>
       </c>
       <c r="Q42" t="n">
-        <v>350.9392912691326</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R42" t="n">
-        <v>170.6946332877213</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S42" t="n">
         <v>51.06610426486996</v>
@@ -34445,13 +34445,13 @@
         <v>94.65617909781098</v>
       </c>
       <c r="J45" t="n">
-        <v>126.8376266666667</v>
+        <v>259.7437903115855</v>
       </c>
       <c r="K45" t="n">
-        <v>137.841438974359</v>
+        <v>443.9435090247269</v>
       </c>
       <c r="L45" t="n">
-        <v>357.5145194463146</v>
+        <v>596.9368339155583</v>
       </c>
       <c r="M45" t="n">
         <v>696.5971294879668</v>
@@ -34460,10 +34460,10 @@
         <v>715.0339827160627</v>
       </c>
       <c r="O45" t="n">
-        <v>654.1164009578282</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P45" t="n">
-        <v>524.9860796892349</v>
+        <v>358.0756880380881</v>
       </c>
       <c r="Q45" t="n">
         <v>350.9392912691326</v>
@@ -34705,10 +34705,10 @@
         <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>-6.821210263296962e-13</v>
+        <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>-6.821210263296962e-13</v>
+        <v>0</v>
       </c>
       <c r="O2" t="n">
         <v>0</v>
@@ -34781,19 +34781,19 @@
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>-6.821210263296962e-13</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>-6.821210263296962e-13</v>
+        <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>-1.391802498167663e-12</v>
+        <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>-6.821210263296962e-13</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>-6.821210263296962e-13</v>
+        <v>0</v>
       </c>
       <c r="Q3" t="n">
         <v>0</v>
@@ -34939,16 +34939,16 @@
         <v>0</v>
       </c>
       <c r="L5" t="n">
-        <v>2.601937312987133</v>
+        <v>2.601937312986365</v>
       </c>
       <c r="M5" t="n">
-        <v>34.88448735196349</v>
+        <v>34.88448735196263</v>
       </c>
       <c r="N5" t="n">
-        <v>34.88448735196346</v>
+        <v>34.88448735196263</v>
       </c>
       <c r="O5" t="n">
-        <v>24.40417734765563</v>
+        <v>24.40417734765484</v>
       </c>
       <c r="P5" t="n">
         <v>0</v>
@@ -35018,19 +35018,19 @@
         <v>0</v>
       </c>
       <c r="L6" t="n">
-        <v>34.88448735196346</v>
+        <v>34.88448735196263</v>
       </c>
       <c r="M6" t="n">
-        <v>34.88448735196346</v>
+        <v>13.12073617493184</v>
       </c>
       <c r="N6" t="n">
-        <v>34.88448735196346</v>
+        <v>34.88448735196263</v>
       </c>
       <c r="O6" t="n">
-        <v>13.12073617493215</v>
+        <v>34.88448735196263</v>
       </c>
       <c r="P6" t="n">
-        <v>20.35427694058833</v>
+        <v>20.35427694058785</v>
       </c>
       <c r="Q6" t="n">
         <v>0</v>
@@ -35252,13 +35252,13 @@
         <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>21.09384010998332</v>
+        <v>0</v>
       </c>
       <c r="L9" t="n">
         <v>75.15371678069204</v>
       </c>
       <c r="M9" t="n">
-        <v>32.44591292034816</v>
+        <v>92.66494928910228</v>
       </c>
       <c r="N9" t="n">
         <v>92.66494928910228</v>
@@ -35267,7 +35267,7 @@
         <v>91.58258828196773</v>
       </c>
       <c r="P9" t="n">
-        <v>53.97475141920035</v>
+        <v>14.84955516042953</v>
       </c>
       <c r="Q9" t="n">
         <v>0</v>
@@ -35726,28 +35726,28 @@
         <v>132.9061636449188</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>306.102070050368</v>
       </c>
       <c r="L15" t="n">
         <v>458.3824541356841</v>
       </c>
       <c r="M15" t="n">
-        <v>554.4630955659484</v>
+        <v>0</v>
       </c>
       <c r="N15" t="n">
         <v>583.6922706327294</v>
       </c>
       <c r="O15" t="n">
-        <v>164.2068077229785</v>
+        <v>511.5201565133838</v>
       </c>
       <c r="P15" t="n">
-        <v>391.0116722749046</v>
+        <v>267.0442196763228</v>
       </c>
       <c r="Q15" t="n">
         <v>210.9575171831111</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>25.01512932375738</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35881,31 +35881,31 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>255.063527911684</v>
+        <v>255.0635279116842</v>
       </c>
       <c r="K17" t="n">
-        <v>433.5251384721828</v>
+        <v>433.5251384721831</v>
       </c>
       <c r="L17" t="n">
-        <v>575.1007761169876</v>
+        <v>575.1007761169878</v>
       </c>
       <c r="M17" t="n">
-        <v>671.8997542381567</v>
+        <v>671.8997542381569</v>
       </c>
       <c r="N17" t="n">
-        <v>687.4322072151679</v>
+        <v>687.4322072151681</v>
       </c>
       <c r="O17" t="n">
-        <v>635.6527791348807</v>
+        <v>635.6527791348809</v>
       </c>
       <c r="P17" t="n">
-        <v>507.6654448276927</v>
+        <v>507.665444827693</v>
       </c>
       <c r="Q17" t="n">
-        <v>332.5762668227514</v>
+        <v>332.5762668227516</v>
       </c>
       <c r="R17" t="n">
-        <v>107.1851555440238</v>
+        <v>107.1851555440239</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35963,25 +35963,25 @@
         <v>132.9061636449188</v>
       </c>
       <c r="K18" t="n">
-        <v>306.1020700503678</v>
+        <v>306.102070050368</v>
       </c>
       <c r="L18" t="n">
-        <v>458.382454135684</v>
+        <v>458.3824541356842</v>
       </c>
       <c r="M18" t="n">
-        <v>554.4630955659482</v>
+        <v>554.4630955659486</v>
       </c>
       <c r="N18" t="n">
-        <v>321.2885240668616</v>
+        <v>583.6922706327296</v>
       </c>
       <c r="O18" t="n">
-        <v>511.5201565133837</v>
+        <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>0</v>
+        <v>249.1164099475146</v>
       </c>
       <c r="Q18" t="n">
-        <v>210.957517183111</v>
+        <v>210.9575171831111</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36042,7 +36042,7 @@
         <v>101.2059290193558</v>
       </c>
       <c r="K19" t="n">
-        <v>277.1256801414976</v>
+        <v>277.1256801414977</v>
       </c>
       <c r="L19" t="n">
         <v>401.8727935817348</v>
@@ -36200,13 +36200,13 @@
         <v>132.9061636449188</v>
       </c>
       <c r="K21" t="n">
-        <v>306.102070050368</v>
+        <v>0</v>
       </c>
       <c r="L21" t="n">
         <v>458.3824541356841</v>
       </c>
       <c r="M21" t="n">
-        <v>503.0168661831908</v>
+        <v>418.1072639586538</v>
       </c>
       <c r="N21" t="n">
         <v>583.6922706327294</v>
@@ -36215,7 +36215,7 @@
         <v>511.5201565133838</v>
       </c>
       <c r="P21" t="n">
-        <v>0</v>
+        <v>391.0116722749046</v>
       </c>
       <c r="Q21" t="n">
         <v>0</v>
@@ -36276,28 +36276,28 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>101.2059290193511</v>
+        <v>101.2059290193558</v>
       </c>
       <c r="K22" t="n">
-        <v>277.1256801414978</v>
+        <v>277.1256801414976</v>
       </c>
       <c r="L22" t="n">
-        <v>401.872793581735</v>
+        <v>401.8727935817348</v>
       </c>
       <c r="M22" t="n">
-        <v>432.4942538895099</v>
+        <v>432.4942538895114</v>
       </c>
       <c r="N22" t="n">
-        <v>428.4516387010908</v>
+        <v>428.4516387010906</v>
       </c>
       <c r="O22" t="n">
-        <v>381.9794231908713</v>
+        <v>381.9794231908711</v>
       </c>
       <c r="P22" t="n">
-        <v>307.653334055306</v>
+        <v>307.6533340553058</v>
       </c>
       <c r="Q22" t="n">
-        <v>138.4502995641582</v>
+        <v>138.450299564158</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36358,28 +36358,28 @@
         <v>255.0635279116842</v>
       </c>
       <c r="K23" t="n">
-        <v>433.525138472183</v>
+        <v>433.5251384721831</v>
       </c>
       <c r="L23" t="n">
-        <v>575.1007761169876</v>
+        <v>575.1007761169878</v>
       </c>
       <c r="M23" t="n">
-        <v>671.8997542381568</v>
+        <v>671.8997542381569</v>
       </c>
       <c r="N23" t="n">
         <v>687.4322072151681</v>
       </c>
       <c r="O23" t="n">
-        <v>635.6527791348808</v>
+        <v>635.6527791348809</v>
       </c>
       <c r="P23" t="n">
-        <v>507.6654448276929</v>
+        <v>507.665444827693</v>
       </c>
       <c r="Q23" t="n">
-        <v>332.5762668227514</v>
+        <v>332.5762668227516</v>
       </c>
       <c r="R23" t="n">
-        <v>107.1851555440238</v>
+        <v>107.1851555440239</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36434,31 +36434,31 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>132.9061636449188</v>
       </c>
       <c r="K24" t="n">
         <v>306.102070050368</v>
       </c>
       <c r="L24" t="n">
-        <v>458.3824541356841</v>
+        <v>334.4150015371014</v>
       </c>
       <c r="M24" t="n">
-        <v>554.4630955659484</v>
+        <v>0</v>
       </c>
       <c r="N24" t="n">
-        <v>583.6922706327294</v>
+        <v>583.6922706327296</v>
       </c>
       <c r="O24" t="n">
-        <v>511.5201565133838</v>
+        <v>511.5201565133839</v>
       </c>
       <c r="P24" t="n">
-        <v>81.45993426216104</v>
+        <v>391.0116722749048</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>210.9575171831111</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>25.01512932375741</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36513,28 +36513,28 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>101.2059290193512</v>
+        <v>101.2059290193558</v>
       </c>
       <c r="K25" t="n">
-        <v>277.1256801414978</v>
+        <v>277.1256801414977</v>
       </c>
       <c r="L25" t="n">
-        <v>401.872793581735</v>
+        <v>401.8727935817348</v>
       </c>
       <c r="M25" t="n">
-        <v>432.4942538895099</v>
+        <v>432.4942538895098</v>
       </c>
       <c r="N25" t="n">
-        <v>428.4516387010908</v>
+        <v>428.4516387010906</v>
       </c>
       <c r="O25" t="n">
-        <v>381.9794231908713</v>
+        <v>381.9794231908712</v>
       </c>
       <c r="P25" t="n">
-        <v>307.653334055306</v>
+        <v>307.6533340553058</v>
       </c>
       <c r="Q25" t="n">
-        <v>138.4502995641582</v>
+        <v>138.4502995641581</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36671,16 +36671,16 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>132.9061636449188</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>306.102070050368</v>
       </c>
       <c r="L27" t="n">
         <v>458.3824541356842</v>
       </c>
       <c r="M27" t="n">
-        <v>551.013427603572</v>
+        <v>478.0017368594328</v>
       </c>
       <c r="N27" t="n">
         <v>583.6922706327296</v>
@@ -36689,13 +36689,13 @@
         <v>511.5201565133839</v>
       </c>
       <c r="P27" t="n">
-        <v>391.0116722749048</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>25.01512932375741</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36750,28 +36750,28 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>101.2059290193558</v>
+        <v>101.2059290193559</v>
       </c>
       <c r="K28" t="n">
-        <v>277.1256801414977</v>
+        <v>277.1256801414978</v>
       </c>
       <c r="L28" t="n">
-        <v>401.8727935817348</v>
+        <v>401.8727935817349</v>
       </c>
       <c r="M28" t="n">
-        <v>432.4942538895098</v>
+        <v>432.4942538895099</v>
       </c>
       <c r="N28" t="n">
-        <v>428.4516387010907</v>
+        <v>428.4516387010908</v>
       </c>
       <c r="O28" t="n">
-        <v>381.9794231908712</v>
+        <v>381.9794231908713</v>
       </c>
       <c r="P28" t="n">
         <v>307.6533340553059</v>
       </c>
       <c r="Q28" t="n">
-        <v>138.4502995641581</v>
+        <v>138.4502995641582</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36832,28 +36832,28 @@
         <v>255.0635279116842</v>
       </c>
       <c r="K29" t="n">
-        <v>433.525138472183</v>
+        <v>433.5251384721831</v>
       </c>
       <c r="L29" t="n">
-        <v>575.1007761169876</v>
+        <v>575.1007761169878</v>
       </c>
       <c r="M29" t="n">
-        <v>671.8997542381568</v>
+        <v>671.8997542381569</v>
       </c>
       <c r="N29" t="n">
         <v>687.4322072151681</v>
       </c>
       <c r="O29" t="n">
-        <v>635.6527791348808</v>
+        <v>635.6527791348809</v>
       </c>
       <c r="P29" t="n">
-        <v>507.6654448276929</v>
+        <v>507.665444827693</v>
       </c>
       <c r="Q29" t="n">
-        <v>332.5762668227514</v>
+        <v>332.5762668227516</v>
       </c>
       <c r="R29" t="n">
-        <v>107.1851555440238</v>
+        <v>107.1851555440239</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36908,31 +36908,31 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>132.9061636449188</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>306.102070050368</v>
       </c>
       <c r="L30" t="n">
-        <v>458.3824541356841</v>
+        <v>458.3824541356842</v>
       </c>
       <c r="M30" t="n">
-        <v>554.4630955659484</v>
+        <v>554.4630955659486</v>
       </c>
       <c r="N30" t="n">
-        <v>344.2699561634857</v>
+        <v>583.6922706327296</v>
       </c>
       <c r="O30" t="n">
-        <v>511.5201565133838</v>
+        <v>435.0587978068684</v>
       </c>
       <c r="P30" t="n">
-        <v>391.0116722749046</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>210.9575171831111</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>25.01512932375738</v>
+        <v>25.01512932375741</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -36987,28 +36987,28 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>101.205929019356</v>
+        <v>101.2059290193558</v>
       </c>
       <c r="K31" t="n">
-        <v>277.1256801414979</v>
+        <v>277.1256801414977</v>
       </c>
       <c r="L31" t="n">
-        <v>401.872793581735</v>
+        <v>401.8727935817349</v>
       </c>
       <c r="M31" t="n">
-        <v>432.4942538895099</v>
+        <v>432.4942538895098</v>
       </c>
       <c r="N31" t="n">
-        <v>428.4516387010909</v>
+        <v>428.4516387010907</v>
       </c>
       <c r="O31" t="n">
-        <v>381.9794231908713</v>
+        <v>381.9794231908712</v>
       </c>
       <c r="P31" t="n">
-        <v>307.653334055306</v>
+        <v>307.6533340553059</v>
       </c>
       <c r="Q31" t="n">
-        <v>138.4502995641583</v>
+        <v>138.4502995641581</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37063,7 +37063,7 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>1.062225503964594e-12</v>
+        <v>0</v>
       </c>
       <c r="J32" t="n">
         <v>255.0635279116842</v>
@@ -37078,7 +37078,7 @@
         <v>671.8997542381568</v>
       </c>
       <c r="N32" t="n">
-        <v>687.4322072151681</v>
+        <v>687.4322072151692</v>
       </c>
       <c r="O32" t="n">
         <v>635.6527791348808</v>
@@ -37160,13 +37160,13 @@
         <v>583.6922706327294</v>
       </c>
       <c r="O33" t="n">
-        <v>460.073927130626</v>
+        <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>0</v>
+        <v>249.116409947515</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>210.9575171831111</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37236,13 +37236,13 @@
         <v>432.4942538895098</v>
       </c>
       <c r="N34" t="n">
-        <v>428.4516387010907</v>
+        <v>428.4516387010908</v>
       </c>
       <c r="O34" t="n">
         <v>381.9794231908712</v>
       </c>
       <c r="P34" t="n">
-        <v>307.6533340553058</v>
+        <v>307.6533340553059</v>
       </c>
       <c r="Q34" t="n">
         <v>138.4502995641581</v>
@@ -37619,13 +37619,13 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>132.9061636449188</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>306.102070050368</v>
       </c>
       <c r="L39" t="n">
-        <v>218.9601396664405</v>
+        <v>458.3824541356841</v>
       </c>
       <c r="M39" t="n">
         <v>554.4630955659484</v>
@@ -37634,13 +37634,13 @@
         <v>583.6922706327294</v>
       </c>
       <c r="O39" t="n">
-        <v>511.5201565133838</v>
+        <v>44.04712553196445</v>
       </c>
       <c r="P39" t="n">
         <v>391.0116722749046</v>
       </c>
       <c r="Q39" t="n">
-        <v>210.9575171831111</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
         <v>25.01512932375738</v>
@@ -37707,10 +37707,10 @@
         <v>401.8727935817348</v>
       </c>
       <c r="M40" t="n">
-        <v>432.4942538895098</v>
+        <v>432.4942538895088</v>
       </c>
       <c r="N40" t="n">
-        <v>428.4516387010908</v>
+        <v>428.4516387010907</v>
       </c>
       <c r="O40" t="n">
         <v>381.9794231908712</v>
@@ -37856,13 +37856,13 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>132.9061636449188</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>306.102070050368</v>
       </c>
       <c r="L42" t="n">
-        <v>218.9601396664405</v>
+        <v>458.3824541356841</v>
       </c>
       <c r="M42" t="n">
         <v>554.4630955659484</v>
@@ -37871,16 +37871,16 @@
         <v>583.6922706327294</v>
       </c>
       <c r="O42" t="n">
-        <v>511.5201565133838</v>
+        <v>69.06225485572118</v>
       </c>
       <c r="P42" t="n">
         <v>391.0116722749046</v>
       </c>
       <c r="Q42" t="n">
-        <v>210.9575171831111</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>25.01512932375738</v>
+        <v>0</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -38011,7 +38011,7 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>9.473903143468003e-13</v>
+        <v>0</v>
       </c>
       <c r="J44" t="n">
         <v>255.0635279116842</v>
@@ -38093,13 +38093,13 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>132.9061636449188</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>306.102070050368</v>
       </c>
       <c r="L45" t="n">
-        <v>218.9601396664405</v>
+        <v>458.3824541356841</v>
       </c>
       <c r="M45" t="n">
         <v>554.4630955659484</v>
@@ -38108,10 +38108,10 @@
         <v>583.6922706327294</v>
       </c>
       <c r="O45" t="n">
-        <v>511.5201565133838</v>
+        <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>391.0116722749046</v>
+        <v>224.1012806237578</v>
       </c>
       <c r="Q45" t="n">
         <v>210.9575171831111</v>
@@ -38172,28 +38172,28 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>101.2059290193558</v>
+        <v>101.2059290193559</v>
       </c>
       <c r="K46" t="n">
-        <v>277.1256801414977</v>
+        <v>277.1256801414978</v>
       </c>
       <c r="L46" t="n">
-        <v>401.8727935817348</v>
+        <v>401.8727935817349</v>
       </c>
       <c r="M46" t="n">
-        <v>432.4942538895098</v>
+        <v>432.4942538895099</v>
       </c>
       <c r="N46" t="n">
         <v>428.4516387010908</v>
       </c>
       <c r="O46" t="n">
-        <v>381.9794231908712</v>
+        <v>381.9794231908713</v>
       </c>
       <c r="P46" t="n">
-        <v>307.6533340553059</v>
+        <v>307.6533340553029</v>
       </c>
       <c r="Q46" t="n">
-        <v>138.4502995641581</v>
+        <v>138.4502995641582</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
